--- a/groups/24-25-Univers/acmp_results.xlsx
+++ b/groups/24-25-Univers/acmp_results.xlsx
@@ -37,7 +37,7 @@
     <t>Шатохин Данил</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
+    <t>Селёдкин Ярослав</t>
   </si>
   <si>
     <t>Трегубович Максим</t>
@@ -46,7 +46,7 @@
     <t>Костюнин Егор</t>
   </si>
   <si>
-    <t>Мухметов Максим</t>
+    <t>Мухаметов Максим</t>
   </si>
   <si>
     <t>Лысенко Георгий</t>
@@ -6751,7 +6751,7 @@
         <v>3683</v>
       </c>
       <c r="F3">
-        <v>5345</v>
+        <v>5346</v>
       </c>
       <c r="G3">
         <v>7227</v>
@@ -6763,13 +6763,13 @@
         <v>18687</v>
       </c>
       <c r="J3">
-        <v>35808</v>
+        <v>35810</v>
       </c>
       <c r="K3">
-        <v>82261</v>
+        <v>82262</v>
       </c>
       <c r="L3">
-        <v>122247</v>
+        <v>122250</v>
       </c>
     </row>
     <row r="4" spans="1:12">

--- a/groups/24-25-Univers/acmp_results.xlsx
+++ b/groups/24-25-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5055" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5066" uniqueCount="2088">
   <si>
     <t>№</t>
   </si>
@@ -1210,319 +1210,319 @@
     <t>310</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>1+, 15-</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>11-</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
     <t>7-</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>1+, 15-</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>11-</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>371</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>5-</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>411</t>
   </si>
   <si>
     <t>1+, 21-</t>
@@ -6742,34 +6742,34 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>1402</v>
+        <v>1358</v>
       </c>
       <c r="D3">
-        <v>3537</v>
+        <v>3454</v>
       </c>
       <c r="E3">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="F3">
-        <v>5346</v>
+        <v>5229</v>
       </c>
       <c r="G3">
         <v>7227</v>
       </c>
       <c r="H3">
-        <v>7579</v>
+        <v>7279</v>
       </c>
       <c r="I3">
-        <v>18687</v>
+        <v>18230</v>
       </c>
       <c r="J3">
-        <v>35810</v>
+        <v>35814</v>
       </c>
       <c r="K3">
-        <v>82262</v>
+        <v>74518</v>
       </c>
       <c r="L3">
-        <v>122250</v>
+        <v>122264</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6780,31 +6780,31 @@
         <v>27685</v>
       </c>
       <c r="C4">
-        <v>8296</v>
+        <v>8449</v>
       </c>
       <c r="D4">
-        <v>4705</v>
+        <v>4806</v>
       </c>
       <c r="E4">
         <v>4589</v>
       </c>
       <c r="F4">
-        <v>3538</v>
+        <v>3597</v>
       </c>
       <c r="G4">
         <v>2856</v>
       </c>
       <c r="H4">
-        <v>2746</v>
+        <v>2838</v>
       </c>
       <c r="I4">
-        <v>1199</v>
+        <v>1232</v>
       </c>
       <c r="J4">
         <v>574</v>
       </c>
       <c r="K4">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="L4">
         <v>62</v>
@@ -6818,31 +6818,31 @@
         <v>2158</v>
       </c>
       <c r="C5">
-        <v>1558</v>
+        <v>1567</v>
       </c>
       <c r="D5">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E5">
         <v>786</v>
       </c>
       <c r="F5">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G5">
         <v>717</v>
       </c>
       <c r="H5">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="I5">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J5">
         <v>159</v>
       </c>
       <c r="K5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L5">
         <v>21</v>
@@ -6856,31 +6856,31 @@
         <v>785</v>
       </c>
       <c r="C6">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D6">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E6">
         <v>228</v>
       </c>
       <c r="F6">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G6">
         <v>137</v>
       </c>
       <c r="H6">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6">
         <v>32</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>12</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>14</v>
@@ -6932,31 +6932,31 @@
         <v>1096</v>
       </c>
       <c r="C8">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>256</v>
       </c>
       <c r="F8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G8">
         <v>204</v>
       </c>
       <c r="H8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8">
         <v>56</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>12</v>
@@ -6970,7 +6970,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -9576,6 +9576,9 @@
       <c r="J162" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="K162" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="2" t="s">
@@ -11312,19 +11315,19 @@
       <c r="G319" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H319" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I319" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="K319" s="4" t="s">
-        <v>70</v>
+      <c r="H319" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>34</v>
@@ -11338,7 +11341,7 @@
     </row>
     <row r="321" spans="1:12">
       <c r="A321" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>34</v>
@@ -11364,7 +11367,7 @@
     </row>
     <row r="322" spans="1:12">
       <c r="A322" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>38</v>
@@ -11375,7 +11378,7 @@
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>34</v>
@@ -11386,7 +11389,7 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>39</v>
@@ -11403,7 +11406,7 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>34</v>
@@ -11411,7 +11414,7 @@
     </row>
     <row r="326" spans="1:12">
       <c r="A326" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>34</v>
@@ -11425,7 +11428,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>38</v>
@@ -11433,7 +11436,7 @@
     </row>
     <row r="328" spans="1:12">
       <c r="A328" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>34</v>
@@ -11441,7 +11444,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>34</v>
@@ -11449,7 +11452,7 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>34</v>
@@ -11463,7 +11466,7 @@
     </row>
     <row r="331" spans="1:12">
       <c r="A331" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>34</v>
@@ -11483,7 +11486,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>34</v>
@@ -11497,7 +11500,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="A333" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>34</v>
@@ -11523,7 +11526,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>39</v>
@@ -11531,7 +11534,7 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>34</v>
@@ -11545,7 +11548,7 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>34</v>
@@ -11565,7 +11568,7 @@
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>34</v>
@@ -11576,7 +11579,7 @@
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>34</v>
@@ -11593,7 +11596,7 @@
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>38</v>
@@ -11601,7 +11604,7 @@
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>34</v>
@@ -11625,12 +11628,12 @@
         <v>38</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>34</v>
@@ -11644,7 +11647,7 @@
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>34</v>
@@ -11661,7 +11664,7 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>34</v>
@@ -11669,7 +11672,7 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>34</v>
@@ -11677,7 +11680,7 @@
     </row>
     <row r="345" spans="1:9">
       <c r="A345" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>34</v>
@@ -11700,12 +11703,12 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>34</v>
@@ -11716,7 +11719,7 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>34</v>
@@ -11727,7 +11730,7 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>34</v>
@@ -11747,7 +11750,7 @@
     </row>
     <row r="350" spans="1:9">
       <c r="A350" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>34</v>
@@ -11758,7 +11761,7 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>38</v>
@@ -11766,7 +11769,7 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>48</v>
@@ -11780,7 +11783,7 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>38</v>
@@ -11794,7 +11797,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>39</v>
@@ -11805,7 +11808,7 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>38</v>
@@ -11816,7 +11819,7 @@
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>39</v>
@@ -11830,7 +11833,7 @@
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>42</v>
@@ -11838,7 +11841,7 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>95</v>
@@ -11850,12 +11853,12 @@
         <v>38</v>
       </c>
       <c r="G358" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>34</v>
@@ -11872,7 +11875,7 @@
     </row>
     <row r="360" spans="1:9">
       <c r="A360" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>34</v>
@@ -11880,7 +11883,7 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>34</v>
@@ -11888,7 +11891,7 @@
     </row>
     <row r="362" spans="1:9">
       <c r="A362" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>38</v>
@@ -11896,7 +11899,7 @@
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>42</v>
@@ -11907,7 +11910,7 @@
     </row>
     <row r="364" spans="1:9">
       <c r="A364" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>34</v>
@@ -11915,7 +11918,7 @@
     </row>
     <row r="365" spans="1:9">
       <c r="A365" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>34</v>
@@ -11926,7 +11929,7 @@
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>34</v>
@@ -11955,7 +11958,7 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>34</v>
@@ -11963,7 +11966,7 @@
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>34</v>
@@ -11971,7 +11974,7 @@
     </row>
     <row r="369" spans="1:9">
       <c r="A369" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>125</v>
@@ -11979,7 +11982,7 @@
     </row>
     <row r="370" spans="1:9">
       <c r="A370" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>34</v>
@@ -11987,12 +11990,12 @@
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>49</v>
@@ -12006,7 +12009,7 @@
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>38</v>
@@ -12014,7 +12017,7 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>34</v>
@@ -12025,7 +12028,7 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>42</v>
@@ -12033,7 +12036,7 @@
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>37</v>
@@ -12053,7 +12056,7 @@
     </row>
     <row r="377" spans="1:9">
       <c r="A377" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>34</v>
@@ -12061,7 +12064,7 @@
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>39</v>
@@ -12072,7 +12075,7 @@
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>39</v>
@@ -12086,7 +12089,7 @@
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>171</v>
@@ -12094,7 +12097,7 @@
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>34</v>
@@ -12108,7 +12111,7 @@
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>34</v>
@@ -12119,7 +12122,7 @@
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>37</v>
@@ -12127,7 +12130,7 @@
     </row>
     <row r="384" spans="1:9">
       <c r="A384" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>95</v>
@@ -12135,7 +12138,7 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>34</v>
@@ -12143,7 +12146,7 @@
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>34</v>
@@ -12154,7 +12157,7 @@
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>34</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="388" spans="1:9">
       <c r="A388" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>34</v>
@@ -12170,7 +12173,7 @@
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>34</v>
@@ -12178,7 +12181,7 @@
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>34</v>
@@ -12186,7 +12189,7 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>34</v>
@@ -12200,7 +12203,7 @@
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>34</v>
@@ -12220,7 +12223,7 @@
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>34</v>
@@ -12228,7 +12231,7 @@
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>67</v>
@@ -12239,7 +12242,7 @@
     </row>
     <row r="395" spans="1:9">
       <c r="A395" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>34</v>
@@ -12250,7 +12253,7 @@
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>34</v>
@@ -12267,7 +12270,7 @@
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>38</v>
@@ -12278,7 +12281,7 @@
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>34</v>
@@ -12286,7 +12289,7 @@
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>34</v>
@@ -12294,7 +12297,7 @@
     </row>
     <row r="400" spans="1:9">
       <c r="A400" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>39</v>
@@ -12302,7 +12305,7 @@
     </row>
     <row r="401" spans="1:9">
       <c r="A401" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>34</v>
@@ -12313,7 +12316,7 @@
     </row>
     <row r="402" spans="1:9">
       <c r="A402" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>34</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="403" spans="1:9">
       <c r="A403" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>49</v>
@@ -12338,7 +12341,7 @@
     </row>
     <row r="404" spans="1:9">
       <c r="A404" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>34</v>
@@ -12361,7 +12364,7 @@
     </row>
     <row r="405" spans="1:9">
       <c r="A405" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>42</v>
@@ -12376,12 +12379,12 @@
         <v>63</v>
       </c>
       <c r="H405" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="406" spans="1:9">
       <c r="A406" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>34</v>
@@ -12392,7 +12395,7 @@
     </row>
     <row r="407" spans="1:9">
       <c r="A407" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>34</v>
@@ -12403,7 +12406,7 @@
     </row>
     <row r="408" spans="1:9">
       <c r="A408" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>34</v>
@@ -12411,7 +12414,7 @@
     </row>
     <row r="409" spans="1:9">
       <c r="A409" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>34</v>
@@ -12419,7 +12422,7 @@
     </row>
     <row r="410" spans="1:9">
       <c r="A410" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>34</v>
@@ -12427,17 +12430,17 @@
     </row>
     <row r="411" spans="1:9">
       <c r="A411" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="412" spans="1:9">
       <c r="A412" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="413" spans="1:9">
       <c r="A413" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>34</v>
@@ -12445,12 +12448,12 @@
     </row>
     <row r="414" spans="1:9">
       <c r="A414" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="415" spans="1:9">
       <c r="A415" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>38</v>
@@ -12458,7 +12461,7 @@
     </row>
     <row r="416" spans="1:9">
       <c r="A416" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>38</v>
@@ -12469,7 +12472,7 @@
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>41</v>
@@ -12477,7 +12480,7 @@
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>38</v>
@@ -12488,18 +12491,18 @@
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C420" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C420" s="4" t="s">
-        <v>397</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>502</v>
@@ -13458,14 +13461,20 @@
       <c r="B519" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="C519" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D519" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F519" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H519" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="I519" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="520" spans="1:9">
@@ -13806,7 +13815,7 @@
         <v>42</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>397</v>
+        <v>501</v>
       </c>
     </row>
     <row r="545" spans="1:10">
@@ -13967,7 +13976,7 @@
         <v>38</v>
       </c>
       <c r="F557" s="4" t="s">
-        <v>397</v>
+        <v>501</v>
       </c>
       <c r="H557" s="4" t="s">
         <v>46</v>
@@ -14627,7 +14636,7 @@
         <v>95</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>43</v>
@@ -14688,6 +14697,15 @@
       <c r="B639" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="C639" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H639" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="640" spans="1:9">
       <c r="A640" s="2" t="s">
@@ -14801,7 +14819,7 @@
         <v>38</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E650" s="3" t="s">
         <v>41</v>
@@ -15515,6 +15533,9 @@
       <c r="B712" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="C712" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="713" spans="1:8">
       <c r="A713" s="2" t="s">
@@ -16556,7 +16577,7 @@
         <v>34</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F812" s="3" t="s">
         <v>38</v>
@@ -17253,7 +17274,7 @@
         <v>969</v>
       </c>
       <c r="D880" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I880" s="4" t="s">
         <v>46</v>
@@ -17522,7 +17543,7 @@
         <v>38</v>
       </c>
       <c r="I905" s="4" t="s">
-        <v>397</v>
+        <v>501</v>
       </c>
     </row>
     <row r="906" spans="1:12">
@@ -18048,6 +18069,18 @@
       <c r="B948" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="C948" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D948" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F948" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H948" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="949" spans="1:9">
       <c r="A949" s="2" t="s">
@@ -18424,7 +18457,7 @@
         <v>41</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>397</v>
+        <v>501</v>
       </c>
       <c r="D978" s="4" t="s">
         <v>46</v>
@@ -18912,7 +18945,7 @@
         <v>38</v>
       </c>
       <c r="C1039" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
@@ -19339,7 +19372,7 @@
         <v>37</v>
       </c>
       <c r="H1098" s="4" t="s">
-        <v>397</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1099" spans="1:10">
@@ -19881,7 +19914,7 @@
         <v>39</v>
       </c>
       <c r="C1138" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F1138" s="4" t="s">
         <v>63</v>
@@ -21097,7 +21130,7 @@
         <v>1368</v>
       </c>
       <c r="H1275" s="4" t="s">
-        <v>397</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -23311,7 +23344,7 @@
         <v>1720</v>
       </c>
       <c r="C1626" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1627" spans="1:11">
@@ -24118,7 +24151,7 @@
         <v>37</v>
       </c>
       <c r="C1749" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1749" s="4" t="s">
         <v>212</v>
@@ -24226,7 +24259,7 @@
         <v>1856</v>
       </c>
       <c r="B1761" s="4" t="s">
-        <v>397</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1762" spans="1:8">
@@ -24581,7 +24614,7 @@
         <v>136</v>
       </c>
       <c r="H1802" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1803" spans="1:8">
@@ -24624,7 +24657,7 @@
         <v>46</v>
       </c>
       <c r="H1807" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1808" spans="1:8">
@@ -24797,7 +24830,7 @@
         <v>1931</v>
       </c>
       <c r="C1835" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1836" spans="1:8">
@@ -25362,7 +25395,7 @@
         <v>38</v>
       </c>
       <c r="C1894" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1895" spans="1:3">
@@ -25594,7 +25627,7 @@
         <v>34</v>
       </c>
       <c r="C1920" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1921" spans="1:8">

--- a/groups/24-25-Univers/acmp_results.xlsx
+++ b/groups/24-25-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5066" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="2088">
   <si>
     <t>№</t>
   </si>
@@ -6754,22 +6754,22 @@
         <v>5229</v>
       </c>
       <c r="G3">
-        <v>7227</v>
+        <v>7083</v>
       </c>
       <c r="H3">
         <v>7279</v>
       </c>
       <c r="I3">
-        <v>18230</v>
+        <v>17665</v>
       </c>
       <c r="J3">
         <v>35814</v>
       </c>
       <c r="K3">
-        <v>74518</v>
+        <v>74519</v>
       </c>
       <c r="L3">
-        <v>122264</v>
+        <v>122269</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6792,13 +6792,13 @@
         <v>3597</v>
       </c>
       <c r="G4">
-        <v>2856</v>
+        <v>2896</v>
       </c>
       <c r="H4">
         <v>2838</v>
       </c>
       <c r="I4">
-        <v>1232</v>
+        <v>1272</v>
       </c>
       <c r="J4">
         <v>574</v>
@@ -6830,13 +6830,13 @@
         <v>445</v>
       </c>
       <c r="G5">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H5">
         <v>667</v>
       </c>
       <c r="I5">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J5">
         <v>159</v>
@@ -6868,13 +6868,13 @@
         <v>163</v>
       </c>
       <c r="G6">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H6">
         <v>110</v>
       </c>
       <c r="I6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6">
         <v>32</v>
@@ -6912,7 +6912,7 @@
         <v>23</v>
       </c>
       <c r="I7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -6944,13 +6944,13 @@
         <v>185</v>
       </c>
       <c r="G8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H8">
         <v>189</v>
       </c>
       <c r="I8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8">
         <v>56</v>
@@ -6988,7 +6988,7 @@
         <v>48</v>
       </c>
       <c r="I9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -13470,11 +13470,14 @@
       <c r="F519" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="G519" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H519" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I519" s="4" t="s">
-        <v>63</v>
+      <c r="I519" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="520" spans="1:9">

--- a/groups/24-25-Univers/acmp_results.xlsx
+++ b/groups/24-25-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="2088">
   <si>
     <t>№</t>
   </si>
@@ -6742,34 +6742,34 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>1358</v>
+        <v>1308</v>
       </c>
       <c r="D3">
-        <v>3454</v>
+        <v>3360</v>
       </c>
       <c r="E3">
         <v>3684</v>
       </c>
       <c r="F3">
-        <v>5229</v>
+        <v>4989</v>
       </c>
       <c r="G3">
-        <v>7083</v>
+        <v>6948</v>
       </c>
       <c r="H3">
         <v>7279</v>
       </c>
       <c r="I3">
-        <v>17665</v>
+        <v>17667</v>
       </c>
       <c r="J3">
-        <v>74519</v>
+        <v>74525</v>
       </c>
       <c r="K3">
-        <v>88915</v>
+        <v>88923</v>
       </c>
       <c r="L3">
-        <v>122269</v>
+        <v>122275</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6780,19 +6780,19 @@
         <v>27685</v>
       </c>
       <c r="C4">
-        <v>8449</v>
+        <v>8589</v>
       </c>
       <c r="D4">
-        <v>4806</v>
+        <v>4905</v>
       </c>
       <c r="E4">
         <v>4589</v>
       </c>
       <c r="F4">
-        <v>3597</v>
+        <v>3737</v>
       </c>
       <c r="G4">
-        <v>2896</v>
+        <v>2941</v>
       </c>
       <c r="H4">
         <v>2838</v>
@@ -6818,22 +6818,22 @@
         <v>2158</v>
       </c>
       <c r="C5">
-        <v>1567</v>
+        <v>1575</v>
       </c>
       <c r="D5">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E5">
         <v>786</v>
       </c>
       <c r="F5">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G5">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="H5">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="I5">
         <v>277</v>
@@ -6856,19 +6856,19 @@
         <v>785</v>
       </c>
       <c r="C6">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D6">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E6">
         <v>228</v>
       </c>
       <c r="F6">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G6">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H6">
         <v>110</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>14</v>
@@ -6932,19 +6932,19 @@
         <v>1096</v>
       </c>
       <c r="C8">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E8">
         <v>256</v>
       </c>
       <c r="F8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H8">
         <v>189</v>
@@ -6970,7 +6970,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -6985,7 +6985,7 @@
         <v>36</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9">
         <v>21</v>
@@ -7299,6 +7299,18 @@
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
@@ -10372,8 +10384,11 @@
       <c r="B245" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>63</v>
+      <c r="C245" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -18479,6 +18494,15 @@
       <c r="B991" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="C991" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D991" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F991" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="992" spans="1:7">
       <c r="A992" s="2" t="s">
@@ -19196,7 +19220,19 @@
         <v>38</v>
       </c>
       <c r="C1091" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="D1091" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1091" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1091" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1091" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="1092" spans="1:8">

--- a/groups/24-25-Univers/acmp_results.xlsx
+++ b/groups/24-25-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5125" uniqueCount="2090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="2090">
   <si>
     <t>№</t>
   </si>
@@ -1192,6 +1192,9 @@
     <t>302</t>
   </si>
   <si>
+    <t>18-</t>
+  </si>
+  <si>
     <t>303</t>
   </si>
   <si>
@@ -4769,9 +4772,6 @@
   </si>
   <si>
     <t>1479</t>
-  </si>
-  <si>
-    <t>18-</t>
   </si>
   <si>
     <t>1480</t>
@@ -6754,37 +6754,37 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>1219</v>
+        <v>1152</v>
       </c>
       <c r="D3">
-        <v>3124</v>
+        <v>2885</v>
       </c>
       <c r="E3">
         <v>3685</v>
       </c>
       <c r="F3">
-        <v>4535</v>
+        <v>4366</v>
       </c>
       <c r="G3">
-        <v>6183</v>
+        <v>5848</v>
       </c>
       <c r="H3">
-        <v>6801</v>
+        <v>6665</v>
       </c>
       <c r="I3">
-        <v>15857</v>
+        <v>15858</v>
       </c>
       <c r="J3">
-        <v>23884</v>
+        <v>19984</v>
       </c>
       <c r="K3">
-        <v>74562</v>
+        <v>74567</v>
       </c>
       <c r="L3">
-        <v>88967</v>
+        <v>88974</v>
       </c>
       <c r="M3">
-        <v>122347</v>
+        <v>122355</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6795,28 +6795,28 @@
         <v>27685</v>
       </c>
       <c r="C4">
-        <v>8948</v>
+        <v>9199</v>
       </c>
       <c r="D4">
-        <v>5140</v>
+        <v>5395</v>
       </c>
       <c r="E4">
         <v>4589</v>
       </c>
       <c r="F4">
-        <v>3979</v>
+        <v>4075</v>
       </c>
       <c r="G4">
-        <v>3173</v>
+        <v>3319</v>
       </c>
       <c r="H4">
-        <v>2982</v>
+        <v>3020</v>
       </c>
       <c r="I4">
         <v>1416</v>
       </c>
       <c r="J4">
-        <v>919</v>
+        <v>1117</v>
       </c>
       <c r="K4">
         <v>187</v>
@@ -6836,28 +6836,28 @@
         <v>2158</v>
       </c>
       <c r="C5">
-        <v>1593</v>
+        <v>1613</v>
       </c>
       <c r="D5">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="E5">
         <v>786</v>
       </c>
       <c r="F5">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G5">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="H5">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="I5">
         <v>288</v>
       </c>
       <c r="J5">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K5">
         <v>31</v>
@@ -6877,28 +6877,28 @@
         <v>785</v>
       </c>
       <c r="C6">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D6">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E6">
         <v>228</v>
       </c>
       <c r="F6">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G6">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H6">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I6">
         <v>69</v>
       </c>
       <c r="J6">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -6930,10 +6930,10 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>21</v>
@@ -6959,28 +6959,28 @@
         <v>1096</v>
       </c>
       <c r="C8">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E8">
         <v>256</v>
       </c>
       <c r="F8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I8">
         <v>84</v>
       </c>
       <c r="J8">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -7012,10 +7012,10 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9">
         <v>22</v>
@@ -8440,6 +8440,9 @@
       <c r="G83" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="H83" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I83" s="3" t="s">
         <v>39</v>
       </c>
@@ -8771,6 +8774,15 @@
       <c r="B106" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="C106" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="2" t="s">
@@ -10267,6 +10279,9 @@
       <c r="C215" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="D215" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="2" t="s">
@@ -11341,10 +11356,25 @@
       <c r="B311" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="C311" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="312" spans="1:12">
       <c r="A312" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>40</v>
@@ -11352,7 +11382,7 @@
     </row>
     <row r="313" spans="1:12">
       <c r="A313" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>36</v>
@@ -11360,7 +11390,7 @@
     </row>
     <row r="314" spans="1:12">
       <c r="A314" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>36</v>
@@ -11368,7 +11398,7 @@
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>40</v>
@@ -11376,7 +11406,7 @@
     </row>
     <row r="316" spans="1:12">
       <c r="A316" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>36</v>
@@ -11384,7 +11414,7 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>36</v>
@@ -11392,7 +11422,7 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>36</v>
@@ -11403,7 +11433,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>36</v>
@@ -11435,7 +11465,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>36</v>
@@ -11449,7 +11479,7 @@
     </row>
     <row r="321" spans="1:13">
       <c r="A321" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>36</v>
@@ -11475,7 +11505,7 @@
     </row>
     <row r="322" spans="1:13">
       <c r="A322" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>40</v>
@@ -11486,7 +11516,7 @@
     </row>
     <row r="323" spans="1:13">
       <c r="A323" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>36</v>
@@ -11497,7 +11527,7 @@
     </row>
     <row r="324" spans="1:13">
       <c r="A324" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>41</v>
@@ -11514,7 +11544,7 @@
     </row>
     <row r="325" spans="1:13">
       <c r="A325" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>36</v>
@@ -11522,7 +11552,7 @@
     </row>
     <row r="326" spans="1:13">
       <c r="A326" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>36</v>
@@ -11536,7 +11566,7 @@
     </row>
     <row r="327" spans="1:13">
       <c r="A327" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>40</v>
@@ -11544,7 +11574,7 @@
     </row>
     <row r="328" spans="1:13">
       <c r="A328" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>36</v>
@@ -11552,7 +11582,7 @@
     </row>
     <row r="329" spans="1:13">
       <c r="A329" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>36</v>
@@ -11560,7 +11590,7 @@
     </row>
     <row r="330" spans="1:13">
       <c r="A330" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>36</v>
@@ -11574,7 +11604,7 @@
     </row>
     <row r="331" spans="1:13">
       <c r="A331" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>36</v>
@@ -11594,7 +11624,7 @@
     </row>
     <row r="332" spans="1:13">
       <c r="A332" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>36</v>
@@ -11608,7 +11638,7 @@
     </row>
     <row r="333" spans="1:13">
       <c r="A333" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>36</v>
@@ -11634,7 +11664,7 @@
     </row>
     <row r="334" spans="1:13">
       <c r="A334" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>41</v>
@@ -11642,7 +11672,7 @@
     </row>
     <row r="335" spans="1:13">
       <c r="A335" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>36</v>
@@ -11656,7 +11686,7 @@
     </row>
     <row r="336" spans="1:13">
       <c r="A336" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>36</v>
@@ -11676,7 +11706,7 @@
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>36</v>
@@ -11687,7 +11717,7 @@
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>36</v>
@@ -11704,7 +11734,7 @@
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>40</v>
@@ -11712,7 +11742,7 @@
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>36</v>
@@ -11736,12 +11766,12 @@
         <v>36</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>36</v>
@@ -11755,7 +11785,7 @@
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>36</v>
@@ -11772,7 +11802,7 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>36</v>
@@ -11780,7 +11810,7 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>36</v>
@@ -11788,7 +11818,7 @@
     </row>
     <row r="345" spans="1:9">
       <c r="A345" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>36</v>
@@ -11811,12 +11841,12 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>36</v>
@@ -11827,7 +11857,7 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>36</v>
@@ -11838,7 +11868,7 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>36</v>
@@ -11858,7 +11888,7 @@
     </row>
     <row r="350" spans="1:9">
       <c r="A350" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>36</v>
@@ -11869,7 +11899,7 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>40</v>
@@ -11877,7 +11907,7 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>51</v>
@@ -11891,7 +11921,7 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>40</v>
@@ -11905,7 +11935,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>41</v>
@@ -11916,7 +11946,7 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>40</v>
@@ -11927,7 +11957,7 @@
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>41</v>
@@ -11941,7 +11971,7 @@
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>44</v>
@@ -11949,7 +11979,7 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>96</v>
@@ -11961,12 +11991,12 @@
         <v>40</v>
       </c>
       <c r="H358" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>36</v>
@@ -11983,7 +12013,7 @@
     </row>
     <row r="360" spans="1:9">
       <c r="A360" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>36</v>
@@ -11991,7 +12021,7 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>36</v>
@@ -11999,7 +12029,7 @@
     </row>
     <row r="362" spans="1:9">
       <c r="A362" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>40</v>
@@ -12007,7 +12037,7 @@
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>44</v>
@@ -12018,7 +12048,7 @@
     </row>
     <row r="364" spans="1:9">
       <c r="A364" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>36</v>
@@ -12026,7 +12056,7 @@
     </row>
     <row r="365" spans="1:9">
       <c r="A365" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>36</v>
@@ -12037,7 +12067,7 @@
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>36</v>
@@ -12066,7 +12096,7 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>36</v>
@@ -12074,7 +12104,7 @@
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>36</v>
@@ -12082,7 +12112,7 @@
     </row>
     <row r="369" spans="1:9">
       <c r="A369" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>126</v>
@@ -12090,7 +12120,7 @@
     </row>
     <row r="370" spans="1:9">
       <c r="A370" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>36</v>
@@ -12098,12 +12128,12 @@
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>50</v>
@@ -12117,7 +12147,7 @@
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>40</v>
@@ -12125,7 +12155,7 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>36</v>
@@ -12136,7 +12166,7 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>44</v>
@@ -12144,7 +12174,7 @@
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>39</v>
@@ -12164,7 +12194,7 @@
     </row>
     <row r="377" spans="1:9">
       <c r="A377" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>36</v>
@@ -12172,7 +12202,7 @@
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>41</v>
@@ -12183,7 +12213,7 @@
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>41</v>
@@ -12197,7 +12227,7 @@
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>172</v>
@@ -12205,7 +12235,7 @@
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>36</v>
@@ -12219,7 +12249,7 @@
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>36</v>
@@ -12230,7 +12260,7 @@
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>39</v>
@@ -12238,7 +12268,7 @@
     </row>
     <row r="384" spans="1:9">
       <c r="A384" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>96</v>
@@ -12246,7 +12276,7 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>36</v>
@@ -12254,7 +12284,7 @@
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>36</v>
@@ -12265,7 +12295,7 @@
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>36</v>
@@ -12273,7 +12303,7 @@
     </row>
     <row r="388" spans="1:9">
       <c r="A388" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>36</v>
@@ -12281,7 +12311,7 @@
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>36</v>
@@ -12289,7 +12319,7 @@
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>36</v>
@@ -12297,7 +12327,7 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>36</v>
@@ -12311,7 +12341,7 @@
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>36</v>
@@ -12331,7 +12361,7 @@
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>36</v>
@@ -12339,7 +12369,7 @@
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>68</v>
@@ -12350,7 +12380,7 @@
     </row>
     <row r="395" spans="1:9">
       <c r="A395" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>36</v>
@@ -12361,7 +12391,7 @@
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>36</v>
@@ -12378,7 +12408,7 @@
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>40</v>
@@ -12389,7 +12419,7 @@
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>36</v>
@@ -12397,7 +12427,7 @@
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>36</v>
@@ -12405,7 +12435,7 @@
     </row>
     <row r="400" spans="1:9">
       <c r="A400" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>41</v>
@@ -12413,7 +12443,7 @@
     </row>
     <row r="401" spans="1:9">
       <c r="A401" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>36</v>
@@ -12424,7 +12454,7 @@
     </row>
     <row r="402" spans="1:9">
       <c r="A402" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>36</v>
@@ -12432,7 +12462,7 @@
     </row>
     <row r="403" spans="1:9">
       <c r="A403" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>50</v>
@@ -12449,7 +12479,7 @@
     </row>
     <row r="404" spans="1:9">
       <c r="A404" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>36</v>
@@ -12472,13 +12502,13 @@
     </row>
     <row r="405" spans="1:9">
       <c r="A405" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E405" s="4" t="s">
         <v>162</v>
@@ -12487,12 +12517,12 @@
         <v>73</v>
       </c>
       <c r="G405" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="406" spans="1:9">
       <c r="A406" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>36</v>
@@ -12503,7 +12533,7 @@
     </row>
     <row r="407" spans="1:9">
       <c r="A407" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>36</v>
@@ -12514,7 +12544,7 @@
     </row>
     <row r="408" spans="1:9">
       <c r="A408" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>36</v>
@@ -12522,7 +12552,7 @@
     </row>
     <row r="409" spans="1:9">
       <c r="A409" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>36</v>
@@ -12530,7 +12560,7 @@
     </row>
     <row r="410" spans="1:9">
       <c r="A410" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>36</v>
@@ -12538,17 +12568,17 @@
     </row>
     <row r="411" spans="1:9">
       <c r="A411" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="412" spans="1:9">
       <c r="A412" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="413" spans="1:9">
       <c r="A413" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>36</v>
@@ -12556,12 +12586,12 @@
     </row>
     <row r="414" spans="1:9">
       <c r="A414" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="415" spans="1:9">
       <c r="A415" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>40</v>
@@ -12569,7 +12599,7 @@
     </row>
     <row r="416" spans="1:9">
       <c r="A416" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>40</v>
@@ -12580,7 +12610,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>43</v>
@@ -12588,7 +12618,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>40</v>
@@ -12599,21 +12629,21 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H420" s="3" t="s">
         <v>371</v>
@@ -12621,7 +12651,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>57</v>
@@ -12629,7 +12659,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>36</v>
@@ -12637,7 +12667,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>36</v>
@@ -12645,7 +12675,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>44</v>
@@ -12653,7 +12683,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>36</v>
@@ -12664,7 +12694,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>36</v>
@@ -12672,7 +12702,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>40</v>
@@ -12680,7 +12710,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>40</v>
@@ -12691,7 +12721,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>40</v>
@@ -12699,7 +12729,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>40</v>
@@ -12707,7 +12737,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>36</v>
@@ -12715,7 +12745,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>40</v>
@@ -12723,18 +12753,18 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>36</v>
@@ -12742,7 +12772,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>36</v>
@@ -12750,7 +12780,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>68</v>
@@ -12758,12 +12788,12 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>36</v>
@@ -12771,7 +12801,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>56</v>
@@ -12779,7 +12809,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>36</v>
@@ -12787,7 +12817,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>96</v>
@@ -12807,7 +12837,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>40</v>
@@ -12815,32 +12845,32 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>36</v>
@@ -12854,7 +12884,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>36</v>
@@ -12868,12 +12898,12 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="451" spans="1:10">
       <c r="A451" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>36</v>
@@ -12881,7 +12911,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>44</v>
@@ -12889,7 +12919,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>96</v>
@@ -12897,7 +12927,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>36</v>
@@ -12905,7 +12935,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>36</v>
@@ -12922,7 +12952,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>41</v>
@@ -12939,7 +12969,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>36</v>
@@ -12947,7 +12977,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>36</v>
@@ -12955,7 +12985,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>41</v>
@@ -12972,6 +13002,9 @@
       <c r="G459" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="H459" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="I459" s="3" t="s">
         <v>36</v>
       </c>
@@ -12981,12 +13014,12 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="461" spans="1:10">
       <c r="A461" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>38</v>
@@ -12994,7 +13027,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>39</v>
@@ -13002,7 +13035,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>36</v>
@@ -13013,12 +13046,12 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>62</v>
@@ -13029,7 +13062,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>36</v>
@@ -13046,7 +13079,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>44</v>
@@ -13057,7 +13090,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>36</v>
@@ -13065,12 +13098,12 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>36</v>
@@ -13081,7 +13114,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>36</v>
@@ -13095,7 +13128,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>40</v>
@@ -13109,7 +13142,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>40</v>
@@ -13120,7 +13153,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>36</v>
@@ -13134,7 +13167,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>36</v>
@@ -13142,7 +13175,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>36</v>
@@ -13150,12 +13183,12 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>36</v>
@@ -13166,7 +13199,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>36</v>
@@ -13174,7 +13207,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>40</v>
@@ -13185,7 +13218,7 @@
     </row>
     <row r="481" spans="1:9">
       <c r="A481" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>36</v>
@@ -13193,7 +13226,7 @@
     </row>
     <row r="482" spans="1:9">
       <c r="A482" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>35</v>
@@ -13210,7 +13243,7 @@
     </row>
     <row r="483" spans="1:9">
       <c r="A483" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>40</v>
@@ -13218,7 +13251,7 @@
     </row>
     <row r="484" spans="1:9">
       <c r="A484" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>36</v>
@@ -13232,7 +13265,7 @@
     </row>
     <row r="485" spans="1:9">
       <c r="A485" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>41</v>
@@ -13240,7 +13273,7 @@
     </row>
     <row r="486" spans="1:9">
       <c r="A486" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>36</v>
@@ -13251,12 +13284,12 @@
     </row>
     <row r="487" spans="1:9">
       <c r="A487" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="1:9">
       <c r="A488" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>36</v>
@@ -13264,7 +13297,7 @@
     </row>
     <row r="489" spans="1:9">
       <c r="A489" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>50</v>
@@ -13272,7 +13305,7 @@
     </row>
     <row r="490" spans="1:9">
       <c r="A490" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>36</v>
@@ -13280,7 +13313,7 @@
     </row>
     <row r="491" spans="1:9">
       <c r="A491" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>36</v>
@@ -13300,7 +13333,7 @@
     </row>
     <row r="492" spans="1:9">
       <c r="A492" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>36</v>
@@ -13308,12 +13341,12 @@
     </row>
     <row r="493" spans="1:9">
       <c r="A493" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:9">
       <c r="A494" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>41</v>
@@ -13321,12 +13354,12 @@
     </row>
     <row r="495" spans="1:9">
       <c r="A495" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:9">
       <c r="A496" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>36</v>
@@ -13334,7 +13367,7 @@
     </row>
     <row r="497" spans="1:11">
       <c r="A497" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>36</v>
@@ -13342,7 +13375,7 @@
     </row>
     <row r="498" spans="1:11">
       <c r="A498" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>41</v>
@@ -13350,7 +13383,7 @@
     </row>
     <row r="499" spans="1:11">
       <c r="A499" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>36</v>
@@ -13364,7 +13397,7 @@
     </row>
     <row r="500" spans="1:11">
       <c r="A500" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>36</v>
@@ -13399,7 +13432,7 @@
     </row>
     <row r="501" spans="1:11">
       <c r="A501" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>43</v>
@@ -13407,7 +13440,7 @@
     </row>
     <row r="502" spans="1:11">
       <c r="A502" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>40</v>
@@ -13424,7 +13457,7 @@
     </row>
     <row r="503" spans="1:11">
       <c r="A503" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>41</v>
@@ -13432,7 +13465,7 @@
     </row>
     <row r="504" spans="1:11">
       <c r="A504" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>36</v>
@@ -13440,7 +13473,7 @@
     </row>
     <row r="505" spans="1:11">
       <c r="A505" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>36</v>
@@ -13466,12 +13499,12 @@
     </row>
     <row r="506" spans="1:11">
       <c r="A506" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="507" spans="1:11">
       <c r="A507" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>36</v>
@@ -13479,7 +13512,7 @@
     </row>
     <row r="508" spans="1:11">
       <c r="A508" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>36</v>
@@ -13493,7 +13526,7 @@
     </row>
     <row r="509" spans="1:11">
       <c r="A509" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>36</v>
@@ -13504,7 +13537,7 @@
     </row>
     <row r="510" spans="1:11">
       <c r="A510" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>41</v>
@@ -13512,7 +13545,7 @@
     </row>
     <row r="511" spans="1:11">
       <c r="A511" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>36</v>
@@ -13520,12 +13553,12 @@
     </row>
     <row r="512" spans="1:11">
       <c r="A512" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="513" spans="1:12">
       <c r="A513" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>36</v>
@@ -13548,7 +13581,7 @@
     </row>
     <row r="514" spans="1:12">
       <c r="A514" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>40</v>
@@ -13556,17 +13589,17 @@
     </row>
     <row r="515" spans="1:12">
       <c r="A515" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="516" spans="1:12">
       <c r="A516" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="517" spans="1:12">
       <c r="A517" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>40</v>
@@ -13574,7 +13607,7 @@
     </row>
     <row r="518" spans="1:12">
       <c r="A518" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>36</v>
@@ -13582,7 +13615,7 @@
     </row>
     <row r="519" spans="1:12">
       <c r="A519" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>36</v>
@@ -13611,7 +13644,7 @@
     </row>
     <row r="520" spans="1:12">
       <c r="A520" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>36</v>
@@ -13631,12 +13664,12 @@
     </row>
     <row r="521" spans="1:12">
       <c r="A521" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="522" spans="1:12">
       <c r="A522" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>235</v>
@@ -13656,7 +13689,7 @@
     </row>
     <row r="523" spans="1:12">
       <c r="A523" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>36</v>
@@ -13682,7 +13715,7 @@
     </row>
     <row r="524" spans="1:12">
       <c r="A524" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>36</v>
@@ -13696,7 +13729,7 @@
     </row>
     <row r="525" spans="1:12">
       <c r="A525" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>40</v>
@@ -13707,7 +13740,7 @@
     </row>
     <row r="526" spans="1:12">
       <c r="A526" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>41</v>
@@ -13718,7 +13751,7 @@
     </row>
     <row r="527" spans="1:12">
       <c r="A527" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>36</v>
@@ -13729,7 +13762,7 @@
     </row>
     <row r="528" spans="1:12">
       <c r="A528" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>36</v>
@@ -13752,7 +13785,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>41</v>
@@ -13763,7 +13796,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>40</v>
@@ -13774,7 +13807,7 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>40</v>
@@ -13791,15 +13824,30 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="C532" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D532" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J532" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="533" spans="1:10">
       <c r="A533" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>36</v>
@@ -13810,7 +13858,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>36</v>
@@ -13827,7 +13875,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>36</v>
@@ -13835,7 +13883,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>36</v>
@@ -13843,7 +13891,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>41</v>
@@ -13860,13 +13908,13 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>44</v>
@@ -13883,7 +13931,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>36</v>
@@ -13894,7 +13942,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>36</v>
@@ -13902,7 +13950,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J541" s="4" t="s">
         <v>162</v>
@@ -13910,7 +13958,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>102</v>
@@ -13918,7 +13966,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>36</v>
@@ -13941,18 +13989,18 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="545" spans="1:10">
       <c r="A545" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>36</v>
@@ -13963,17 +14011,17 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="547" spans="1:10">
       <c r="A547" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="548" spans="1:10">
       <c r="A548" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>40</v>
@@ -13999,18 +14047,18 @@
     </row>
     <row r="549" spans="1:10">
       <c r="A549" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="550" spans="1:10">
       <c r="A550" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>41</v>
@@ -14018,7 +14066,7 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>36</v>
@@ -14032,7 +14080,7 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>36</v>
@@ -14052,7 +14100,7 @@
     </row>
     <row r="553" spans="1:10">
       <c r="A553" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>36</v>
@@ -14078,12 +14126,12 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="555" spans="1:10">
       <c r="A555" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>40</v>
@@ -14094,7 +14142,7 @@
     </row>
     <row r="556" spans="1:10">
       <c r="A556" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>40</v>
@@ -14102,13 +14150,13 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F557" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G557" s="4" t="s">
         <v>48</v>
@@ -14116,12 +14164,12 @@
     </row>
     <row r="558" spans="1:10">
       <c r="A558" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="559" spans="1:10">
       <c r="A559" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>41</v>
@@ -14144,7 +14192,7 @@
     </row>
     <row r="560" spans="1:10">
       <c r="A560" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>38</v>
@@ -14152,7 +14200,7 @@
     </row>
     <row r="561" spans="1:10">
       <c r="A561" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>36</v>
@@ -14163,7 +14211,7 @@
     </row>
     <row r="562" spans="1:10">
       <c r="A562" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>40</v>
@@ -14171,7 +14219,7 @@
     </row>
     <row r="563" spans="1:10">
       <c r="A563" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>36</v>
@@ -14203,12 +14251,12 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="565" spans="1:10">
       <c r="A565" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>36</v>
@@ -14216,7 +14264,7 @@
     </row>
     <row r="566" spans="1:10">
       <c r="A566" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>36</v>
@@ -14227,12 +14275,12 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="568" spans="1:10">
       <c r="A568" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>40</v>
@@ -14240,12 +14288,12 @@
     </row>
     <row r="569" spans="1:10">
       <c r="A569" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="570" spans="1:10">
       <c r="A570" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C570" s="4" t="s">
         <v>137</v>
@@ -14256,7 +14304,7 @@
     </row>
     <row r="571" spans="1:10">
       <c r="A571" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>36</v>
@@ -14264,12 +14312,12 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="573" spans="1:10">
       <c r="A573" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>40</v>
@@ -14277,22 +14325,22 @@
     </row>
     <row r="574" spans="1:10">
       <c r="A574" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="575" spans="1:10">
       <c r="A575" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="576" spans="1:10">
       <c r="A576" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="577" spans="1:9">
       <c r="A577" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>39</v>
@@ -14300,7 +14348,7 @@
     </row>
     <row r="578" spans="1:9">
       <c r="A578" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>36</v>
@@ -14308,7 +14356,7 @@
     </row>
     <row r="579" spans="1:9">
       <c r="A579" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>40</v>
@@ -14316,22 +14364,22 @@
     </row>
     <row r="580" spans="1:9">
       <c r="A580" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="581" spans="1:9">
       <c r="A581" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="582" spans="1:9">
       <c r="A582" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="583" spans="1:9">
       <c r="A583" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>36</v>
@@ -14351,7 +14399,7 @@
     </row>
     <row r="584" spans="1:9">
       <c r="A584" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>36</v>
@@ -14359,7 +14407,7 @@
     </row>
     <row r="585" spans="1:9">
       <c r="A585" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>36</v>
@@ -14382,7 +14430,7 @@
     </row>
     <row r="586" spans="1:9">
       <c r="A586" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>36</v>
@@ -14408,7 +14456,7 @@
     </row>
     <row r="587" spans="1:9">
       <c r="A587" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>40</v>
@@ -14416,7 +14464,7 @@
     </row>
     <row r="588" spans="1:9">
       <c r="A588" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>40</v>
@@ -14436,7 +14484,7 @@
     </row>
     <row r="589" spans="1:9">
       <c r="A589" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>36</v>
@@ -14447,7 +14495,7 @@
     </row>
     <row r="590" spans="1:9">
       <c r="A590" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>41</v>
@@ -14455,7 +14503,7 @@
     </row>
     <row r="591" spans="1:9">
       <c r="A591" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>36</v>
@@ -14463,12 +14511,12 @@
     </row>
     <row r="592" spans="1:9">
       <c r="A592" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="593" spans="1:8">
       <c r="A593" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>36</v>
@@ -14476,17 +14524,17 @@
     </row>
     <row r="594" spans="1:8">
       <c r="A594" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="595" spans="1:8">
       <c r="A595" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="596" spans="1:8">
       <c r="A596" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>130</v>
@@ -14494,7 +14542,7 @@
     </row>
     <row r="597" spans="1:8">
       <c r="A597" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>36</v>
@@ -14502,12 +14550,12 @@
     </row>
     <row r="598" spans="1:8">
       <c r="A598" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="599" spans="1:8">
       <c r="A599" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>36</v>
@@ -14515,25 +14563,31 @@
     </row>
     <row r="600" spans="1:8">
       <c r="A600" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="601" spans="1:8">
       <c r="A601" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="602" spans="1:8">
       <c r="A602" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="603" spans="1:8">
       <c r="A603" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>57</v>
@@ -14541,7 +14595,7 @@
     </row>
     <row r="604" spans="1:8">
       <c r="A604" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>41</v>
@@ -14549,7 +14603,7 @@
     </row>
     <row r="605" spans="1:8">
       <c r="A605" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>41</v>
@@ -14557,7 +14611,7 @@
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>36</v>
@@ -14580,17 +14634,17 @@
     </row>
     <row r="607" spans="1:8">
       <c r="A607" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="608" spans="1:8">
       <c r="A608" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="609" spans="1:9">
       <c r="A609" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>40</v>
@@ -14604,7 +14658,7 @@
     </row>
     <row r="610" spans="1:9">
       <c r="A610" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>36</v>
@@ -14612,7 +14666,7 @@
     </row>
     <row r="611" spans="1:9">
       <c r="A611" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>36</v>
@@ -14626,7 +14680,7 @@
     </row>
     <row r="612" spans="1:9">
       <c r="A612" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>36</v>
@@ -14634,12 +14688,12 @@
     </row>
     <row r="613" spans="1:9">
       <c r="A613" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="614" spans="1:9">
       <c r="A614" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>36</v>
@@ -14647,7 +14701,7 @@
     </row>
     <row r="615" spans="1:9">
       <c r="A615" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>36</v>
@@ -14676,67 +14730,67 @@
     </row>
     <row r="616" spans="1:9">
       <c r="A616" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="617" spans="1:9">
       <c r="A617" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="618" spans="1:9">
       <c r="A618" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="619" spans="1:9">
       <c r="A619" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="620" spans="1:9">
       <c r="A620" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="621" spans="1:9">
       <c r="A621" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="622" spans="1:9">
       <c r="A622" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="623" spans="1:9">
       <c r="A623" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="624" spans="1:9">
       <c r="A624" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="625" spans="1:10">
       <c r="A625" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="626" spans="1:10">
       <c r="A626" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="627" spans="1:10">
       <c r="A627" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="628" spans="1:10">
       <c r="A628" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>36</v>
@@ -14744,22 +14798,22 @@
     </row>
     <row r="629" spans="1:10">
       <c r="A629" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="630" spans="1:10">
       <c r="A630" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="631" spans="1:10">
       <c r="A631" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="632" spans="1:10">
       <c r="A632" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>44</v>
@@ -14768,7 +14822,7 @@
         <v>96</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>45</v>
@@ -14782,25 +14836,37 @@
     </row>
     <row r="633" spans="1:10">
       <c r="A633" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="634" spans="1:10">
       <c r="A634" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="635" spans="1:10">
       <c r="A635" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B635" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J635" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="636" spans="1:10">
       <c r="A636" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>36</v>
@@ -14808,7 +14874,7 @@
     </row>
     <row r="637" spans="1:10">
       <c r="A637" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>36</v>
@@ -14816,7 +14882,7 @@
     </row>
     <row r="638" spans="1:10">
       <c r="A638" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>36</v>
@@ -14824,7 +14890,7 @@
     </row>
     <row r="639" spans="1:10">
       <c r="A639" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>41</v>
@@ -14836,7 +14902,7 @@
         <v>36</v>
       </c>
       <c r="G639" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J639" s="4" t="s">
         <v>137</v>
@@ -14844,17 +14910,17 @@
     </row>
     <row r="640" spans="1:10">
       <c r="A640" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="641" spans="1:8">
       <c r="A641" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="642" spans="1:8">
       <c r="A642" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>39</v>
@@ -14877,7 +14943,7 @@
     </row>
     <row r="643" spans="1:8">
       <c r="A643" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C643" s="3" t="s">
         <v>36</v>
@@ -14885,7 +14951,7 @@
     </row>
     <row r="644" spans="1:8">
       <c r="A644" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>44</v>
@@ -14893,12 +14959,12 @@
     </row>
     <row r="645" spans="1:8">
       <c r="A645" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="646" spans="1:8">
       <c r="A646" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>36</v>
@@ -14915,7 +14981,7 @@
     </row>
     <row r="647" spans="1:8">
       <c r="A647" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>40</v>
@@ -14923,7 +14989,7 @@
     </row>
     <row r="648" spans="1:8">
       <c r="A648" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>36</v>
@@ -14940,7 +15006,7 @@
     </row>
     <row r="649" spans="1:8">
       <c r="A649" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>36</v>
@@ -14960,13 +15026,13 @@
     </row>
     <row r="650" spans="1:8">
       <c r="A650" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E650" s="3" t="s">
         <v>43</v>
@@ -14974,7 +15040,7 @@
     </row>
     <row r="651" spans="1:8">
       <c r="A651" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>36</v>
@@ -14994,7 +15060,7 @@
     </row>
     <row r="652" spans="1:8">
       <c r="A652" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>36</v>
@@ -15017,12 +15083,12 @@
     </row>
     <row r="653" spans="1:8">
       <c r="A653" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="654" spans="1:8">
       <c r="A654" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>40</v>
@@ -15033,17 +15099,17 @@
     </row>
     <row r="655" spans="1:8">
       <c r="A655" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="656" spans="1:8">
       <c r="A656" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="657" spans="1:7">
       <c r="A657" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>36</v>
@@ -15060,7 +15126,7 @@
     </row>
     <row r="658" spans="1:7">
       <c r="A658" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>36</v>
@@ -15068,12 +15134,12 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="660" spans="1:7">
       <c r="A660" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>41</v>
@@ -15081,17 +15147,17 @@
     </row>
     <row r="661" spans="1:7">
       <c r="A661" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="662" spans="1:7">
       <c r="A662" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="663" spans="1:7">
       <c r="A663" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>36</v>
@@ -15099,52 +15165,52 @@
     </row>
     <row r="664" spans="1:7">
       <c r="A664" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="665" spans="1:7">
       <c r="A665" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="666" spans="1:7">
       <c r="A666" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="667" spans="1:7">
       <c r="A667" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="668" spans="1:7">
       <c r="A668" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="669" spans="1:7">
       <c r="A669" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="670" spans="1:7">
       <c r="A670" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="671" spans="1:7">
       <c r="A671" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="672" spans="1:7">
       <c r="A672" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="673" spans="1:9">
       <c r="A673" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>36</v>
@@ -15158,7 +15224,7 @@
     </row>
     <row r="674" spans="1:9">
       <c r="A674" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>36</v>
@@ -15169,7 +15235,7 @@
     </row>
     <row r="675" spans="1:9">
       <c r="A675" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>36</v>
@@ -15177,7 +15243,7 @@
     </row>
     <row r="676" spans="1:9">
       <c r="A676" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>40</v>
@@ -15188,7 +15254,7 @@
     </row>
     <row r="677" spans="1:9">
       <c r="A677" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>36</v>
@@ -15196,7 +15262,7 @@
     </row>
     <row r="678" spans="1:9">
       <c r="A678" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>36</v>
@@ -15207,7 +15273,7 @@
     </row>
     <row r="679" spans="1:9">
       <c r="A679" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>36</v>
@@ -15224,7 +15290,7 @@
     </row>
     <row r="680" spans="1:9">
       <c r="A680" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>36</v>
@@ -15232,7 +15298,7 @@
     </row>
     <row r="681" spans="1:9">
       <c r="A681" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>36</v>
@@ -15246,7 +15312,7 @@
     </row>
     <row r="682" spans="1:9">
       <c r="A682" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>36</v>
@@ -15257,7 +15323,7 @@
     </row>
     <row r="683" spans="1:9">
       <c r="A683" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>36</v>
@@ -15274,7 +15340,7 @@
     </row>
     <row r="684" spans="1:9">
       <c r="A684" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>41</v>
@@ -15300,7 +15366,7 @@
     </row>
     <row r="685" spans="1:9">
       <c r="A685" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>36</v>
@@ -15317,7 +15383,7 @@
     </row>
     <row r="686" spans="1:9">
       <c r="A686" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>41</v>
@@ -15328,7 +15394,7 @@
     </row>
     <row r="687" spans="1:9">
       <c r="A687" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>36</v>
@@ -15348,7 +15414,7 @@
     </row>
     <row r="688" spans="1:9">
       <c r="A688" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>36</v>
@@ -15356,7 +15422,7 @@
     </row>
     <row r="689" spans="1:10">
       <c r="A689" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>36</v>
@@ -15382,7 +15448,7 @@
     </row>
     <row r="690" spans="1:10">
       <c r="A690" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>36</v>
@@ -15390,7 +15456,7 @@
     </row>
     <row r="691" spans="1:10">
       <c r="A691" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>39</v>
@@ -15410,7 +15476,7 @@
     </row>
     <row r="692" spans="1:10">
       <c r="A692" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>36</v>
@@ -15418,7 +15484,7 @@
     </row>
     <row r="693" spans="1:10">
       <c r="A693" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>36</v>
@@ -15426,7 +15492,7 @@
     </row>
     <row r="694" spans="1:10">
       <c r="A694" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>36</v>
@@ -15452,7 +15518,7 @@
     </row>
     <row r="695" spans="1:10">
       <c r="A695" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>36</v>
@@ -15463,7 +15529,7 @@
     </row>
     <row r="696" spans="1:10">
       <c r="A696" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>40</v>
@@ -15471,7 +15537,7 @@
     </row>
     <row r="697" spans="1:10">
       <c r="A697" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>126</v>
@@ -15485,7 +15551,7 @@
     </row>
     <row r="698" spans="1:10">
       <c r="A698" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>41</v>
@@ -15496,12 +15562,12 @@
     </row>
     <row r="699" spans="1:10">
       <c r="A699" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="700" spans="1:10">
       <c r="A700" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>36</v>
@@ -15524,7 +15590,7 @@
     </row>
     <row r="701" spans="1:10">
       <c r="A701" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>40</v>
@@ -15547,7 +15613,7 @@
     </row>
     <row r="702" spans="1:10">
       <c r="A702" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>36</v>
@@ -15564,7 +15630,7 @@
     </row>
     <row r="703" spans="1:10">
       <c r="A703" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>36</v>
@@ -15584,7 +15650,7 @@
     </row>
     <row r="704" spans="1:10">
       <c r="A704" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>36</v>
@@ -15592,7 +15658,7 @@
     </row>
     <row r="705" spans="1:10">
       <c r="A705" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>36</v>
@@ -15600,7 +15666,7 @@
     </row>
     <row r="706" spans="1:10">
       <c r="A706" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>36</v>
@@ -15623,7 +15689,7 @@
     </row>
     <row r="707" spans="1:10">
       <c r="A707" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>40</v>
@@ -15634,7 +15700,7 @@
     </row>
     <row r="708" spans="1:10">
       <c r="A708" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>36</v>
@@ -15642,7 +15708,7 @@
     </row>
     <row r="709" spans="1:10">
       <c r="A709" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>40</v>
@@ -15656,7 +15722,7 @@
     </row>
     <row r="710" spans="1:10">
       <c r="A710" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>40</v>
@@ -15667,7 +15733,7 @@
     </row>
     <row r="711" spans="1:10">
       <c r="A711" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>36</v>
@@ -15675,7 +15741,7 @@
     </row>
     <row r="712" spans="1:10">
       <c r="A712" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>36</v>
@@ -15689,7 +15755,7 @@
     </row>
     <row r="713" spans="1:10">
       <c r="A713" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>40</v>
@@ -15697,12 +15763,12 @@
     </row>
     <row r="714" spans="1:10">
       <c r="A714" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="715" spans="1:10">
       <c r="A715" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>36</v>
@@ -15716,12 +15782,12 @@
     </row>
     <row r="716" spans="1:10">
       <c r="A716" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="717" spans="1:10">
       <c r="A717" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>36</v>
@@ -15729,14 +15795,14 @@
       <c r="C717" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D717" s="4" t="s">
-        <v>487</v>
+      <c r="D717" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F717" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G717" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I717" s="4" t="s">
         <v>73</v>
@@ -15747,7 +15813,7 @@
     </row>
     <row r="718" spans="1:10">
       <c r="A718" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>36</v>
@@ -15755,7 +15821,7 @@
     </row>
     <row r="719" spans="1:10">
       <c r="A719" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>36</v>
@@ -15763,7 +15829,7 @@
     </row>
     <row r="720" spans="1:10">
       <c r="A720" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>41</v>
@@ -15780,7 +15846,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="A721" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>126</v>
@@ -15797,7 +15863,7 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>40</v>
@@ -15805,12 +15871,12 @@
     </row>
     <row r="723" spans="1:7">
       <c r="A723" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="724" spans="1:7">
       <c r="A724" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>36</v>
@@ -15827,7 +15893,7 @@
     </row>
     <row r="725" spans="1:7">
       <c r="A725" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>44</v>
@@ -15835,7 +15901,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="A726" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>36</v>
@@ -15843,12 +15909,12 @@
     </row>
     <row r="727" spans="1:7">
       <c r="A727" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="728" spans="1:7">
       <c r="A728" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>57</v>
@@ -15856,7 +15922,7 @@
     </row>
     <row r="729" spans="1:7">
       <c r="A729" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>35</v>
@@ -15867,22 +15933,22 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="731" spans="1:7">
       <c r="A731" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="732" spans="1:7">
       <c r="A732" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="733" spans="1:7">
       <c r="A733" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>96</v>
@@ -15890,22 +15956,22 @@
     </row>
     <row r="734" spans="1:7">
       <c r="A734" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="735" spans="1:7">
       <c r="A735" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="736" spans="1:7">
       <c r="A736" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="737" spans="1:5">
       <c r="A737" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>36</v>
@@ -15916,7 +15982,7 @@
     </row>
     <row r="738" spans="1:5">
       <c r="A738" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>44</v>
@@ -15924,7 +15990,7 @@
     </row>
     <row r="739" spans="1:5">
       <c r="A739" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>41</v>
@@ -15932,7 +15998,7 @@
     </row>
     <row r="740" spans="1:5">
       <c r="A740" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>44</v>
@@ -15940,7 +16006,7 @@
     </row>
     <row r="741" spans="1:5">
       <c r="A741" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>36</v>
@@ -15948,7 +16014,7 @@
     </row>
     <row r="742" spans="1:5">
       <c r="A742" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>36</v>
@@ -15956,22 +16022,22 @@
     </row>
     <row r="743" spans="1:5">
       <c r="A743" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="744" spans="1:5">
       <c r="A744" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="745" spans="1:5">
       <c r="A745" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C746" s="4" t="s">
         <v>48</v>
@@ -15979,12 +16045,12 @@
     </row>
     <row r="747" spans="1:5">
       <c r="A747" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>36</v>
@@ -15992,17 +16058,17 @@
     </row>
     <row r="749" spans="1:5">
       <c r="A749" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="750" spans="1:5">
       <c r="A750" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="751" spans="1:5">
       <c r="A751" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>247</v>
@@ -16016,7 +16082,7 @@
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>36</v>
@@ -16027,7 +16093,7 @@
     </row>
     <row r="753" spans="1:13">
       <c r="A753" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>36</v>
@@ -16035,7 +16101,7 @@
     </row>
     <row r="754" spans="1:13">
       <c r="A754" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>36</v>
@@ -16043,27 +16109,27 @@
     </row>
     <row r="755" spans="1:13">
       <c r="A755" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="756" spans="1:13">
       <c r="A756" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="757" spans="1:13">
       <c r="A757" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="758" spans="1:13">
       <c r="A758" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="759" spans="1:13">
       <c r="A759" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C759" s="4" t="s">
         <v>73</v>
@@ -16071,7 +16137,7 @@
     </row>
     <row r="760" spans="1:13">
       <c r="A760" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>41</v>
@@ -16079,17 +16145,17 @@
     </row>
     <row r="761" spans="1:13">
       <c r="A761" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="762" spans="1:13">
       <c r="A762" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="763" spans="1:13">
       <c r="A763" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>36</v>
@@ -16115,7 +16181,7 @@
     </row>
     <row r="764" spans="1:13">
       <c r="A764" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>36</v>
@@ -16141,7 +16207,7 @@
     </row>
     <row r="765" spans="1:13">
       <c r="A765" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>40</v>
@@ -16164,7 +16230,7 @@
     </row>
     <row r="766" spans="1:13">
       <c r="A766" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>36</v>
@@ -16187,12 +16253,12 @@
     </row>
     <row r="767" spans="1:13">
       <c r="A767" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="768" spans="1:13">
       <c r="A768" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>36</v>
@@ -16209,7 +16275,7 @@
     </row>
     <row r="769" spans="1:13">
       <c r="A769" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>41</v>
@@ -16223,12 +16289,12 @@
     </row>
     <row r="770" spans="1:13">
       <c r="A770" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="771" spans="1:13">
       <c r="A771" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B771" s="3" t="s">
         <v>36</v>
@@ -16236,7 +16302,7 @@
     </row>
     <row r="772" spans="1:13">
       <c r="A772" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>36</v>
@@ -16259,7 +16325,7 @@
     </row>
     <row r="773" spans="1:13">
       <c r="A773" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>36</v>
@@ -16267,7 +16333,7 @@
     </row>
     <row r="774" spans="1:13">
       <c r="A774" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>36</v>
@@ -16275,7 +16341,7 @@
     </row>
     <row r="775" spans="1:13">
       <c r="A775" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>36</v>
@@ -16304,12 +16370,12 @@
     </row>
     <row r="776" spans="1:13">
       <c r="A776" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="777" spans="1:13">
       <c r="A777" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>96</v>
@@ -16320,7 +16386,7 @@
     </row>
     <row r="778" spans="1:13">
       <c r="A778" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>41</v>
@@ -16331,7 +16397,7 @@
     </row>
     <row r="779" spans="1:13">
       <c r="A779" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B779" s="3" t="s">
         <v>57</v>
@@ -16339,17 +16405,17 @@
     </row>
     <row r="780" spans="1:13">
       <c r="A780" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="781" spans="1:13">
       <c r="A781" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="782" spans="1:13">
       <c r="A782" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>36</v>
@@ -16381,12 +16447,12 @@
     </row>
     <row r="783" spans="1:13">
       <c r="A783" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="784" spans="1:13">
       <c r="A784" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>41</v>
@@ -16397,12 +16463,12 @@
     </row>
     <row r="785" spans="1:9">
       <c r="A785" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="786" spans="1:9">
       <c r="A786" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>44</v>
@@ -16431,7 +16497,7 @@
     </row>
     <row r="787" spans="1:9">
       <c r="A787" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>36</v>
@@ -16451,7 +16517,7 @@
     </row>
     <row r="788" spans="1:9">
       <c r="A788" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>40</v>
@@ -16465,7 +16531,7 @@
     </row>
     <row r="789" spans="1:9">
       <c r="A789" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>36</v>
@@ -16479,18 +16545,18 @@
     </row>
     <row r="790" spans="1:9">
       <c r="A790" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B790" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="791" spans="1:9">
       <c r="A791" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>36</v>
@@ -16504,7 +16570,7 @@
     </row>
     <row r="792" spans="1:9">
       <c r="A792" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B792" s="3" t="s">
         <v>36</v>
@@ -16518,7 +16584,7 @@
     </row>
     <row r="793" spans="1:9">
       <c r="A793" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>41</v>
@@ -16529,7 +16595,7 @@
     </row>
     <row r="794" spans="1:9">
       <c r="A794" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>40</v>
@@ -16546,7 +16612,7 @@
     </row>
     <row r="795" spans="1:9">
       <c r="A795" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>36</v>
@@ -16557,7 +16623,7 @@
     </row>
     <row r="796" spans="1:9">
       <c r="A796" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>40</v>
@@ -16571,12 +16637,12 @@
     </row>
     <row r="797" spans="1:9">
       <c r="A797" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="798" spans="1:9">
       <c r="A798" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>36</v>
@@ -16584,7 +16650,7 @@
     </row>
     <row r="799" spans="1:9">
       <c r="A799" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>43</v>
@@ -16601,7 +16667,7 @@
     </row>
     <row r="800" spans="1:9">
       <c r="A800" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>36</v>
@@ -16624,7 +16690,7 @@
     </row>
     <row r="801" spans="1:8">
       <c r="A801" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>36</v>
@@ -16641,7 +16707,7 @@
     </row>
     <row r="802" spans="1:8">
       <c r="A802" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>39</v>
@@ -16655,7 +16721,7 @@
     </row>
     <row r="803" spans="1:8">
       <c r="A803" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>36</v>
@@ -16669,7 +16735,7 @@
     </row>
     <row r="804" spans="1:8">
       <c r="A804" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>36</v>
@@ -16680,7 +16746,7 @@
     </row>
     <row r="805" spans="1:8">
       <c r="A805" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>41</v>
@@ -16688,12 +16754,12 @@
     </row>
     <row r="806" spans="1:8">
       <c r="A806" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="807" spans="1:8">
       <c r="A807" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>40</v>
@@ -16711,12 +16777,12 @@
         <v>40</v>
       </c>
       <c r="H807" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="808" spans="1:8">
       <c r="A808" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>36</v>
@@ -16724,28 +16790,28 @@
     </row>
     <row r="809" spans="1:8">
       <c r="A809" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="810" spans="1:8">
       <c r="A810" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="811" spans="1:8">
       <c r="A811" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="812" spans="1:8">
       <c r="A812" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F812" s="3" t="s">
         <v>40</v>
@@ -16756,7 +16822,7 @@
     </row>
     <row r="813" spans="1:8">
       <c r="A813" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>40</v>
@@ -16770,7 +16836,7 @@
     </row>
     <row r="814" spans="1:8">
       <c r="A814" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>40</v>
@@ -16778,7 +16844,7 @@
     </row>
     <row r="815" spans="1:8">
       <c r="A815" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>36</v>
@@ -16786,27 +16852,27 @@
     </row>
     <row r="816" spans="1:8">
       <c r="A816" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="817" spans="1:8">
       <c r="A817" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="818" spans="1:8">
       <c r="A818" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="819" spans="1:8">
       <c r="A819" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="820" spans="1:8">
       <c r="A820" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>41</v>
@@ -16817,17 +16883,17 @@
     </row>
     <row r="821" spans="1:8">
       <c r="A821" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="822" spans="1:8">
       <c r="A822" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="823" spans="1:8">
       <c r="A823" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>36</v>
@@ -16841,12 +16907,12 @@
     </row>
     <row r="824" spans="1:8">
       <c r="A824" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="825" spans="1:8">
       <c r="A825" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>36</v>
@@ -16854,7 +16920,7 @@
     </row>
     <row r="826" spans="1:8">
       <c r="A826" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>44</v>
@@ -16874,7 +16940,7 @@
     </row>
     <row r="827" spans="1:8">
       <c r="A827" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>36</v>
@@ -16897,7 +16963,7 @@
     </row>
     <row r="828" spans="1:8">
       <c r="A828" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>44</v>
@@ -16920,12 +16986,12 @@
     </row>
     <row r="829" spans="1:8">
       <c r="A829" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="830" spans="1:8">
       <c r="A830" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>36</v>
@@ -16933,10 +16999,10 @@
     </row>
     <row r="831" spans="1:8">
       <c r="A831" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C831" s="3" t="s">
         <v>41</v>
@@ -16959,7 +17025,7 @@
     </row>
     <row r="832" spans="1:8">
       <c r="A832" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B832" s="3" t="s">
         <v>36</v>
@@ -16967,32 +17033,32 @@
     </row>
     <row r="833" spans="1:8">
       <c r="A833" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="834" spans="1:8">
       <c r="A834" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="835" spans="1:8">
       <c r="A835" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="836" spans="1:8">
       <c r="A836" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="837" spans="1:8">
       <c r="A837" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="838" spans="1:8">
       <c r="A838" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C838" s="3" t="s">
         <v>45</v>
@@ -17003,12 +17069,12 @@
     </row>
     <row r="839" spans="1:8">
       <c r="A839" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="840" spans="1:8">
       <c r="A840" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B840" s="3" t="s">
         <v>36</v>
@@ -17016,7 +17082,7 @@
     </row>
     <row r="841" spans="1:8">
       <c r="A841" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B841" s="3" t="s">
         <v>40</v>
@@ -17024,7 +17090,7 @@
     </row>
     <row r="842" spans="1:8">
       <c r="A842" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B842" s="3" t="s">
         <v>36</v>
@@ -17032,7 +17098,7 @@
     </row>
     <row r="843" spans="1:8">
       <c r="A843" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B843" s="3" t="s">
         <v>44</v>
@@ -17040,7 +17106,7 @@
     </row>
     <row r="844" spans="1:8">
       <c r="A844" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B844" s="3" t="s">
         <v>41</v>
@@ -17051,7 +17117,7 @@
     </row>
     <row r="845" spans="1:8">
       <c r="A845" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>36</v>
@@ -17071,7 +17137,7 @@
     </row>
     <row r="846" spans="1:8">
       <c r="A846" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B846" s="3" t="s">
         <v>38</v>
@@ -17079,7 +17145,7 @@
     </row>
     <row r="847" spans="1:8">
       <c r="A847" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>39</v>
@@ -17093,7 +17159,7 @@
     </row>
     <row r="848" spans="1:8">
       <c r="A848" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>36</v>
@@ -17116,7 +17182,7 @@
     </row>
     <row r="849" spans="1:9">
       <c r="A849" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B849" s="3" t="s">
         <v>41</v>
@@ -17124,7 +17190,7 @@
     </row>
     <row r="850" spans="1:9">
       <c r="A850" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B850" s="3" t="s">
         <v>40</v>
@@ -17132,7 +17198,7 @@
     </row>
     <row r="851" spans="1:9">
       <c r="A851" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>40</v>
@@ -17140,7 +17206,7 @@
     </row>
     <row r="852" spans="1:9">
       <c r="A852" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>36</v>
@@ -17160,7 +17226,7 @@
     </row>
     <row r="853" spans="1:9">
       <c r="A853" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>40</v>
@@ -17186,7 +17252,7 @@
     </row>
     <row r="854" spans="1:9">
       <c r="A854" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>41</v>
@@ -17200,7 +17266,7 @@
     </row>
     <row r="855" spans="1:9">
       <c r="A855" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B855" s="3" t="s">
         <v>41</v>
@@ -17208,7 +17274,7 @@
     </row>
     <row r="856" spans="1:9">
       <c r="A856" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>36</v>
@@ -17228,7 +17294,7 @@
     </row>
     <row r="857" spans="1:9">
       <c r="A857" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B857" s="3" t="s">
         <v>36</v>
@@ -17236,12 +17302,12 @@
     </row>
     <row r="858" spans="1:9">
       <c r="A858" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="859" spans="1:9">
       <c r="A859" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>41</v>
@@ -17264,7 +17330,7 @@
     </row>
     <row r="860" spans="1:9">
       <c r="A860" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B860" s="3" t="s">
         <v>35</v>
@@ -17272,17 +17338,17 @@
     </row>
     <row r="861" spans="1:9">
       <c r="A861" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="862" spans="1:9">
       <c r="A862" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="863" spans="1:9">
       <c r="A863" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B863" s="3" t="s">
         <v>36</v>
@@ -17305,7 +17371,7 @@
     </row>
     <row r="864" spans="1:9">
       <c r="A864" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B864" s="3" t="s">
         <v>36</v>
@@ -17313,17 +17379,17 @@
     </row>
     <row r="865" spans="1:9">
       <c r="A865" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="866" spans="1:9">
       <c r="A866" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="867" spans="1:9">
       <c r="A867" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>36</v>
@@ -17331,7 +17397,7 @@
     </row>
     <row r="868" spans="1:9">
       <c r="A868" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B868" s="3" t="s">
         <v>39</v>
@@ -17348,17 +17414,17 @@
     </row>
     <row r="869" spans="1:9">
       <c r="A869" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="870" spans="1:9">
       <c r="A870" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="871" spans="1:9">
       <c r="A871" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B871" s="3" t="s">
         <v>36</v>
@@ -17366,27 +17432,27 @@
     </row>
     <row r="872" spans="1:9">
       <c r="A872" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="873" spans="1:9">
       <c r="A873" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="874" spans="1:9">
       <c r="A874" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="875" spans="1:9">
       <c r="A875" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="876" spans="1:9">
       <c r="A876" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B876" s="3" t="s">
         <v>40</v>
@@ -17397,7 +17463,7 @@
     </row>
     <row r="877" spans="1:9">
       <c r="A877" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B877" s="3" t="s">
         <v>41</v>
@@ -17405,7 +17471,7 @@
     </row>
     <row r="878" spans="1:9">
       <c r="A878" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B878" s="3" t="s">
         <v>36</v>
@@ -17428,21 +17494,21 @@
     </row>
     <row r="879" spans="1:9">
       <c r="A879" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="880" spans="1:9">
       <c r="A880" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B880" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C880" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D880" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I880" s="4" t="s">
         <v>48</v>
@@ -17450,7 +17516,7 @@
     </row>
     <row r="881" spans="1:6">
       <c r="A881" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B881" s="3" t="s">
         <v>36</v>
@@ -17458,12 +17524,12 @@
     </row>
     <row r="882" spans="1:6">
       <c r="A882" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="883" spans="1:6">
       <c r="A883" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B883" s="3" t="s">
         <v>36</v>
@@ -17471,7 +17537,7 @@
     </row>
     <row r="884" spans="1:6">
       <c r="A884" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B884" s="3" t="s">
         <v>36</v>
@@ -17479,7 +17545,7 @@
     </row>
     <row r="885" spans="1:6">
       <c r="A885" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B885" s="3" t="s">
         <v>36</v>
@@ -17487,7 +17553,7 @@
     </row>
     <row r="886" spans="1:6">
       <c r="A886" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B886" s="3" t="s">
         <v>36</v>
@@ -17498,7 +17564,7 @@
     </row>
     <row r="887" spans="1:6">
       <c r="A887" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B887" s="3" t="s">
         <v>36</v>
@@ -17515,17 +17581,17 @@
     </row>
     <row r="888" spans="1:6">
       <c r="A888" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="889" spans="1:6">
       <c r="A889" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="890" spans="1:6">
       <c r="A890" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B890" s="3" t="s">
         <v>36</v>
@@ -17533,12 +17599,12 @@
     </row>
     <row r="891" spans="1:6">
       <c r="A891" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="892" spans="1:6">
       <c r="A892" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>68</v>
@@ -17546,22 +17612,22 @@
     </row>
     <row r="893" spans="1:6">
       <c r="A893" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="894" spans="1:6">
       <c r="A894" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="895" spans="1:6">
       <c r="A895" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="896" spans="1:6">
       <c r="A896" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B896" s="3" t="s">
         <v>36</v>
@@ -17569,7 +17635,7 @@
     </row>
     <row r="897" spans="1:13">
       <c r="A897" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B897" s="3" t="s">
         <v>40</v>
@@ -17589,7 +17655,7 @@
     </row>
     <row r="898" spans="1:13">
       <c r="A898" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B898" s="3" t="s">
         <v>40</v>
@@ -17597,7 +17663,7 @@
     </row>
     <row r="899" spans="1:13">
       <c r="A899" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B899" s="3" t="s">
         <v>40</v>
@@ -17605,12 +17671,12 @@
     </row>
     <row r="900" spans="1:13">
       <c r="A900" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="901" spans="1:13">
       <c r="A901" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B901" s="3" t="s">
         <v>36</v>
@@ -17633,7 +17699,7 @@
     </row>
     <row r="902" spans="1:13">
       <c r="A902" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B902" s="3" t="s">
         <v>36</v>
@@ -17656,7 +17722,7 @@
     </row>
     <row r="903" spans="1:13">
       <c r="A903" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B903" s="3" t="s">
         <v>39</v>
@@ -17679,7 +17745,7 @@
     </row>
     <row r="904" spans="1:13">
       <c r="A904" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B904" s="3" t="s">
         <v>36</v>
@@ -17702,7 +17768,7 @@
     </row>
     <row r="905" spans="1:13">
       <c r="A905" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B905" s="3" t="s">
         <v>39</v>
@@ -17711,12 +17777,12 @@
         <v>40</v>
       </c>
       <c r="I905" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="906" spans="1:13">
       <c r="A906" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B906" s="3" t="s">
         <v>56</v>
@@ -17727,12 +17793,12 @@
     </row>
     <row r="907" spans="1:13">
       <c r="A907" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="908" spans="1:13">
       <c r="A908" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B908" s="3" t="s">
         <v>36</v>
@@ -17749,7 +17815,7 @@
     </row>
     <row r="909" spans="1:13">
       <c r="A909" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B909" s="3" t="s">
         <v>36</v>
@@ -17769,7 +17835,7 @@
     </row>
     <row r="910" spans="1:13">
       <c r="A910" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B910" s="3" t="s">
         <v>38</v>
@@ -17777,7 +17843,7 @@
     </row>
     <row r="911" spans="1:13">
       <c r="A911" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B911" s="3" t="s">
         <v>40</v>
@@ -17785,7 +17851,7 @@
     </row>
     <row r="912" spans="1:13">
       <c r="A912" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B912" s="3" t="s">
         <v>39</v>
@@ -17820,7 +17886,7 @@
     </row>
     <row r="913" spans="1:9">
       <c r="A913" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B913" s="3" t="s">
         <v>96</v>
@@ -17828,18 +17894,18 @@
     </row>
     <row r="914" spans="1:9">
       <c r="A914" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B914" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C914" s="4" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="915" spans="1:9">
       <c r="A915" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B915" s="3" t="s">
         <v>36</v>
@@ -17847,7 +17913,7 @@
     </row>
     <row r="916" spans="1:9">
       <c r="A916" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B916" s="3" t="s">
         <v>36</v>
@@ -17870,7 +17936,7 @@
     </row>
     <row r="917" spans="1:9">
       <c r="A917" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B917" s="3" t="s">
         <v>36</v>
@@ -17893,7 +17959,7 @@
     </row>
     <row r="918" spans="1:9">
       <c r="A918" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B918" s="3" t="s">
         <v>40</v>
@@ -17904,13 +17970,13 @@
     </row>
     <row r="919" spans="1:9">
       <c r="A919" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B919" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C919" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D919" s="3" t="s">
         <v>62</v>
@@ -17921,7 +17987,7 @@
     </row>
     <row r="920" spans="1:9">
       <c r="A920" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B920" s="3" t="s">
         <v>40</v>
@@ -17929,7 +17995,7 @@
     </row>
     <row r="921" spans="1:9">
       <c r="A921" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B921" s="3" t="s">
         <v>36</v>
@@ -17949,7 +18015,7 @@
     </row>
     <row r="922" spans="1:9">
       <c r="A922" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B922" s="3" t="s">
         <v>40</v>
@@ -17957,12 +18023,12 @@
     </row>
     <row r="923" spans="1:9">
       <c r="A923" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="924" spans="1:9">
       <c r="A924" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B924" s="3" t="s">
         <v>40</v>
@@ -17970,7 +18036,7 @@
     </row>
     <row r="925" spans="1:9">
       <c r="A925" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B925" s="3" t="s">
         <v>41</v>
@@ -17978,7 +18044,7 @@
     </row>
     <row r="926" spans="1:9">
       <c r="A926" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B926" s="3" t="s">
         <v>36</v>
@@ -17986,7 +18052,7 @@
     </row>
     <row r="927" spans="1:9">
       <c r="A927" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B927" s="3" t="s">
         <v>36</v>
@@ -17994,22 +18060,22 @@
     </row>
     <row r="928" spans="1:9">
       <c r="A928" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="929" spans="1:11">
       <c r="A929" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="930" spans="1:11">
       <c r="A930" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="931" spans="1:11">
       <c r="A931" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B931" s="3" t="s">
         <v>40</v>
@@ -18017,7 +18083,7 @@
     </row>
     <row r="932" spans="1:11">
       <c r="A932" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B932" s="3" t="s">
         <v>36</v>
@@ -18025,7 +18091,7 @@
     </row>
     <row r="933" spans="1:11">
       <c r="A933" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B933" s="3" t="s">
         <v>36</v>
@@ -18048,7 +18114,7 @@
     </row>
     <row r="934" spans="1:11">
       <c r="A934" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B934" s="3" t="s">
         <v>36</v>
@@ -18083,7 +18149,7 @@
     </row>
     <row r="935" spans="1:11">
       <c r="A935" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B935" s="3" t="s">
         <v>36</v>
@@ -18094,7 +18160,7 @@
     </row>
     <row r="936" spans="1:11">
       <c r="A936" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B936" s="3" t="s">
         <v>36</v>
@@ -18102,12 +18168,12 @@
     </row>
     <row r="937" spans="1:11">
       <c r="A937" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="938" spans="1:11">
       <c r="A938" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B938" s="3" t="s">
         <v>41</v>
@@ -18130,7 +18196,7 @@
     </row>
     <row r="939" spans="1:11">
       <c r="A939" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B939" s="3" t="s">
         <v>36</v>
@@ -18138,17 +18204,17 @@
     </row>
     <row r="940" spans="1:11">
       <c r="A940" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="941" spans="1:11">
       <c r="A941" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="942" spans="1:11">
       <c r="A942" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>36</v>
@@ -18171,7 +18237,7 @@
     </row>
     <row r="943" spans="1:11">
       <c r="A943" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>36</v>
@@ -18179,7 +18245,7 @@
     </row>
     <row r="944" spans="1:11">
       <c r="A944" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>36</v>
@@ -18205,7 +18271,7 @@
     </row>
     <row r="945" spans="1:12">
       <c r="A945" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>36</v>
@@ -18213,12 +18279,12 @@
     </row>
     <row r="946" spans="1:12">
       <c r="A946" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="947" spans="1:12">
       <c r="A947" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>40</v>
@@ -18232,7 +18298,7 @@
     </row>
     <row r="948" spans="1:12">
       <c r="A948" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>40</v>
@@ -18255,7 +18321,7 @@
     </row>
     <row r="949" spans="1:12">
       <c r="A949" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>36</v>
@@ -18284,7 +18350,7 @@
     </row>
     <row r="950" spans="1:12">
       <c r="A950" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>36</v>
@@ -18301,7 +18367,7 @@
     </row>
     <row r="951" spans="1:12">
       <c r="A951" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B951" s="3" t="s">
         <v>36</v>
@@ -18330,7 +18396,7 @@
     </row>
     <row r="952" spans="1:12">
       <c r="A952" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B952" s="3" t="s">
         <v>36</v>
@@ -18350,7 +18416,7 @@
     </row>
     <row r="953" spans="1:12">
       <c r="A953" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B953" s="3" t="s">
         <v>36</v>
@@ -18361,7 +18427,7 @@
     </row>
     <row r="954" spans="1:12">
       <c r="A954" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B954" s="3" t="s">
         <v>40</v>
@@ -18372,7 +18438,7 @@
     </row>
     <row r="955" spans="1:12">
       <c r="A955" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B955" s="3" t="s">
         <v>36</v>
@@ -18389,7 +18455,7 @@
     </row>
     <row r="956" spans="1:12">
       <c r="A956" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>36</v>
@@ -18409,7 +18475,7 @@
     </row>
     <row r="957" spans="1:12">
       <c r="A957" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B957" s="3" t="s">
         <v>40</v>
@@ -18432,7 +18498,7 @@
     </row>
     <row r="958" spans="1:12">
       <c r="A958" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B958" s="3" t="s">
         <v>40</v>
@@ -18452,7 +18518,7 @@
     </row>
     <row r="959" spans="1:12">
       <c r="A959" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B959" s="3" t="s">
         <v>36</v>
@@ -18472,7 +18538,7 @@
     </row>
     <row r="960" spans="1:12">
       <c r="A960" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B960" s="3" t="s">
         <v>43</v>
@@ -18483,7 +18549,7 @@
     </row>
     <row r="961" spans="1:8">
       <c r="A961" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B961" s="3" t="s">
         <v>41</v>
@@ -18503,7 +18569,7 @@
     </row>
     <row r="962" spans="1:8">
       <c r="A962" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B962" s="3" t="s">
         <v>36</v>
@@ -18511,7 +18577,7 @@
     </row>
     <row r="963" spans="1:8">
       <c r="A963" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B963" s="3" t="s">
         <v>36</v>
@@ -18519,7 +18585,7 @@
     </row>
     <row r="964" spans="1:8">
       <c r="A964" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B964" s="3" t="s">
         <v>36</v>
@@ -18527,12 +18593,12 @@
     </row>
     <row r="965" spans="1:8">
       <c r="A965" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="966" spans="1:8">
       <c r="A966" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B966" s="3" t="s">
         <v>40</v>
@@ -18540,17 +18606,17 @@
     </row>
     <row r="967" spans="1:8">
       <c r="A967" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="968" spans="1:8">
       <c r="A968" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="969" spans="1:8">
       <c r="A969" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B969" s="3" t="s">
         <v>36</v>
@@ -18564,7 +18630,7 @@
     </row>
     <row r="970" spans="1:8">
       <c r="A970" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B970" s="3" t="s">
         <v>36</v>
@@ -18572,17 +18638,17 @@
     </row>
     <row r="971" spans="1:8">
       <c r="A971" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="972" spans="1:8">
       <c r="A972" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="973" spans="1:8">
       <c r="A973" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B973" s="3" t="s">
         <v>40</v>
@@ -18590,7 +18656,7 @@
     </row>
     <row r="974" spans="1:8">
       <c r="A974" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B974" s="3" t="s">
         <v>36</v>
@@ -18598,7 +18664,7 @@
     </row>
     <row r="975" spans="1:8">
       <c r="A975" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B975" s="3" t="s">
         <v>36</v>
@@ -18606,7 +18672,7 @@
     </row>
     <row r="976" spans="1:8">
       <c r="A976" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B976" s="3" t="s">
         <v>36</v>
@@ -18614,7 +18680,7 @@
     </row>
     <row r="977" spans="1:10">
       <c r="A977" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B977" s="3" t="s">
         <v>39</v>
@@ -18622,13 +18688,13 @@
     </row>
     <row r="978" spans="1:10">
       <c r="A978" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B978" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D978" s="4" t="s">
         <v>48</v>
@@ -18642,7 +18708,7 @@
     </row>
     <row r="979" spans="1:10">
       <c r="A979" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B979" s="3" t="s">
         <v>36</v>
@@ -18665,7 +18731,7 @@
     </row>
     <row r="980" spans="1:10">
       <c r="A980" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B980" s="3" t="s">
         <v>36</v>
@@ -18676,17 +18742,17 @@
     </row>
     <row r="981" spans="1:10">
       <c r="A981" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="982" spans="1:10">
       <c r="A982" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="983" spans="1:10">
       <c r="A983" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B983" s="3" t="s">
         <v>39</v>
@@ -18694,7 +18760,7 @@
     </row>
     <row r="984" spans="1:10">
       <c r="A984" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B984" s="3" t="s">
         <v>36</v>
@@ -18702,17 +18768,17 @@
     </row>
     <row r="985" spans="1:10">
       <c r="A985" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="986" spans="1:10">
       <c r="A986" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="987" spans="1:10">
       <c r="A987" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B987" s="3" t="s">
         <v>36</v>
@@ -18720,7 +18786,7 @@
     </row>
     <row r="988" spans="1:10">
       <c r="A988" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B988" s="3" t="s">
         <v>36</v>
@@ -18728,17 +18794,17 @@
     </row>
     <row r="989" spans="1:10">
       <c r="A989" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="990" spans="1:10">
       <c r="A990" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="991" spans="1:10">
       <c r="A991" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B991" s="3" t="s">
         <v>36</v>
@@ -18761,7 +18827,7 @@
     </row>
     <row r="992" spans="1:10">
       <c r="A992" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B992" s="3" t="s">
         <v>36</v>
@@ -18769,7 +18835,7 @@
     </row>
     <row r="993" spans="1:11">
       <c r="A993" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B993" s="3" t="s">
         <v>36</v>
@@ -18780,7 +18846,7 @@
     </row>
     <row r="994" spans="1:11">
       <c r="A994" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B994" s="3" t="s">
         <v>40</v>
@@ -18788,7 +18854,7 @@
     </row>
     <row r="995" spans="1:11">
       <c r="A995" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>36</v>
@@ -18820,7 +18886,7 @@
     </row>
     <row r="996" spans="1:11">
       <c r="A996" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B996" s="3" t="s">
         <v>36</v>
@@ -18828,7 +18894,7 @@
     </row>
     <row r="997" spans="1:11">
       <c r="A997" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B997" s="3" t="s">
         <v>36</v>
@@ -18836,17 +18902,17 @@
     </row>
     <row r="998" spans="1:11">
       <c r="A998" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="999" spans="1:11">
       <c r="A999" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1000" spans="1:11">
       <c r="A1000" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B1000" s="3" t="s">
         <v>40</v>
@@ -18854,12 +18920,12 @@
     </row>
     <row r="1001" spans="1:11">
       <c r="A1001" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1002" spans="1:11">
       <c r="A1002" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B1002" s="3" t="s">
         <v>36</v>
@@ -18867,17 +18933,17 @@
     </row>
     <row r="1003" spans="1:11">
       <c r="A1003" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1004" spans="1:11">
       <c r="A1004" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1005" spans="1:11">
       <c r="A1005" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B1005" s="3" t="s">
         <v>44</v>
@@ -18894,7 +18960,7 @@
     </row>
     <row r="1006" spans="1:11">
       <c r="A1006" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B1006" s="3" t="s">
         <v>36</v>
@@ -18902,32 +18968,32 @@
     </row>
     <row r="1007" spans="1:11">
       <c r="A1007" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1008" spans="1:11">
       <c r="A1008" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1009" spans="1:10">
       <c r="A1009" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1010" spans="1:10">
       <c r="A1010" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1011" spans="1:10">
       <c r="A1011" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1012" spans="1:10">
       <c r="A1012" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B1012" s="3" t="s">
         <v>40</v>
@@ -18947,17 +19013,17 @@
     </row>
     <row r="1013" spans="1:10">
       <c r="A1013" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1014" spans="1:10">
       <c r="A1014" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1015" spans="1:10">
       <c r="A1015" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B1015" s="3" t="s">
         <v>36</v>
@@ -18974,12 +19040,12 @@
     </row>
     <row r="1016" spans="1:10">
       <c r="A1016" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1017" spans="1:10">
       <c r="A1017" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B1017" s="3" t="s">
         <v>40</v>
@@ -18987,7 +19053,7 @@
     </row>
     <row r="1018" spans="1:10">
       <c r="A1018" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B1018" s="3" t="s">
         <v>36</v>
@@ -18995,17 +19061,17 @@
     </row>
     <row r="1019" spans="1:10">
       <c r="A1019" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1020" spans="1:10">
       <c r="A1020" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1021" spans="1:10">
       <c r="A1021" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B1021" s="3" t="s">
         <v>36</v>
@@ -19016,7 +19082,7 @@
     </row>
     <row r="1022" spans="1:10">
       <c r="A1022" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B1022" s="3" t="s">
         <v>36</v>
@@ -19027,17 +19093,17 @@
     </row>
     <row r="1023" spans="1:10">
       <c r="A1023" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1024" spans="1:10">
       <c r="A1024" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
       <c r="A1025" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B1025" s="3" t="s">
         <v>36</v>
@@ -19045,12 +19111,12 @@
     </row>
     <row r="1026" spans="1:3">
       <c r="A1026" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
       <c r="A1027" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B1027" s="3" t="s">
         <v>36</v>
@@ -19058,12 +19124,12 @@
     </row>
     <row r="1028" spans="1:3">
       <c r="A1028" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
       <c r="A1029" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B1029" s="3" t="s">
         <v>36</v>
@@ -19074,17 +19140,17 @@
     </row>
     <row r="1030" spans="1:3">
       <c r="A1030" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
       <c r="A1031" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
       <c r="A1032" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B1032" s="3" t="s">
         <v>50</v>
@@ -19095,48 +19161,48 @@
     </row>
     <row r="1033" spans="1:3">
       <c r="A1033" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
       <c r="A1034" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
       <c r="A1035" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
       <c r="A1036" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
       <c r="A1037" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
       <c r="A1038" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1039" spans="1:3">
       <c r="A1039" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B1039" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C1039" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
       <c r="A1040" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C1040" s="3" t="s">
         <v>36</v>
@@ -19144,22 +19210,22 @@
     </row>
     <row r="1041" spans="1:10">
       <c r="A1041" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1042" spans="1:10">
       <c r="A1042" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1043" spans="1:10">
       <c r="A1043" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1044" spans="1:10">
       <c r="A1044" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B1044" s="3" t="s">
         <v>39</v>
@@ -19167,17 +19233,17 @@
     </row>
     <row r="1045" spans="1:10">
       <c r="A1045" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1046" spans="1:10">
       <c r="A1046" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1047" spans="1:10">
       <c r="A1047" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B1047" s="3" t="s">
         <v>40</v>
@@ -19206,7 +19272,7 @@
     </row>
     <row r="1048" spans="1:10">
       <c r="A1048" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B1048" s="3" t="s">
         <v>36</v>
@@ -19217,7 +19283,7 @@
     </row>
     <row r="1049" spans="1:10">
       <c r="A1049" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C1049" s="4" t="s">
         <v>73</v>
@@ -19225,12 +19291,12 @@
     </row>
     <row r="1050" spans="1:10">
       <c r="A1050" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1051" spans="1:10">
       <c r="A1051" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C1051" s="3" t="s">
         <v>36</v>
@@ -19238,7 +19304,7 @@
     </row>
     <row r="1052" spans="1:10">
       <c r="A1052" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B1052" s="3" t="s">
         <v>36</v>
@@ -19252,12 +19318,12 @@
     </row>
     <row r="1053" spans="1:10">
       <c r="A1053" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1054" spans="1:10">
       <c r="A1054" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B1054" s="3" t="s">
         <v>36</v>
@@ -19265,12 +19331,12 @@
     </row>
     <row r="1055" spans="1:10">
       <c r="A1055" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1056" spans="1:10">
       <c r="A1056" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B1056" s="3" t="s">
         <v>36</v>
@@ -19278,37 +19344,37 @@
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B1063" s="3" t="s">
         <v>96</v>
@@ -19316,87 +19382,87 @@
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B1080" s="3" t="s">
         <v>36</v>
@@ -19404,7 +19470,7 @@
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B1081" s="3" t="s">
         <v>39</v>
@@ -19412,17 +19478,17 @@
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B1084" s="3" t="s">
         <v>36</v>
@@ -19430,27 +19496,27 @@
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1089" spans="1:10">
       <c r="A1089" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B1089" s="3" t="s">
         <v>36</v>
@@ -19461,7 +19527,7 @@
     </row>
     <row r="1090" spans="1:10">
       <c r="A1090" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B1090" s="3" t="s">
         <v>38</v>
@@ -19484,7 +19550,7 @@
     </row>
     <row r="1091" spans="1:10">
       <c r="A1091" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B1091" s="3" t="s">
         <v>40</v>
@@ -19513,7 +19579,7 @@
     </row>
     <row r="1092" spans="1:10">
       <c r="A1092" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B1092" s="3" t="s">
         <v>44</v>
@@ -19521,7 +19587,7 @@
     </row>
     <row r="1093" spans="1:10">
       <c r="A1093" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B1093" s="3" t="s">
         <v>36</v>
@@ -19529,7 +19595,7 @@
     </row>
     <row r="1094" spans="1:10">
       <c r="A1094" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B1094" s="3" t="s">
         <v>126</v>
@@ -19537,7 +19603,7 @@
     </row>
     <row r="1095" spans="1:10">
       <c r="A1095" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B1095" s="3" t="s">
         <v>36</v>
@@ -19545,7 +19611,7 @@
     </row>
     <row r="1096" spans="1:10">
       <c r="A1096" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B1096" s="3" t="s">
         <v>36</v>
@@ -19553,7 +19619,7 @@
     </row>
     <row r="1097" spans="1:10">
       <c r="A1097" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B1097" s="3" t="s">
         <v>44</v>
@@ -19570,18 +19636,18 @@
     </row>
     <row r="1098" spans="1:10">
       <c r="A1098" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B1098" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G1098" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1099" spans="1:10">
       <c r="A1099" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B1099" s="3" t="s">
         <v>36</v>
@@ -19589,7 +19655,7 @@
     </row>
     <row r="1100" spans="1:10">
       <c r="A1100" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B1100" s="3" t="s">
         <v>50</v>
@@ -19597,7 +19663,7 @@
     </row>
     <row r="1101" spans="1:10">
       <c r="A1101" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B1101" s="3" t="s">
         <v>36</v>
@@ -19605,7 +19671,7 @@
     </row>
     <row r="1102" spans="1:10">
       <c r="A1102" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B1102" s="4" t="s">
         <v>73</v>
@@ -19613,7 +19679,7 @@
     </row>
     <row r="1103" spans="1:10">
       <c r="A1103" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B1103" s="3" t="s">
         <v>40</v>
@@ -19624,7 +19690,7 @@
     </row>
     <row r="1104" spans="1:10">
       <c r="A1104" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B1104" s="3" t="s">
         <v>40</v>
@@ -19632,37 +19698,37 @@
     </row>
     <row r="1105" spans="1:10">
       <c r="A1105" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1106" spans="1:10">
       <c r="A1106" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1107" spans="1:10">
       <c r="A1107" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1108" spans="1:10">
       <c r="A1108" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1109" spans="1:10">
       <c r="A1109" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1110" spans="1:10">
       <c r="A1110" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1111" spans="1:10">
       <c r="A1111" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C1111" s="3" t="s">
         <v>40</v>
@@ -19670,37 +19736,37 @@
     </row>
     <row r="1112" spans="1:10">
       <c r="A1112" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1113" spans="1:10">
       <c r="A1113" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1114" spans="1:10">
       <c r="A1114" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1115" spans="1:10">
       <c r="A1115" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1116" spans="1:10">
       <c r="A1116" s="2" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1117" spans="1:10">
       <c r="A1117" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1118" spans="1:10">
       <c r="A1118" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B1118" s="3" t="s">
         <v>36</v>
@@ -19723,7 +19789,7 @@
     </row>
     <row r="1119" spans="1:10">
       <c r="A1119" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B1119" s="3" t="s">
         <v>36</v>
@@ -19752,7 +19818,7 @@
     </row>
     <row r="1120" spans="1:10">
       <c r="A1120" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B1120" s="3" t="s">
         <v>36</v>
@@ -19781,7 +19847,7 @@
     </row>
     <row r="1121" spans="1:10">
       <c r="A1121" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B1121" s="3" t="s">
         <v>36</v>
@@ -19810,7 +19876,7 @@
     </row>
     <row r="1122" spans="1:10">
       <c r="A1122" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B1122" s="3" t="s">
         <v>39</v>
@@ -19839,7 +19905,7 @@
     </row>
     <row r="1123" spans="1:10">
       <c r="A1123" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B1123" s="3" t="s">
         <v>36</v>
@@ -19865,7 +19931,7 @@
     </row>
     <row r="1124" spans="1:10">
       <c r="A1124" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B1124" s="3" t="s">
         <v>40</v>
@@ -19894,7 +19960,7 @@
     </row>
     <row r="1125" spans="1:10">
       <c r="A1125" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B1125" s="3" t="s">
         <v>36</v>
@@ -19911,7 +19977,7 @@
     </row>
     <row r="1126" spans="1:10">
       <c r="A1126" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B1126" s="3" t="s">
         <v>36</v>
@@ -19928,7 +19994,7 @@
     </row>
     <row r="1127" spans="1:10">
       <c r="A1127" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B1127" s="3" t="s">
         <v>40</v>
@@ -19951,7 +20017,7 @@
     </row>
     <row r="1128" spans="1:10">
       <c r="A1128" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B1128" s="3" t="s">
         <v>36</v>
@@ -19968,7 +20034,7 @@
     </row>
     <row r="1129" spans="1:10">
       <c r="A1129" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B1129" s="3" t="s">
         <v>36</v>
@@ -19985,7 +20051,7 @@
     </row>
     <row r="1130" spans="1:10">
       <c r="A1130" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B1130" s="3" t="s">
         <v>36</v>
@@ -20002,7 +20068,7 @@
     </row>
     <row r="1131" spans="1:10">
       <c r="A1131" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B1131" s="3" t="s">
         <v>36</v>
@@ -20019,7 +20085,7 @@
     </row>
     <row r="1132" spans="1:10">
       <c r="A1132" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B1132" s="3" t="s">
         <v>36</v>
@@ -20036,7 +20102,7 @@
     </row>
     <row r="1133" spans="1:10">
       <c r="A1133" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B1133" s="3" t="s">
         <v>36</v>
@@ -20048,12 +20114,12 @@
         <v>56</v>
       </c>
       <c r="J1133" s="3" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1134" spans="1:10">
       <c r="A1134" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B1134" s="3" t="s">
         <v>36</v>
@@ -20067,7 +20133,7 @@
     </row>
     <row r="1135" spans="1:10">
       <c r="A1135" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B1135" s="3" t="s">
         <v>36</v>
@@ -20081,7 +20147,7 @@
     </row>
     <row r="1136" spans="1:10">
       <c r="A1136" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B1136" s="3" t="s">
         <v>36</v>
@@ -20095,7 +20161,7 @@
     </row>
     <row r="1137" spans="1:8">
       <c r="A1137" s="2" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B1137" s="3" t="s">
         <v>40</v>
@@ -20112,13 +20178,13 @@
     </row>
     <row r="1138" spans="1:8">
       <c r="A1138" s="2" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B1138" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C1138" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F1138" s="4" t="s">
         <v>73</v>
@@ -20129,7 +20195,7 @@
     </row>
     <row r="1139" spans="1:8">
       <c r="A1139" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>44</v>
@@ -20143,7 +20209,7 @@
     </row>
     <row r="1140" spans="1:8">
       <c r="A1140" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B1140" s="3" t="s">
         <v>36</v>
@@ -20151,7 +20217,7 @@
     </row>
     <row r="1141" spans="1:8">
       <c r="A1141" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B1141" s="3" t="s">
         <v>36</v>
@@ -20162,7 +20228,7 @@
     </row>
     <row r="1142" spans="1:8">
       <c r="A1142" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B1142" s="3" t="s">
         <v>36</v>
@@ -20173,7 +20239,7 @@
     </row>
     <row r="1143" spans="1:8">
       <c r="A1143" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B1143" s="3" t="s">
         <v>40</v>
@@ -20184,7 +20250,7 @@
     </row>
     <row r="1144" spans="1:8">
       <c r="A1144" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B1144" s="3" t="s">
         <v>36</v>
@@ -20195,7 +20261,7 @@
     </row>
     <row r="1145" spans="1:8">
       <c r="A1145" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B1145" s="3" t="s">
         <v>36</v>
@@ -20206,7 +20272,7 @@
     </row>
     <row r="1146" spans="1:8">
       <c r="A1146" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B1146" s="3" t="s">
         <v>36</v>
@@ -20217,7 +20283,7 @@
     </row>
     <row r="1147" spans="1:8">
       <c r="A1147" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B1147" s="3" t="s">
         <v>36</v>
@@ -20228,7 +20294,7 @@
     </row>
     <row r="1148" spans="1:8">
       <c r="A1148" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B1148" s="3" t="s">
         <v>36</v>
@@ -20239,7 +20305,7 @@
     </row>
     <row r="1149" spans="1:8">
       <c r="A1149" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B1149" s="3" t="s">
         <v>40</v>
@@ -20250,18 +20316,18 @@
     </row>
     <row r="1150" spans="1:8">
       <c r="A1150" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B1150" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H1150" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
       <c r="A1151" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B1151" s="3" t="s">
         <v>36</v>
@@ -20272,7 +20338,7 @@
     </row>
     <row r="1152" spans="1:8">
       <c r="A1152" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B1152" s="3" t="s">
         <v>40</v>
@@ -20283,7 +20349,7 @@
     </row>
     <row r="1153" spans="1:8">
       <c r="A1153" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B1153" s="3" t="s">
         <v>40</v>
@@ -20291,7 +20357,7 @@
     </row>
     <row r="1154" spans="1:8">
       <c r="A1154" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B1154" s="3" t="s">
         <v>36</v>
@@ -20302,7 +20368,7 @@
     </row>
     <row r="1155" spans="1:8">
       <c r="A1155" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B1155" s="3" t="s">
         <v>36</v>
@@ -20319,7 +20385,7 @@
     </row>
     <row r="1156" spans="1:8">
       <c r="A1156" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B1156" s="3" t="s">
         <v>36</v>
@@ -20333,7 +20399,7 @@
     </row>
     <row r="1157" spans="1:8">
       <c r="A1157" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B1157" s="3" t="s">
         <v>36</v>
@@ -20347,7 +20413,7 @@
     </row>
     <row r="1158" spans="1:8">
       <c r="A1158" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B1158" s="3" t="s">
         <v>36</v>
@@ -20361,7 +20427,7 @@
     </row>
     <row r="1159" spans="1:8">
       <c r="A1159" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B1159" s="3" t="s">
         <v>36</v>
@@ -20378,7 +20444,7 @@
     </row>
     <row r="1160" spans="1:8">
       <c r="A1160" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B1160" s="3" t="s">
         <v>36</v>
@@ -20392,7 +20458,7 @@
     </row>
     <row r="1161" spans="1:8">
       <c r="A1161" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B1161" s="3" t="s">
         <v>36</v>
@@ -20406,7 +20472,7 @@
     </row>
     <row r="1162" spans="1:8">
       <c r="A1162" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>41</v>
@@ -20414,7 +20480,7 @@
     </row>
     <row r="1163" spans="1:8">
       <c r="A1163" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>44</v>
@@ -20428,67 +20494,67 @@
     </row>
     <row r="1164" spans="1:8">
       <c r="A1164" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
       <c r="A1165" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
       <c r="A1166" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
       <c r="A1167" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
       <c r="A1168" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1169" spans="1:5">
       <c r="A1169" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1170" spans="1:5">
       <c r="A1170" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1171" spans="1:5">
       <c r="A1171" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1172" spans="1:5">
       <c r="A1172" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1173" spans="1:5">
       <c r="A1173" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1174" spans="1:5">
       <c r="A1174" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1175" spans="1:5">
       <c r="A1175" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1176" spans="1:5">
       <c r="A1176" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B1176" s="3" t="s">
         <v>36</v>
@@ -20496,7 +20562,7 @@
     </row>
     <row r="1177" spans="1:5">
       <c r="A1177" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B1177" s="3" t="s">
         <v>36</v>
@@ -20504,37 +20570,37 @@
     </row>
     <row r="1178" spans="1:5">
       <c r="A1178" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1179" spans="1:5">
       <c r="A1179" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1180" spans="1:5">
       <c r="A1180" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1181" spans="1:5">
       <c r="A1181" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1182" spans="1:5">
       <c r="A1182" s="2" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1183" spans="1:5">
       <c r="A1183" s="2" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1184" spans="1:5">
       <c r="A1184" s="2" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B1184" s="3" t="s">
         <v>41</v>
@@ -20548,7 +20614,7 @@
     </row>
     <row r="1185" spans="1:9">
       <c r="A1185" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B1185" s="3" t="s">
         <v>41</v>
@@ -20556,12 +20622,12 @@
     </row>
     <row r="1186" spans="1:9">
       <c r="A1186" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1187" spans="1:9">
       <c r="A1187" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B1187" s="3" t="s">
         <v>43</v>
@@ -20569,7 +20635,7 @@
     </row>
     <row r="1188" spans="1:9">
       <c r="A1188" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B1188" s="3" t="s">
         <v>36</v>
@@ -20583,7 +20649,7 @@
     </row>
     <row r="1189" spans="1:9">
       <c r="A1189" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B1189" s="3" t="s">
         <v>172</v>
@@ -20600,7 +20666,7 @@
     </row>
     <row r="1190" spans="1:9">
       <c r="A1190" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B1190" s="3" t="s">
         <v>50</v>
@@ -20614,7 +20680,7 @@
     </row>
     <row r="1191" spans="1:9">
       <c r="A1191" s="2" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>41</v>
@@ -20622,7 +20688,7 @@
     </row>
     <row r="1192" spans="1:9">
       <c r="A1192" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B1192" s="3" t="s">
         <v>36</v>
@@ -20639,13 +20705,13 @@
     </row>
     <row r="1193" spans="1:9">
       <c r="A1193" s="2" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B1193" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C1193" s="3" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D1193" s="3" t="s">
         <v>57</v>
@@ -20653,7 +20719,7 @@
     </row>
     <row r="1194" spans="1:9">
       <c r="A1194" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B1194" s="3" t="s">
         <v>36</v>
@@ -20673,7 +20739,7 @@
     </row>
     <row r="1195" spans="1:9">
       <c r="A1195" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B1195" s="3" t="s">
         <v>35</v>
@@ -20693,7 +20759,7 @@
     </row>
     <row r="1196" spans="1:9">
       <c r="A1196" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B1196" s="3" t="s">
         <v>41</v>
@@ -20710,7 +20776,7 @@
     </row>
     <row r="1197" spans="1:9">
       <c r="A1197" s="2" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B1197" s="3" t="s">
         <v>50</v>
@@ -20724,27 +20790,27 @@
     </row>
     <row r="1198" spans="1:9">
       <c r="A1198" s="2" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1199" spans="1:9">
       <c r="A1199" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1200" spans="1:9">
       <c r="A1200" s="2" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1201" spans="1:10">
       <c r="A1201" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1202" spans="1:10">
       <c r="A1202" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G1202" s="3" t="s">
         <v>43</v>
@@ -20752,7 +20818,7 @@
     </row>
     <row r="1203" spans="1:10">
       <c r="A1203" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B1203" s="3" t="s">
         <v>36</v>
@@ -20763,38 +20829,38 @@
     </row>
     <row r="1204" spans="1:10">
       <c r="A1204" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1205" spans="1:10">
       <c r="A1205" s="2" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1206" spans="1:10">
       <c r="A1206" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1207" spans="1:10">
       <c r="A1207" s="2" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B1207" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H1207" s="3" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1208" spans="1:10">
       <c r="A1208" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1209" spans="1:10">
       <c r="A1209" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B1209" s="3" t="s">
         <v>36</v>
@@ -20805,7 +20871,7 @@
     </row>
     <row r="1210" spans="1:10">
       <c r="A1210" s="2" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B1210" s="3" t="s">
         <v>36</v>
@@ -20822,7 +20888,7 @@
     </row>
     <row r="1211" spans="1:10">
       <c r="A1211" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B1211" s="3" t="s">
         <v>40</v>
@@ -20830,7 +20896,7 @@
     </row>
     <row r="1212" spans="1:10">
       <c r="A1212" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B1212" s="3" t="s">
         <v>41</v>
@@ -20838,7 +20904,7 @@
     </row>
     <row r="1213" spans="1:10">
       <c r="A1213" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B1213" s="3" t="s">
         <v>36</v>
@@ -20846,7 +20912,7 @@
     </row>
     <row r="1214" spans="1:10">
       <c r="A1214" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B1214" s="3" t="s">
         <v>36</v>
@@ -20857,12 +20923,12 @@
     </row>
     <row r="1215" spans="1:10">
       <c r="A1215" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1216" spans="1:10">
       <c r="A1216" s="2" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="J1216" s="4" t="s">
         <v>73</v>
@@ -20870,22 +20936,22 @@
     </row>
     <row r="1217" spans="1:8">
       <c r="A1217" s="2" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
       <c r="A1218" s="2" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
       <c r="A1219" s="2" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
       <c r="A1220" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B1220" s="3" t="s">
         <v>41</v>
@@ -20893,17 +20959,17 @@
     </row>
     <row r="1221" spans="1:8">
       <c r="A1221" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
       <c r="A1222" s="2" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
       <c r="A1223" s="2" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B1223" s="3" t="s">
         <v>36</v>
@@ -20917,7 +20983,7 @@
     </row>
     <row r="1224" spans="1:8">
       <c r="A1224" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B1224" s="3" t="s">
         <v>40</v>
@@ -20934,7 +21000,7 @@
     </row>
     <row r="1225" spans="1:8">
       <c r="A1225" s="2" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B1225" s="3" t="s">
         <v>36</v>
@@ -20948,7 +21014,7 @@
     </row>
     <row r="1226" spans="1:8">
       <c r="A1226" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B1226" s="3" t="s">
         <v>36</v>
@@ -20965,7 +21031,7 @@
     </row>
     <row r="1227" spans="1:8">
       <c r="A1227" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B1227" s="3" t="s">
         <v>36</v>
@@ -20979,7 +21045,7 @@
     </row>
     <row r="1228" spans="1:8">
       <c r="A1228" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B1228" s="3" t="s">
         <v>36</v>
@@ -20987,7 +21053,7 @@
     </row>
     <row r="1229" spans="1:8">
       <c r="A1229" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B1229" s="3" t="s">
         <v>36</v>
@@ -20995,7 +21061,7 @@
     </row>
     <row r="1230" spans="1:8">
       <c r="A1230" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B1230" s="3" t="s">
         <v>36</v>
@@ -21003,7 +21069,7 @@
     </row>
     <row r="1231" spans="1:8">
       <c r="A1231" s="2" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B1231" s="3" t="s">
         <v>36</v>
@@ -21011,7 +21077,7 @@
     </row>
     <row r="1232" spans="1:8">
       <c r="A1232" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B1232" s="3" t="s">
         <v>41</v>
@@ -21019,7 +21085,7 @@
     </row>
     <row r="1233" spans="1:8">
       <c r="A1233" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B1233" s="3" t="s">
         <v>36</v>
@@ -21027,7 +21093,7 @@
     </row>
     <row r="1234" spans="1:8">
       <c r="A1234" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B1234" s="3" t="s">
         <v>36</v>
@@ -21044,7 +21110,7 @@
     </row>
     <row r="1235" spans="1:8">
       <c r="A1235" s="2" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B1235" s="3" t="s">
         <v>36</v>
@@ -21058,7 +21124,7 @@
     </row>
     <row r="1236" spans="1:8">
       <c r="A1236" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B1236" s="3" t="s">
         <v>36</v>
@@ -21072,7 +21138,7 @@
     </row>
     <row r="1237" spans="1:8">
       <c r="A1237" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B1237" s="3" t="s">
         <v>36</v>
@@ -21081,12 +21147,12 @@
         <v>48</v>
       </c>
       <c r="H1237" s="3" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
       <c r="A1238" s="2" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B1238" s="3" t="s">
         <v>36</v>
@@ -21094,12 +21160,12 @@
     </row>
     <row r="1239" spans="1:8">
       <c r="A1239" s="2" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
       <c r="A1240" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B1240" s="3" t="s">
         <v>40</v>
@@ -21110,7 +21176,7 @@
     </row>
     <row r="1241" spans="1:8">
       <c r="A1241" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B1241" s="3" t="s">
         <v>36</v>
@@ -21121,7 +21187,7 @@
     </row>
     <row r="1242" spans="1:8">
       <c r="A1242" s="2" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B1242" s="3" t="s">
         <v>36</v>
@@ -21129,7 +21195,7 @@
     </row>
     <row r="1243" spans="1:8">
       <c r="A1243" s="2" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B1243" s="3" t="s">
         <v>36</v>
@@ -21137,7 +21203,7 @@
     </row>
     <row r="1244" spans="1:8">
       <c r="A1244" s="2" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B1244" s="3" t="s">
         <v>36</v>
@@ -21145,7 +21211,7 @@
     </row>
     <row r="1245" spans="1:8">
       <c r="A1245" s="2" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B1245" s="3" t="s">
         <v>36</v>
@@ -21153,7 +21219,7 @@
     </row>
     <row r="1246" spans="1:8">
       <c r="A1246" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B1246" s="3" t="s">
         <v>36</v>
@@ -21161,7 +21227,7 @@
     </row>
     <row r="1247" spans="1:8">
       <c r="A1247" s="2" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B1247" s="3" t="s">
         <v>36</v>
@@ -21169,17 +21235,17 @@
     </row>
     <row r="1248" spans="1:8">
       <c r="A1248" s="2" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1249" spans="1:3">
       <c r="A1249" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
       <c r="A1250" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C1250" s="3" t="s">
         <v>41</v>
@@ -21187,12 +21253,12 @@
     </row>
     <row r="1251" spans="1:3">
       <c r="A1251" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
       <c r="A1252" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C1252" s="3" t="s">
         <v>36</v>
@@ -21200,27 +21266,27 @@
     </row>
     <row r="1253" spans="1:3">
       <c r="A1253" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1254" spans="1:3">
       <c r="A1254" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1255" spans="1:3">
       <c r="A1255" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1256" spans="1:3">
       <c r="A1256" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1257" spans="1:3">
       <c r="A1257" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C1257" s="4" t="s">
         <v>71</v>
@@ -21228,22 +21294,22 @@
     </row>
     <row r="1258" spans="1:3">
       <c r="A1258" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1259" spans="1:3">
       <c r="A1259" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1260" spans="1:3">
       <c r="A1260" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
       <c r="A1261" s="2" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B1261" s="3" t="s">
         <v>36</v>
@@ -21251,47 +21317,47 @@
     </row>
     <row r="1262" spans="1:3">
       <c r="A1262" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
       <c r="A1263" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1264" spans="1:3">
       <c r="A1264" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1265" spans="1:7">
       <c r="A1265" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1266" spans="1:7">
       <c r="A1266" s="2" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1267" spans="1:7">
       <c r="A1267" s="2" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1268" spans="1:7">
       <c r="A1268" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1269" spans="1:7">
       <c r="A1269" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1270" spans="1:7">
       <c r="A1270" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B1270" s="3" t="s">
         <v>36</v>
@@ -21299,7 +21365,7 @@
     </row>
     <row r="1271" spans="1:7">
       <c r="A1271" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B1271" s="3" t="s">
         <v>36</v>
@@ -21307,7 +21373,7 @@
     </row>
     <row r="1272" spans="1:7">
       <c r="A1272" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B1272" s="3" t="s">
         <v>36</v>
@@ -21315,7 +21381,7 @@
     </row>
     <row r="1273" spans="1:7">
       <c r="A1273" s="2" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B1273" s="3" t="s">
         <v>41</v>
@@ -21323,7 +21389,7 @@
     </row>
     <row r="1274" spans="1:7">
       <c r="A1274" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B1274" s="3" t="s">
         <v>36</v>
@@ -21331,15 +21397,15 @@
     </row>
     <row r="1275" spans="1:7">
       <c r="A1275" s="2" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G1275" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1276" spans="1:7">
       <c r="A1276" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G1276" s="3" t="s">
         <v>36</v>
@@ -21347,7 +21413,7 @@
     </row>
     <row r="1277" spans="1:7">
       <c r="A1277" s="2" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G1277" s="3" t="s">
         <v>36</v>
@@ -21355,72 +21421,72 @@
     </row>
     <row r="1278" spans="1:7">
       <c r="A1278" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1279" spans="1:7">
       <c r="A1279" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1280" spans="1:7">
       <c r="A1280" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1281" spans="1:7">
       <c r="A1281" s="2" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1282" spans="1:7">
       <c r="A1282" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1283" spans="1:7">
       <c r="A1283" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1284" spans="1:7">
       <c r="A1284" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1285" spans="1:7">
       <c r="A1285" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1286" spans="1:7">
       <c r="A1286" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1287" spans="1:7">
       <c r="A1287" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1288" spans="1:7">
       <c r="A1288" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1289" spans="1:7">
       <c r="A1289" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1290" spans="1:7">
       <c r="A1290" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1291" spans="1:7">
       <c r="A1291" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B1291" s="3" t="s">
         <v>40</v>
@@ -21428,17 +21494,17 @@
     </row>
     <row r="1292" spans="1:7">
       <c r="A1292" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1293" spans="1:7">
       <c r="A1293" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1294" spans="1:7">
       <c r="A1294" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B1294" s="3" t="s">
         <v>41</v>
@@ -21446,7 +21512,7 @@
     </row>
     <row r="1295" spans="1:7">
       <c r="A1295" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B1295" s="3" t="s">
         <v>36</v>
@@ -21457,57 +21523,57 @@
     </row>
     <row r="1296" spans="1:7">
       <c r="A1296" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
       <c r="A1297" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
       <c r="A1298" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1299" spans="1:3">
       <c r="A1299" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1300" spans="1:3">
       <c r="A1300" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1301" spans="1:3">
       <c r="A1301" s="2" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
       <c r="A1302" s="2" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
       <c r="A1303" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
       <c r="A1304" s="2" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1305" spans="1:3">
       <c r="A1305" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
       <c r="A1306" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B1306" s="3" t="s">
         <v>41</v>
@@ -21518,62 +21584,62 @@
     </row>
     <row r="1307" spans="1:3">
       <c r="A1307" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
       <c r="A1308" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
       <c r="A1309" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
       <c r="A1310" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
       <c r="A1311" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
       <c r="A1312" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
       <c r="A1313" s="2" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
       <c r="A1314" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
       <c r="A1315" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
       <c r="A1316" s="2" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
       <c r="A1317" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
       <c r="A1318" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B1318" s="3" t="s">
         <v>36</v>
@@ -21581,17 +21647,17 @@
     </row>
     <row r="1319" spans="1:8">
       <c r="A1319" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
       <c r="A1320" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
       <c r="A1321" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C1321" s="3" t="s">
         <v>40</v>
@@ -21599,12 +21665,12 @@
     </row>
     <row r="1322" spans="1:8">
       <c r="A1322" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
       <c r="A1323" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B1323" s="3" t="s">
         <v>36</v>
@@ -21612,17 +21678,17 @@
     </row>
     <row r="1324" spans="1:8">
       <c r="A1324" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
       <c r="A1325" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
       <c r="A1326" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B1326" s="3" t="s">
         <v>36</v>
@@ -21639,197 +21705,197 @@
     </row>
     <row r="1327" spans="1:8">
       <c r="A1327" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
       <c r="A1328" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330" s="2" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332" s="2" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333" s="2" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338" s="2" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345" s="2" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350" s="2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356" s="2" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357" s="2" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358" s="2" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360" s="2" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1361" spans="1:8">
       <c r="A1361" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1362" spans="1:8">
       <c r="A1362" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1363" spans="1:8">
       <c r="A1363" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1364" spans="1:8">
       <c r="A1364" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1365" spans="1:8">
       <c r="A1365" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B1365" s="3" t="s">
         <v>36</v>
@@ -21840,7 +21906,7 @@
     </row>
     <row r="1366" spans="1:8">
       <c r="A1366" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B1366" s="3" t="s">
         <v>36</v>
@@ -21851,7 +21917,7 @@
     </row>
     <row r="1367" spans="1:8">
       <c r="A1367" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B1367" s="3" t="s">
         <v>36</v>
@@ -21859,7 +21925,7 @@
     </row>
     <row r="1368" spans="1:8">
       <c r="A1368" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B1368" s="3" t="s">
         <v>40</v>
@@ -21870,7 +21936,7 @@
     </row>
     <row r="1369" spans="1:8">
       <c r="A1369" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B1369" s="3" t="s">
         <v>36</v>
@@ -21893,7 +21959,7 @@
     </row>
     <row r="1370" spans="1:8">
       <c r="A1370" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B1370" s="3" t="s">
         <v>41</v>
@@ -21904,12 +21970,12 @@
     </row>
     <row r="1371" spans="1:8">
       <c r="A1371" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1372" spans="1:8">
       <c r="A1372" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B1372" s="3" t="s">
         <v>36</v>
@@ -21917,7 +21983,7 @@
     </row>
     <row r="1373" spans="1:8">
       <c r="A1373" s="2" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B1373" s="3" t="s">
         <v>36</v>
@@ -21925,7 +21991,7 @@
     </row>
     <row r="1374" spans="1:8">
       <c r="A1374" s="2" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B1374" s="3" t="s">
         <v>96</v>
@@ -21933,7 +21999,7 @@
     </row>
     <row r="1375" spans="1:8">
       <c r="A1375" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B1375" s="3" t="s">
         <v>36</v>
@@ -21941,12 +22007,12 @@
     </row>
     <row r="1376" spans="1:8">
       <c r="A1376" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1377" spans="1:10">
       <c r="A1377" s="2" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B1377" s="3" t="s">
         <v>36</v>
@@ -21954,7 +22020,7 @@
     </row>
     <row r="1378" spans="1:10">
       <c r="A1378" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B1378" s="3" t="s">
         <v>36</v>
@@ -21962,62 +22028,62 @@
     </row>
     <row r="1379" spans="1:10">
       <c r="A1379" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1380" spans="1:10">
       <c r="A1380" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1381" spans="1:10">
       <c r="A1381" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1382" spans="1:10">
       <c r="A1382" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1383" spans="1:10">
       <c r="A1383" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1384" spans="1:10">
       <c r="A1384" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1385" spans="1:10">
       <c r="A1385" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1386" spans="1:10">
       <c r="A1386" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1387" spans="1:10">
       <c r="A1387" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1388" spans="1:10">
       <c r="A1388" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1389" spans="1:10">
       <c r="A1389" s="2" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1390" spans="1:10">
       <c r="A1390" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C1390" s="3" t="s">
         <v>36</v>
@@ -22028,12 +22094,12 @@
     </row>
     <row r="1391" spans="1:10">
       <c r="A1391" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1392" spans="1:10">
       <c r="A1392" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D1392" s="3" t="s">
         <v>36</v>
@@ -22044,22 +22110,22 @@
     </row>
     <row r="1393" spans="1:4">
       <c r="A1393" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
       <c r="A1394" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1395" spans="1:4">
       <c r="A1395" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1396" spans="1:4">
       <c r="A1396" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C1396" s="3" t="s">
         <v>40</v>
@@ -22070,42 +22136,42 @@
     </row>
     <row r="1397" spans="1:4">
       <c r="A1397" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1398" spans="1:4">
       <c r="A1398" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1399" spans="1:4">
       <c r="A1399" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1400" spans="1:4">
       <c r="A1400" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1401" spans="1:4">
       <c r="A1401" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
       <c r="A1402" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1403" spans="1:4">
       <c r="A1403" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1404" spans="1:4">
       <c r="A1404" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B1404" s="3" t="s">
         <v>68</v>
@@ -22113,7 +22179,7 @@
     </row>
     <row r="1405" spans="1:4">
       <c r="A1405" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C1405" s="3" t="s">
         <v>41</v>
@@ -22121,7 +22187,7 @@
     </row>
     <row r="1406" spans="1:4">
       <c r="A1406" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B1406" s="3" t="s">
         <v>36</v>
@@ -22132,17 +22198,17 @@
     </row>
     <row r="1407" spans="1:4">
       <c r="A1407" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1408" spans="1:4">
       <c r="A1408" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1409" spans="1:8">
       <c r="A1409" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C1409" s="4" t="s">
         <v>73</v>
@@ -22150,22 +22216,22 @@
     </row>
     <row r="1410" spans="1:8">
       <c r="A1410" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1411" spans="1:8">
       <c r="A1411" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1412" spans="1:8">
       <c r="A1412" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1413" spans="1:8">
       <c r="A1413" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B1413" s="3" t="s">
         <v>36</v>
@@ -22176,57 +22242,57 @@
     </row>
     <row r="1414" spans="1:8">
       <c r="A1414" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1415" spans="1:8">
       <c r="A1415" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1416" spans="1:8">
       <c r="A1416" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1417" spans="1:8">
       <c r="A1417" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1418" spans="1:8">
       <c r="A1418" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1419" spans="1:8">
       <c r="A1419" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1420" spans="1:8">
       <c r="A1420" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1421" spans="1:8">
       <c r="A1421" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1422" spans="1:8">
       <c r="A1422" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1423" spans="1:8">
       <c r="A1423" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1424" spans="1:8">
       <c r="A1424" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B1424" s="3" t="s">
         <v>40</v>
@@ -22237,7 +22303,7 @@
     </row>
     <row r="1425" spans="1:7">
       <c r="A1425" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B1425" s="3" t="s">
         <v>36</v>
@@ -22248,7 +22314,7 @@
     </row>
     <row r="1426" spans="1:7">
       <c r="A1426" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B1426" s="3" t="s">
         <v>36</v>
@@ -22259,7 +22325,7 @@
     </row>
     <row r="1427" spans="1:7">
       <c r="A1427" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B1427" s="3" t="s">
         <v>36</v>
@@ -22270,7 +22336,7 @@
     </row>
     <row r="1428" spans="1:7">
       <c r="A1428" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B1428" s="3" t="s">
         <v>36</v>
@@ -22278,12 +22344,12 @@
     </row>
     <row r="1429" spans="1:7">
       <c r="A1429" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1430" spans="1:7">
       <c r="A1430" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="G1430" s="3" t="s">
         <v>40</v>
@@ -22291,42 +22357,42 @@
     </row>
     <row r="1431" spans="1:7">
       <c r="A1431" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1432" spans="1:7">
       <c r="A1432" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1433" spans="1:7">
       <c r="A1433" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1434" spans="1:7">
       <c r="A1434" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1435" spans="1:7">
       <c r="A1435" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1436" spans="1:7">
       <c r="A1436" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1437" spans="1:7">
       <c r="A1437" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1438" spans="1:7">
       <c r="A1438" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="G1438" s="3" t="s">
         <v>36</v>
@@ -22334,12 +22400,12 @@
     </row>
     <row r="1439" spans="1:7">
       <c r="A1439" s="2" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1440" spans="1:7">
       <c r="A1440" s="2" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C1440" s="3" t="s">
         <v>36</v>
@@ -22353,7 +22419,7 @@
     </row>
     <row r="1441" spans="1:3">
       <c r="A1441" s="2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B1441" s="3" t="s">
         <v>40</v>
@@ -22361,7 +22427,7 @@
     </row>
     <row r="1442" spans="1:3">
       <c r="A1442" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B1442" s="3" t="s">
         <v>36</v>
@@ -22369,7 +22435,7 @@
     </row>
     <row r="1443" spans="1:3">
       <c r="A1443" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B1443" s="3" t="s">
         <v>96</v>
@@ -22377,17 +22443,17 @@
     </row>
     <row r="1444" spans="1:3">
       <c r="A1444" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1445" spans="1:3">
       <c r="A1445" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1446" spans="1:3">
       <c r="A1446" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B1446" s="3" t="s">
         <v>36</v>
@@ -22395,37 +22461,37 @@
     </row>
     <row r="1447" spans="1:3">
       <c r="A1447" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1448" spans="1:3">
       <c r="A1448" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1449" spans="1:3">
       <c r="A1449" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1450" spans="1:3">
       <c r="A1450" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1451" spans="1:3">
       <c r="A1451" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1452" spans="1:3">
       <c r="A1452" s="2" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1453" spans="1:3">
       <c r="A1453" s="2" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C1453" s="4" t="s">
         <v>73</v>
@@ -22433,12 +22499,12 @@
     </row>
     <row r="1454" spans="1:3">
       <c r="A1454" s="2" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1455" spans="1:3">
       <c r="A1455" s="2" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B1455" s="3" t="s">
         <v>36</v>
@@ -22446,52 +22512,52 @@
     </row>
     <row r="1456" spans="1:3">
       <c r="A1456" s="2" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1457" spans="1:3">
       <c r="A1457" s="2" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1458" spans="1:3">
       <c r="A1458" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1459" spans="1:3">
       <c r="A1459" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1460" spans="1:3">
       <c r="A1460" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1461" spans="1:3">
       <c r="A1461" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1462" spans="1:3">
       <c r="A1462" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1463" spans="1:3">
       <c r="A1463" s="2" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1464" spans="1:3">
       <c r="A1464" s="2" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1465" spans="1:3">
       <c r="A1465" s="2" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B1465" s="3" t="s">
         <v>36</v>
@@ -22502,7 +22568,7 @@
     </row>
     <row r="1466" spans="1:3">
       <c r="A1466" s="2" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C1466" s="4" t="s">
         <v>73</v>
@@ -22510,37 +22576,37 @@
     </row>
     <row r="1467" spans="1:3">
       <c r="A1467" s="2" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1468" spans="1:3">
       <c r="A1468" s="2" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1469" spans="1:3">
       <c r="A1469" s="2" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
       <c r="A1470" s="2" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1471" spans="1:3">
       <c r="A1471" s="2" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1472" spans="1:3">
       <c r="A1472" s="2" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1473" spans="1:10">
       <c r="A1473" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C1473" s="3" t="s">
         <v>62</v>
@@ -22548,7 +22614,7 @@
     </row>
     <row r="1474" spans="1:10">
       <c r="A1474" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B1474" s="3" t="s">
         <v>40</v>
@@ -22556,27 +22622,27 @@
     </row>
     <row r="1475" spans="1:10">
       <c r="A1475" s="2" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1476" spans="1:10">
       <c r="A1476" s="2" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1477" spans="1:10">
       <c r="A1477" s="2" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1478" spans="1:10">
       <c r="A1478" s="2" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1479" spans="1:10">
       <c r="A1479" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B1479" s="3" t="s">
         <v>36</v>
@@ -22584,17 +22650,17 @@
     </row>
     <row r="1480" spans="1:10">
       <c r="A1480" s="2" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1481" spans="1:10">
       <c r="A1481" s="2" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1482" spans="1:10">
       <c r="A1482" s="2" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B1482" s="3" t="s">
         <v>41</v>
@@ -22608,17 +22674,17 @@
     </row>
     <row r="1483" spans="1:10">
       <c r="A1483" s="2" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1484" spans="1:10">
       <c r="A1484" s="2" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1485" spans="1:10">
       <c r="A1485" s="2" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B1485" s="3" t="s">
         <v>36</v>
@@ -22626,17 +22692,17 @@
     </row>
     <row r="1486" spans="1:10">
       <c r="A1486" s="2" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1487" spans="1:10">
       <c r="A1487" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1488" spans="1:10">
       <c r="A1488" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B1488" s="3" t="s">
         <v>247</v>
@@ -22648,7 +22714,7 @@
         <v>36</v>
       </c>
       <c r="E1488" s="4" t="s">
-        <v>1584</v>
+        <v>391</v>
       </c>
       <c r="G1488" s="4" t="s">
         <v>73</v>
@@ -23548,7 +23614,7 @@
         <v>1722</v>
       </c>
       <c r="C1626" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1627" spans="1:11">
@@ -24355,7 +24421,7 @@
         <v>39</v>
       </c>
       <c r="C1749" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G1749" s="4" t="s">
         <v>214</v>
@@ -24463,7 +24529,7 @@
         <v>1858</v>
       </c>
       <c r="B1761" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1762" spans="1:7">
@@ -24818,7 +24884,7 @@
         <v>137</v>
       </c>
       <c r="G1802" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1803" spans="1:8">
@@ -24858,7 +24924,7 @@
         <v>40</v>
       </c>
       <c r="G1807" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1807" s="4" t="s">
         <v>48</v>
@@ -25034,7 +25100,7 @@
         <v>1933</v>
       </c>
       <c r="C1835" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1836" spans="1:7">
@@ -25599,7 +25665,7 @@
         <v>40</v>
       </c>
       <c r="C1894" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1895" spans="1:3">
@@ -25831,7 +25897,7 @@
         <v>36</v>
       </c>
       <c r="C1920" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1921" spans="1:8">
@@ -26248,7 +26314,7 @@
         <v>102</v>
       </c>
       <c r="G1986" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="1987" spans="1:7">

--- a/groups/24-25-Univers/acmp_results.xlsx
+++ b/groups/24-25-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="2090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5155" uniqueCount="2090">
   <si>
     <t>№</t>
   </si>
@@ -1483,760 +1483,760 @@
     <t>396</t>
   </si>
   <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>7-</t>
+  </si>
+  <si>
+    <t>1+, 21-</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>34-</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>2+, 9-</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>9-</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>14-</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
     <t>5-</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>7-</t>
-  </si>
-  <si>
-    <t>1+, 21-</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>415</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>34-</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>462</t>
-  </si>
-  <si>
-    <t>463</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>481</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>491</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>495</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>498</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>509</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>2+, 9-</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>9-</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>597</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>609</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>611</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>615</t>
-  </si>
-  <si>
-    <t>616</t>
-  </si>
-  <si>
-    <t>617</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>619</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>14-</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>635</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>639</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>641</t>
   </si>
   <si>
     <t>642</t>
@@ -6754,37 +6754,37 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>1152</v>
+        <v>1133</v>
       </c>
       <c r="D3">
-        <v>2885</v>
+        <v>2841</v>
       </c>
       <c r="E3">
         <v>3685</v>
       </c>
       <c r="F3">
-        <v>4366</v>
+        <v>4058</v>
       </c>
       <c r="G3">
-        <v>5848</v>
+        <v>5698</v>
       </c>
       <c r="H3">
         <v>6665</v>
       </c>
       <c r="I3">
-        <v>15858</v>
+        <v>15863</v>
       </c>
       <c r="J3">
-        <v>19984</v>
+        <v>18247</v>
       </c>
       <c r="K3">
-        <v>74567</v>
+        <v>74577</v>
       </c>
       <c r="L3">
-        <v>88974</v>
+        <v>88989</v>
       </c>
       <c r="M3">
-        <v>122355</v>
+        <v>122376</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6795,19 +6795,19 @@
         <v>27685</v>
       </c>
       <c r="C4">
-        <v>9199</v>
+        <v>9261</v>
       </c>
       <c r="D4">
-        <v>5395</v>
+        <v>5457</v>
       </c>
       <c r="E4">
         <v>4589</v>
       </c>
       <c r="F4">
-        <v>4075</v>
+        <v>4292</v>
       </c>
       <c r="G4">
-        <v>3319</v>
+        <v>3381</v>
       </c>
       <c r="H4">
         <v>3020</v>
@@ -6816,7 +6816,7 @@
         <v>1416</v>
       </c>
       <c r="J4">
-        <v>1117</v>
+        <v>1232</v>
       </c>
       <c r="K4">
         <v>187</v>
@@ -6836,19 +6836,19 @@
         <v>2158</v>
       </c>
       <c r="C5">
-        <v>1613</v>
+        <v>1623</v>
       </c>
       <c r="D5">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="E5">
         <v>786</v>
       </c>
       <c r="F5">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="G5">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="H5">
         <v>737</v>
@@ -6857,7 +6857,7 @@
         <v>288</v>
       </c>
       <c r="J5">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K5">
         <v>31</v>
@@ -6877,19 +6877,19 @@
         <v>785</v>
       </c>
       <c r="C6">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D6">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6">
         <v>228</v>
       </c>
       <c r="F6">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G6">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H6">
         <v>141</v>
@@ -6898,7 +6898,7 @@
         <v>69</v>
       </c>
       <c r="J6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -6927,10 +6927,10 @@
         <v>19</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>29</v>
@@ -6959,19 +6959,19 @@
         <v>1096</v>
       </c>
       <c r="C8">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E8">
         <v>256</v>
       </c>
       <c r="F8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H8">
         <v>209</v>
@@ -6980,7 +6980,7 @@
         <v>84</v>
       </c>
       <c r="J8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -7000,7 +7000,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -7009,10 +7009,10 @@
         <v>28</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>38</v>
@@ -8780,6 +8780,9 @@
       <c r="D106" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="F106" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J106" s="3" t="s">
         <v>41</v>
       </c>
@@ -10659,6 +10662,9 @@
       <c r="E258" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="F258" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="G258" s="4" t="s">
         <v>48</v>
       </c>
@@ -12441,7 +12447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:10">
       <c r="A401" s="2" t="s">
         <v>483</v>
       </c>
@@ -12452,7 +12458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:10">
       <c r="A402" s="2" t="s">
         <v>484</v>
       </c>
@@ -12460,7 +12466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:10">
       <c r="A403" s="2" t="s">
         <v>485</v>
       </c>
@@ -12477,7 +12483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:10">
       <c r="A404" s="2" t="s">
         <v>486</v>
       </c>
@@ -12500,106 +12506,112 @@
         <v>40</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:10">
       <c r="A405" s="2" t="s">
         <v>487</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C405" s="4" t="s">
-        <v>71</v>
+      <c r="C405" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E405" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F405" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G405" s="4" t="s">
+      <c r="F405" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J405" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="406" spans="1:9">
-      <c r="A406" s="2" t="s">
+      <c r="B406" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B406" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9">
-      <c r="A407" s="2" t="s">
+      <c r="B407" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10">
+      <c r="A408" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B407" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F407" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9">
-      <c r="A408" s="2" t="s">
+      <c r="B408" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10">
+      <c r="A409" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B408" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9">
-      <c r="A409" s="2" t="s">
+      <c r="B409" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10">
+      <c r="A410" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B409" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9">
-      <c r="A410" s="2" t="s">
+      <c r="B410" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10">
+      <c r="A411" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B410" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9">
-      <c r="A411" s="2" t="s">
+    </row>
+    <row r="412" spans="1:10">
+      <c r="A412" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
-      <c r="A412" s="2" t="s">
+    <row r="413" spans="1:10">
+      <c r="A413" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="413" spans="1:9">
-      <c r="A413" s="2" t="s">
+      <c r="B413" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10">
+      <c r="A414" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B413" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9">
-      <c r="A414" s="2" t="s">
+    </row>
+    <row r="415" spans="1:10">
+      <c r="A415" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="415" spans="1:9">
-      <c r="A415" s="2" t="s">
+      <c r="B415" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10">
+      <c r="A416" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9">
-      <c r="A416" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>40</v>
@@ -12610,7 +12622,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>43</v>
@@ -12618,7 +12630,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>40</v>
@@ -12629,21 +12641,21 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C420" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B420" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C420" s="4" t="s">
+      <c r="E420" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="E420" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="H420" s="3" t="s">
         <v>371</v>
@@ -12651,7 +12663,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>57</v>
@@ -12659,7 +12671,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>36</v>
@@ -12667,7 +12679,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>36</v>
@@ -12675,7 +12687,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>44</v>
@@ -12683,7 +12695,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>36</v>
@@ -12694,7 +12706,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>36</v>
@@ -12702,7 +12714,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>40</v>
@@ -12710,7 +12722,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>40</v>
@@ -12721,7 +12733,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>40</v>
@@ -12729,7 +12741,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>40</v>
@@ -12737,7 +12749,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>36</v>
@@ -12745,7 +12757,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>40</v>
@@ -12753,18 +12765,18 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E433" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E433" s="4" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>36</v>
@@ -12772,7 +12784,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>36</v>
@@ -12780,7 +12792,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>68</v>
@@ -12788,12 +12800,12 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>36</v>
@@ -12801,7 +12813,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>56</v>
@@ -12809,7 +12821,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>36</v>
@@ -12817,7 +12829,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>96</v>
@@ -12837,7 +12849,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>40</v>
@@ -12845,32 +12857,32 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>36</v>
@@ -12884,7 +12896,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>36</v>
@@ -12898,12 +12910,12 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="451" spans="1:10">
       <c r="A451" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>36</v>
@@ -12911,7 +12923,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>44</v>
@@ -12919,7 +12931,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>96</v>
@@ -12927,7 +12939,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>36</v>
@@ -12935,7 +12947,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>36</v>
@@ -12952,7 +12964,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>41</v>
@@ -12969,7 +12981,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>36</v>
@@ -12977,7 +12989,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>36</v>
@@ -12985,7 +12997,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>41</v>
@@ -13014,12 +13026,12 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="461" spans="1:10">
       <c r="A461" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>38</v>
@@ -13027,7 +13039,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>39</v>
@@ -13035,7 +13047,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>36</v>
@@ -13046,12 +13058,12 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>62</v>
@@ -13062,7 +13074,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>36</v>
@@ -13079,7 +13091,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>44</v>
@@ -13090,7 +13102,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>36</v>
@@ -13098,12 +13110,12 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>36</v>
@@ -13114,7 +13126,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>36</v>
@@ -13128,7 +13140,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>40</v>
@@ -13142,7 +13154,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>40</v>
@@ -13153,7 +13165,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>36</v>
@@ -13167,7 +13179,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>36</v>
@@ -13175,7 +13187,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>36</v>
@@ -13183,12 +13195,12 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>36</v>
@@ -13199,7 +13211,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>36</v>
@@ -13207,7 +13219,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>40</v>
@@ -13218,7 +13230,7 @@
     </row>
     <row r="481" spans="1:9">
       <c r="A481" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>36</v>
@@ -13226,7 +13238,7 @@
     </row>
     <row r="482" spans="1:9">
       <c r="A482" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>35</v>
@@ -13243,7 +13255,7 @@
     </row>
     <row r="483" spans="1:9">
       <c r="A483" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>40</v>
@@ -13251,7 +13263,7 @@
     </row>
     <row r="484" spans="1:9">
       <c r="A484" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>36</v>
@@ -13265,7 +13277,7 @@
     </row>
     <row r="485" spans="1:9">
       <c r="A485" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>41</v>
@@ -13273,7 +13285,7 @@
     </row>
     <row r="486" spans="1:9">
       <c r="A486" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>36</v>
@@ -13284,12 +13296,12 @@
     </row>
     <row r="487" spans="1:9">
       <c r="A487" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="488" spans="1:9">
       <c r="A488" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>36</v>
@@ -13297,7 +13309,7 @@
     </row>
     <row r="489" spans="1:9">
       <c r="A489" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>50</v>
@@ -13305,7 +13317,7 @@
     </row>
     <row r="490" spans="1:9">
       <c r="A490" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>36</v>
@@ -13313,7 +13325,7 @@
     </row>
     <row r="491" spans="1:9">
       <c r="A491" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>36</v>
@@ -13333,7 +13345,7 @@
     </row>
     <row r="492" spans="1:9">
       <c r="A492" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>36</v>
@@ -13341,12 +13353,12 @@
     </row>
     <row r="493" spans="1:9">
       <c r="A493" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="494" spans="1:9">
       <c r="A494" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>41</v>
@@ -13354,12 +13366,12 @@
     </row>
     <row r="495" spans="1:9">
       <c r="A495" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="496" spans="1:9">
       <c r="A496" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>36</v>
@@ -13367,7 +13379,7 @@
     </row>
     <row r="497" spans="1:11">
       <c r="A497" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>36</v>
@@ -13375,7 +13387,7 @@
     </row>
     <row r="498" spans="1:11">
       <c r="A498" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>41</v>
@@ -13383,7 +13395,7 @@
     </row>
     <row r="499" spans="1:11">
       <c r="A499" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>36</v>
@@ -13397,7 +13409,7 @@
     </row>
     <row r="500" spans="1:11">
       <c r="A500" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>36</v>
@@ -13432,7 +13444,7 @@
     </row>
     <row r="501" spans="1:11">
       <c r="A501" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>43</v>
@@ -13440,7 +13452,7 @@
     </row>
     <row r="502" spans="1:11">
       <c r="A502" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>40</v>
@@ -13457,7 +13469,7 @@
     </row>
     <row r="503" spans="1:11">
       <c r="A503" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>41</v>
@@ -13465,7 +13477,7 @@
     </row>
     <row r="504" spans="1:11">
       <c r="A504" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>36</v>
@@ -13473,7 +13485,7 @@
     </row>
     <row r="505" spans="1:11">
       <c r="A505" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>36</v>
@@ -13499,12 +13511,12 @@
     </row>
     <row r="506" spans="1:11">
       <c r="A506" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="507" spans="1:11">
       <c r="A507" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>36</v>
@@ -13512,7 +13524,7 @@
     </row>
     <row r="508" spans="1:11">
       <c r="A508" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>36</v>
@@ -13526,7 +13538,7 @@
     </row>
     <row r="509" spans="1:11">
       <c r="A509" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>36</v>
@@ -13537,7 +13549,7 @@
     </row>
     <row r="510" spans="1:11">
       <c r="A510" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>41</v>
@@ -13545,7 +13557,7 @@
     </row>
     <row r="511" spans="1:11">
       <c r="A511" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>36</v>
@@ -13553,12 +13565,12 @@
     </row>
     <row r="512" spans="1:11">
       <c r="A512" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="513" spans="1:12">
       <c r="A513" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>36</v>
@@ -13581,7 +13593,7 @@
     </row>
     <row r="514" spans="1:12">
       <c r="A514" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>40</v>
@@ -13589,17 +13601,17 @@
     </row>
     <row r="515" spans="1:12">
       <c r="A515" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="516" spans="1:12">
       <c r="A516" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="517" spans="1:12">
       <c r="A517" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>40</v>
@@ -13607,7 +13619,7 @@
     </row>
     <row r="518" spans="1:12">
       <c r="A518" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>36</v>
@@ -13615,7 +13627,7 @@
     </row>
     <row r="519" spans="1:12">
       <c r="A519" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>36</v>
@@ -13644,7 +13656,7 @@
     </row>
     <row r="520" spans="1:12">
       <c r="A520" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>36</v>
@@ -13664,12 +13676,12 @@
     </row>
     <row r="521" spans="1:12">
       <c r="A521" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="522" spans="1:12">
       <c r="A522" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>235</v>
@@ -13689,7 +13701,7 @@
     </row>
     <row r="523" spans="1:12">
       <c r="A523" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>36</v>
@@ -13715,7 +13727,7 @@
     </row>
     <row r="524" spans="1:12">
       <c r="A524" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>36</v>
@@ -13729,7 +13741,7 @@
     </row>
     <row r="525" spans="1:12">
       <c r="A525" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>40</v>
@@ -13740,7 +13752,7 @@
     </row>
     <row r="526" spans="1:12">
       <c r="A526" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>41</v>
@@ -13751,7 +13763,7 @@
     </row>
     <row r="527" spans="1:12">
       <c r="A527" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>36</v>
@@ -13762,7 +13774,7 @@
     </row>
     <row r="528" spans="1:12">
       <c r="A528" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>36</v>
@@ -13785,7 +13797,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>41</v>
@@ -13796,7 +13808,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>40</v>
@@ -13807,7 +13819,7 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>40</v>
@@ -13824,7 +13836,7 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>96</v>
@@ -13847,7 +13859,7 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>36</v>
@@ -13858,7 +13870,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>36</v>
@@ -13875,7 +13887,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>36</v>
@@ -13883,7 +13895,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>36</v>
@@ -13891,7 +13903,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>41</v>
@@ -13908,13 +13920,13 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>44</v>
@@ -13931,7 +13943,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>36</v>
@@ -13942,7 +13954,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>36</v>
@@ -13950,7 +13962,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J541" s="4" t="s">
         <v>162</v>
@@ -13958,7 +13970,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>102</v>
@@ -13966,7 +13978,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>36</v>
@@ -13989,18 +14001,18 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="545" spans="1:10">
       <c r="A545" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>36</v>
@@ -14011,17 +14023,17 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="547" spans="1:10">
       <c r="A547" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="548" spans="1:10">
       <c r="A548" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>40</v>
@@ -14047,18 +14059,18 @@
     </row>
     <row r="549" spans="1:10">
       <c r="A549" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C549" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="B549" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C549" s="4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="550" spans="1:10">
       <c r="A550" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>41</v>
@@ -14066,7 +14078,7 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>36</v>
@@ -14080,7 +14092,7 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>36</v>
@@ -14100,7 +14112,7 @@
     </row>
     <row r="553" spans="1:10">
       <c r="A553" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>36</v>
@@ -14126,12 +14138,12 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="555" spans="1:10">
       <c r="A555" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>40</v>
@@ -14142,7 +14154,7 @@
     </row>
     <row r="556" spans="1:10">
       <c r="A556" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>40</v>
@@ -14150,13 +14162,13 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F557" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G557" s="4" t="s">
         <v>48</v>
@@ -14164,12 +14176,12 @@
     </row>
     <row r="558" spans="1:10">
       <c r="A558" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="559" spans="1:10">
       <c r="A559" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>41</v>
@@ -14192,7 +14204,7 @@
     </row>
     <row r="560" spans="1:10">
       <c r="A560" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>38</v>
@@ -14200,7 +14212,7 @@
     </row>
     <row r="561" spans="1:10">
       <c r="A561" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>36</v>
@@ -14211,7 +14223,7 @@
     </row>
     <row r="562" spans="1:10">
       <c r="A562" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>40</v>
@@ -14219,7 +14231,7 @@
     </row>
     <row r="563" spans="1:10">
       <c r="A563" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>36</v>
@@ -14251,12 +14263,12 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="565" spans="1:10">
       <c r="A565" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>36</v>
@@ -14264,7 +14276,7 @@
     </row>
     <row r="566" spans="1:10">
       <c r="A566" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>36</v>
@@ -14275,12 +14287,12 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="568" spans="1:10">
       <c r="A568" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>40</v>
@@ -14288,12 +14300,12 @@
     </row>
     <row r="569" spans="1:10">
       <c r="A569" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="570" spans="1:10">
       <c r="A570" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C570" s="4" t="s">
         <v>137</v>
@@ -14304,7 +14316,7 @@
     </row>
     <row r="571" spans="1:10">
       <c r="A571" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>36</v>
@@ -14312,12 +14324,12 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="573" spans="1:10">
       <c r="A573" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>40</v>
@@ -14325,22 +14337,22 @@
     </row>
     <row r="574" spans="1:10">
       <c r="A574" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="575" spans="1:10">
       <c r="A575" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="576" spans="1:10">
       <c r="A576" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="577" spans="1:9">
       <c r="A577" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>39</v>
@@ -14348,7 +14360,7 @@
     </row>
     <row r="578" spans="1:9">
       <c r="A578" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>36</v>
@@ -14356,7 +14368,7 @@
     </row>
     <row r="579" spans="1:9">
       <c r="A579" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>40</v>
@@ -14364,22 +14376,22 @@
     </row>
     <row r="580" spans="1:9">
       <c r="A580" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="581" spans="1:9">
       <c r="A581" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="582" spans="1:9">
       <c r="A582" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="583" spans="1:9">
       <c r="A583" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>36</v>
@@ -14399,7 +14411,7 @@
     </row>
     <row r="584" spans="1:9">
       <c r="A584" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>36</v>
@@ -14407,7 +14419,7 @@
     </row>
     <row r="585" spans="1:9">
       <c r="A585" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>36</v>
@@ -14430,7 +14442,7 @@
     </row>
     <row r="586" spans="1:9">
       <c r="A586" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>36</v>
@@ -14456,7 +14468,7 @@
     </row>
     <row r="587" spans="1:9">
       <c r="A587" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>40</v>
@@ -14464,7 +14476,7 @@
     </row>
     <row r="588" spans="1:9">
       <c r="A588" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>40</v>
@@ -14484,7 +14496,7 @@
     </row>
     <row r="589" spans="1:9">
       <c r="A589" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>36</v>
@@ -14495,7 +14507,7 @@
     </row>
     <row r="590" spans="1:9">
       <c r="A590" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>41</v>
@@ -14503,7 +14515,7 @@
     </row>
     <row r="591" spans="1:9">
       <c r="A591" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>36</v>
@@ -14511,140 +14523,146 @@
     </row>
     <row r="592" spans="1:9">
       <c r="A592" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10">
+      <c r="A593" s="2" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="593" spans="1:8">
-      <c r="A593" s="2" t="s">
+      <c r="B593" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10">
+      <c r="A594" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B593" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="594" spans="1:8">
-      <c r="A594" s="2" t="s">
+    </row>
+    <row r="595" spans="1:10">
+      <c r="A595" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
-      <c r="A595" s="2" t="s">
+    <row r="596" spans="1:10">
+      <c r="A596" s="2" t="s">
         <v>683</v>
-      </c>
-    </row>
-    <row r="596" spans="1:8">
-      <c r="A596" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:10">
       <c r="A597" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10">
+      <c r="A598" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B597" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="598" spans="1:8">
-      <c r="A598" s="2" t="s">
+    </row>
+    <row r="599" spans="1:10">
+      <c r="A599" s="2" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="599" spans="1:8">
-      <c r="A599" s="2" t="s">
+      <c r="B599" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10">
+      <c r="A600" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B599" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="600" spans="1:8">
-      <c r="A600" s="2" t="s">
+    </row>
+    <row r="601" spans="1:10">
+      <c r="A601" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
-      <c r="A601" s="2" t="s">
+    <row r="602" spans="1:10">
+      <c r="A602" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="602" spans="1:8">
-      <c r="A602" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="B602" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C602" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G602" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="603" spans="1:8">
+      <c r="J602" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10">
       <c r="A603" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:10">
       <c r="A604" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10">
+      <c r="A605" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B604" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="605" spans="1:8">
-      <c r="A605" s="2" t="s">
+      <c r="B605" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10">
+      <c r="A606" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B605" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="606" spans="1:8">
-      <c r="A606" s="2" t="s">
+      <c r="B606" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10">
+      <c r="A607" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B606" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C606" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D606" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E606" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F606" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H606" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="607" spans="1:8">
-      <c r="A607" s="2" t="s">
+    </row>
+    <row r="608" spans="1:10">
+      <c r="A608" s="2" t="s">
         <v>695</v>
-      </c>
-    </row>
-    <row r="608" spans="1:8">
-      <c r="A608" s="2" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="609" spans="1:9">
       <c r="A609" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>40</v>
@@ -14658,7 +14676,7 @@
     </row>
     <row r="610" spans="1:9">
       <c r="A610" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>36</v>
@@ -14666,7 +14684,7 @@
     </row>
     <row r="611" spans="1:9">
       <c r="A611" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>36</v>
@@ -14680,7 +14698,7 @@
     </row>
     <row r="612" spans="1:9">
       <c r="A612" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>36</v>
@@ -14688,12 +14706,12 @@
     </row>
     <row r="613" spans="1:9">
       <c r="A613" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="614" spans="1:9">
       <c r="A614" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>36</v>
@@ -14701,7 +14719,7 @@
     </row>
     <row r="615" spans="1:9">
       <c r="A615" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>36</v>
@@ -14730,67 +14748,67 @@
     </row>
     <row r="616" spans="1:9">
       <c r="A616" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="617" spans="1:9">
       <c r="A617" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="618" spans="1:9">
       <c r="A618" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="619" spans="1:9">
       <c r="A619" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="620" spans="1:9">
       <c r="A620" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="621" spans="1:9">
       <c r="A621" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="622" spans="1:9">
       <c r="A622" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="623" spans="1:9">
       <c r="A623" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="624" spans="1:9">
       <c r="A624" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="625" spans="1:10">
       <c r="A625" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="626" spans="1:10">
       <c r="A626" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="627" spans="1:10">
       <c r="A627" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="628" spans="1:10">
       <c r="A628" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>36</v>
@@ -14798,22 +14816,22 @@
     </row>
     <row r="629" spans="1:10">
       <c r="A629" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="630" spans="1:10">
       <c r="A630" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="631" spans="1:10">
       <c r="A631" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="632" spans="1:10">
       <c r="A632" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>44</v>
@@ -14836,17 +14854,17 @@
     </row>
     <row r="633" spans="1:10">
       <c r="A633" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="634" spans="1:10">
       <c r="A634" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="635" spans="1:10">
       <c r="A635" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>36</v>
@@ -14857,6 +14875,9 @@
       <c r="D635" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="F635" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G635" s="3" t="s">
         <v>36</v>
       </c>
@@ -14866,7 +14887,7 @@
     </row>
     <row r="636" spans="1:10">
       <c r="A636" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>36</v>
@@ -14874,7 +14895,7 @@
     </row>
     <row r="637" spans="1:10">
       <c r="A637" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>36</v>
@@ -14882,7 +14903,7 @@
     </row>
     <row r="638" spans="1:10">
       <c r="A638" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>36</v>
@@ -14890,19 +14911,22 @@
     </row>
     <row r="639" spans="1:10">
       <c r="A639" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C639" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F639" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G639" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="B639" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C639" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D639" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G639" s="4" t="s">
-        <v>728</v>
       </c>
       <c r="J639" s="4" t="s">
         <v>137</v>
@@ -14910,17 +14934,17 @@
     </row>
     <row r="640" spans="1:10">
       <c r="A640" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="641" spans="1:8">
       <c r="A641" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="642" spans="1:8">
       <c r="A642" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>39</v>
@@ -14943,7 +14967,7 @@
     </row>
     <row r="643" spans="1:8">
       <c r="A643" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C643" s="3" t="s">
         <v>36</v>
@@ -14951,7 +14975,7 @@
     </row>
     <row r="644" spans="1:8">
       <c r="A644" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>44</v>
@@ -14959,12 +14983,12 @@
     </row>
     <row r="645" spans="1:8">
       <c r="A645" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="646" spans="1:8">
       <c r="A646" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>36</v>
@@ -14981,7 +15005,7 @@
     </row>
     <row r="647" spans="1:8">
       <c r="A647" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>40</v>
@@ -14989,7 +15013,7 @@
     </row>
     <row r="648" spans="1:8">
       <c r="A648" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>36</v>
@@ -15006,7 +15030,7 @@
     </row>
     <row r="649" spans="1:8">
       <c r="A649" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>36</v>
@@ -15026,13 +15050,13 @@
     </row>
     <row r="650" spans="1:8">
       <c r="A650" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C650" s="4" t="s">
         <v>739</v>
-      </c>
-      <c r="B650" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C650" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="E650" s="3" t="s">
         <v>43</v>
@@ -15802,7 +15826,7 @@
         <v>40</v>
       </c>
       <c r="G717" s="4" t="s">
-        <v>488</v>
+        <v>739</v>
       </c>
       <c r="I717" s="4" t="s">
         <v>73</v>
@@ -16777,7 +16801,7 @@
         <v>40</v>
       </c>
       <c r="H807" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -17508,7 +17532,7 @@
         <v>972</v>
       </c>
       <c r="D880" s="4" t="s">
-        <v>488</v>
+        <v>739</v>
       </c>
       <c r="I880" s="4" t="s">
         <v>48</v>
@@ -17777,7 +17801,7 @@
         <v>40</v>
       </c>
       <c r="I905" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="906" spans="1:13">
@@ -18694,7 +18718,7 @@
         <v>43</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D978" s="4" t="s">
         <v>48</v>
@@ -19197,7 +19221,7 @@
         <v>40</v>
       </c>
       <c r="C1039" s="4" t="s">
-        <v>488</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
@@ -19642,7 +19666,7 @@
         <v>39</v>
       </c>
       <c r="G1098" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1099" spans="1:10">
@@ -20184,7 +20208,7 @@
         <v>41</v>
       </c>
       <c r="C1138" s="4" t="s">
-        <v>488</v>
+        <v>739</v>
       </c>
       <c r="F1138" s="4" t="s">
         <v>73</v>
@@ -21400,7 +21424,7 @@
         <v>1371</v>
       </c>
       <c r="G1275" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1276" spans="1:7">
@@ -23614,7 +23638,7 @@
         <v>1722</v>
       </c>
       <c r="C1626" s="4" t="s">
-        <v>488</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1627" spans="1:11">
@@ -24421,7 +24445,7 @@
         <v>39</v>
       </c>
       <c r="C1749" s="4" t="s">
-        <v>488</v>
+        <v>739</v>
       </c>
       <c r="G1749" s="4" t="s">
         <v>214</v>
@@ -24529,7 +24553,7 @@
         <v>1858</v>
       </c>
       <c r="B1761" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1762" spans="1:7">
@@ -24884,7 +24908,7 @@
         <v>137</v>
       </c>
       <c r="G1802" s="4" t="s">
-        <v>488</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1803" spans="1:8">
@@ -24924,7 +24948,7 @@
         <v>40</v>
       </c>
       <c r="G1807" s="4" t="s">
-        <v>488</v>
+        <v>739</v>
       </c>
       <c r="H1807" s="4" t="s">
         <v>48</v>
@@ -25665,7 +25689,7 @@
         <v>40</v>
       </c>
       <c r="C1894" s="4" t="s">
-        <v>488</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1895" spans="1:3">
@@ -25897,7 +25921,7 @@
         <v>36</v>
       </c>
       <c r="C1920" s="4" t="s">
-        <v>488</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1921" spans="1:8">
@@ -26314,7 +26338,7 @@
         <v>102</v>
       </c>
       <c r="G1986" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1987" spans="1:7">

--- a/groups/24-25-Univers/acmp_results.xlsx
+++ b/groups/24-25-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5155" uniqueCount="2090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5177" uniqueCount="2091">
   <si>
     <t>№</t>
   </si>
@@ -655,6 +655,9 @@
     <t>137</t>
   </si>
   <si>
+    <t>2+, 8-</t>
+  </si>
+  <si>
     <t>138</t>
   </si>
   <si>
@@ -2785,9 +2788,6 @@
     <t>822</t>
   </si>
   <si>
-    <t>2+, 8-</t>
-  </si>
-  <si>
     <t>823</t>
   </si>
   <si>
@@ -6041,6 +6041,9 @@
   </si>
   <si>
     <t>1900</t>
+  </si>
+  <si>
+    <t>5+, 1-</t>
   </si>
   <si>
     <t>1901</t>
@@ -6754,37 +6757,37 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>1133</v>
+        <v>1103</v>
       </c>
       <c r="D3">
-        <v>2841</v>
+        <v>2783</v>
       </c>
       <c r="E3">
         <v>3685</v>
       </c>
       <c r="F3">
-        <v>4058</v>
+        <v>3984</v>
       </c>
       <c r="G3">
-        <v>5698</v>
+        <v>5430</v>
       </c>
       <c r="H3">
-        <v>6665</v>
+        <v>6306</v>
       </c>
       <c r="I3">
-        <v>15863</v>
+        <v>15867</v>
       </c>
       <c r="J3">
-        <v>18247</v>
+        <v>18249</v>
       </c>
       <c r="K3">
-        <v>74577</v>
+        <v>74587</v>
       </c>
       <c r="L3">
-        <v>88989</v>
+        <v>89004</v>
       </c>
       <c r="M3">
-        <v>122376</v>
+        <v>122387</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6795,22 +6798,22 @@
         <v>27685</v>
       </c>
       <c r="C4">
-        <v>9261</v>
+        <v>9389</v>
       </c>
       <c r="D4">
-        <v>5457</v>
+        <v>5522</v>
       </c>
       <c r="E4">
         <v>4589</v>
       </c>
       <c r="F4">
-        <v>4292</v>
+        <v>4345</v>
       </c>
       <c r="G4">
-        <v>3381</v>
+        <v>3499</v>
       </c>
       <c r="H4">
-        <v>3020</v>
+        <v>3126</v>
       </c>
       <c r="I4">
         <v>1416</v>
@@ -6833,31 +6836,31 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="C5">
-        <v>1623</v>
+        <v>1640</v>
       </c>
       <c r="D5">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="E5">
         <v>786</v>
       </c>
       <c r="F5">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="G5">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="H5">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="I5">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J5">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K5">
         <v>31</v>
@@ -6877,22 +6880,22 @@
         <v>785</v>
       </c>
       <c r="C6">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D6">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E6">
         <v>228</v>
       </c>
       <c r="F6">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G6">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H6">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I6">
         <v>69</v>
@@ -6927,19 +6930,19 @@
         <v>19</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
       <c r="H7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>21</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -6959,28 +6962,28 @@
         <v>1096</v>
       </c>
       <c r="C8">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E8">
         <v>256</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -7009,19 +7012,19 @@
         <v>28</v>
       </c>
       <c r="F9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9">
         <v>22</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -9374,12 +9377,27 @@
         <v>211</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>36</v>
@@ -9387,18 +9405,21 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="C148" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="J148" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>36</v>
@@ -9406,7 +9427,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>41</v>
@@ -9415,7 +9436,7 @@
         <v>44</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>36</v>
@@ -9426,7 +9447,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>40</v>
@@ -9434,7 +9455,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>68</v>
@@ -9457,10 +9478,10 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>36</v>
@@ -9477,7 +9498,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>34</v>
@@ -9494,7 +9515,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>40</v>
@@ -9505,7 +9526,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>41</v>
@@ -9514,7 +9535,7 @@
         <v>55</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>36</v>
@@ -9534,10 +9555,10 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>36</v>
@@ -9563,7 +9584,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>36</v>
@@ -9589,7 +9610,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>40</v>
@@ -9609,7 +9630,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>36</v>
@@ -9626,7 +9647,7 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>36</v>
@@ -9640,7 +9661,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>40</v>
@@ -9655,7 +9676,7 @@
         <v>71</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>50</v>
@@ -9666,7 +9687,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>36</v>
@@ -9678,7 +9699,7 @@
         <v>50</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>41</v>
@@ -9701,12 +9722,12 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>40</v>
@@ -9717,7 +9738,7 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>36</v>
@@ -9728,7 +9749,7 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>40</v>
@@ -9736,7 +9757,7 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>178</v>
@@ -9747,7 +9768,7 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>36</v>
@@ -9755,7 +9776,7 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>36</v>
@@ -9763,7 +9784,7 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>36</v>
@@ -9771,7 +9792,7 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>36</v>
@@ -9792,15 +9813,15 @@
         <v>57</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>45</v>
@@ -9814,7 +9835,7 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>36</v>
@@ -9831,7 +9852,7 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>35</v>
@@ -9839,7 +9860,7 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>36</v>
@@ -9847,7 +9868,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>36</v>
@@ -9864,7 +9885,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>36</v>
@@ -9890,7 +9911,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>36</v>
@@ -9901,7 +9922,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>36</v>
@@ -9912,7 +9933,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>39</v>
@@ -9932,13 +9953,13 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>36</v>
@@ -9946,7 +9967,7 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>40</v>
@@ -9954,7 +9975,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>36</v>
@@ -9962,17 +9983,17 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>36</v>
@@ -9983,7 +10004,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>36</v>
@@ -9991,7 +10012,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>36</v>
@@ -9999,7 +10020,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>36</v>
@@ -10007,7 +10028,7 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>36</v>
@@ -10015,7 +10036,7 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>36</v>
@@ -10023,7 +10044,7 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>36</v>
@@ -10031,7 +10052,7 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>36</v>
@@ -10045,7 +10066,7 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>36</v>
@@ -10053,15 +10074,21 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>36</v>
@@ -10069,7 +10096,7 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>36</v>
@@ -10077,7 +10104,7 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>36</v>
@@ -10085,7 +10112,7 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>36</v>
@@ -10093,7 +10120,7 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>36</v>
@@ -10101,7 +10128,7 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>40</v>
@@ -10109,7 +10136,7 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>36</v>
@@ -10126,8 +10153,8 @@
       <c r="G203" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H203" s="4" t="s">
-        <v>73</v>
+      <c r="H203" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I203" s="3" t="s">
         <v>36</v>
@@ -10138,7 +10165,7 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>36</v>
@@ -10173,7 +10200,7 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>36</v>
@@ -10184,7 +10211,7 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>50</v>
@@ -10192,7 +10219,7 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>36</v>
@@ -10200,7 +10227,7 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>41</v>
@@ -10208,7 +10235,7 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>40</v>
@@ -10216,18 +10243,18 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>162</v>
@@ -10241,7 +10268,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>36</v>
@@ -10252,7 +10279,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>73</v>
@@ -10266,7 +10293,7 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>41</v>
@@ -10274,7 +10301,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>36</v>
@@ -10288,7 +10315,7 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>36</v>
@@ -10299,7 +10326,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>36</v>
@@ -10313,7 +10340,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>36</v>
@@ -10321,7 +10348,7 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>96</v>
@@ -10329,7 +10356,7 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>36</v>
@@ -10337,12 +10364,12 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>36</v>
@@ -10353,7 +10380,7 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>41</v>
@@ -10361,7 +10388,7 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>36</v>
@@ -10369,7 +10396,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>36</v>
@@ -10377,7 +10404,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>41</v>
@@ -10385,7 +10412,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>36</v>
@@ -10393,32 +10420,32 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>36</v>
@@ -10435,7 +10462,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>36</v>
@@ -10443,17 +10470,17 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>36</v>
@@ -10461,17 +10488,17 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>36</v>
@@ -10485,12 +10512,12 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>36</v>
@@ -10513,7 +10540,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>36</v>
@@ -10524,7 +10551,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>41</v>
@@ -10538,7 +10565,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>40</v>
@@ -10561,7 +10588,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>36</v>
@@ -10569,7 +10596,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>44</v>
@@ -10577,17 +10604,17 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>36</v>
@@ -10595,17 +10622,17 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>44</v>
@@ -10613,7 +10640,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>40</v>
@@ -10625,12 +10652,12 @@
         <v>55</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>36</v>
@@ -10641,7 +10668,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>44</v>
@@ -10649,12 +10676,12 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>36</v>
@@ -10671,7 +10698,7 @@
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>36</v>
@@ -10688,12 +10715,12 @@
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>36</v>
@@ -10701,7 +10728,7 @@
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>44</v>
@@ -10709,7 +10736,7 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>36</v>
@@ -10729,7 +10756,7 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>36</v>
@@ -10737,7 +10764,7 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>40</v>
@@ -10745,7 +10772,7 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>206</v>
@@ -10753,7 +10780,7 @@
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>43</v>
@@ -10761,12 +10788,12 @@
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>36</v>
@@ -10777,12 +10804,12 @@
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>40</v>
@@ -10790,7 +10817,7 @@
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>36</v>
@@ -10816,7 +10843,7 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>41</v>
@@ -10839,7 +10866,7 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>36</v>
@@ -10850,7 +10877,7 @@
     </row>
     <row r="275" spans="1:9">
       <c r="A275" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>40</v>
@@ -10864,7 +10891,7 @@
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>43</v>
@@ -10881,7 +10908,7 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>40</v>
@@ -10889,7 +10916,7 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>36</v>
@@ -10897,7 +10924,7 @@
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>41</v>
@@ -10911,7 +10938,7 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>36</v>
@@ -10934,10 +10961,10 @@
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>40</v>
@@ -10954,7 +10981,7 @@
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>36</v>
@@ -10962,7 +10989,7 @@
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>41</v>
@@ -10979,7 +11006,7 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>40</v>
@@ -10990,7 +11017,7 @@
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>36</v>
@@ -11010,7 +11037,7 @@
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>40</v>
@@ -11027,7 +11054,7 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>36</v>
@@ -11041,7 +11068,7 @@
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>36</v>
@@ -11049,7 +11076,7 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>36</v>
@@ -11057,7 +11084,7 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>36</v>
@@ -11065,7 +11092,7 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>41</v>
@@ -11076,19 +11103,19 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H292" s="4" t="s">
         <v>162</v>
@@ -11096,7 +11123,7 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>41</v>
@@ -11119,7 +11146,7 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>40</v>
@@ -11133,7 +11160,7 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>41</v>
@@ -11150,7 +11177,7 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>36</v>
@@ -11182,7 +11209,7 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>41</v>
@@ -11190,12 +11217,12 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>36</v>
@@ -11203,7 +11230,7 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>36</v>
@@ -11217,7 +11244,7 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>41</v>
@@ -11228,7 +11255,7 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>41</v>
@@ -11248,7 +11275,7 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>36</v>
@@ -11265,7 +11292,7 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>41</v>
@@ -11279,7 +11306,7 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>36</v>
@@ -11302,7 +11329,7 @@
     </row>
     <row r="306" spans="1:12">
       <c r="A306" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>36</v>
@@ -11325,7 +11352,7 @@
     </row>
     <row r="307" spans="1:12">
       <c r="A307" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>36</v>
@@ -11333,7 +11360,7 @@
     </row>
     <row r="308" spans="1:12">
       <c r="A308" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>41</v>
@@ -11341,7 +11368,7 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>41</v>
@@ -11349,7 +11376,7 @@
     </row>
     <row r="310" spans="1:12">
       <c r="A310" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>36</v>
@@ -11357,7 +11384,7 @@
     </row>
     <row r="311" spans="1:12">
       <c r="A311" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>40</v>
@@ -11372,7 +11399,7 @@
         <v>44</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J311" s="3" t="s">
         <v>36</v>
@@ -11380,7 +11407,7 @@
     </row>
     <row r="312" spans="1:12">
       <c r="A312" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>40</v>
@@ -11388,7 +11415,7 @@
     </row>
     <row r="313" spans="1:12">
       <c r="A313" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>36</v>
@@ -11396,7 +11423,7 @@
     </row>
     <row r="314" spans="1:12">
       <c r="A314" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>36</v>
@@ -11404,7 +11431,7 @@
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>40</v>
@@ -11412,7 +11439,7 @@
     </row>
     <row r="316" spans="1:12">
       <c r="A316" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>36</v>
@@ -11420,7 +11447,7 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>36</v>
@@ -11428,7 +11455,7 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>36</v>
@@ -11439,7 +11466,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>36</v>
@@ -11471,7 +11498,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>36</v>
@@ -11485,7 +11512,7 @@
     </row>
     <row r="321" spans="1:13">
       <c r="A321" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>36</v>
@@ -11511,7 +11538,7 @@
     </row>
     <row r="322" spans="1:13">
       <c r="A322" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>40</v>
@@ -11522,7 +11549,7 @@
     </row>
     <row r="323" spans="1:13">
       <c r="A323" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>36</v>
@@ -11533,7 +11560,7 @@
     </row>
     <row r="324" spans="1:13">
       <c r="A324" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>41</v>
@@ -11545,12 +11572,12 @@
         <v>55</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="325" spans="1:13">
       <c r="A325" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>36</v>
@@ -11558,7 +11585,7 @@
     </row>
     <row r="326" spans="1:13">
       <c r="A326" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>36</v>
@@ -11572,7 +11599,7 @@
     </row>
     <row r="327" spans="1:13">
       <c r="A327" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>40</v>
@@ -11580,7 +11607,7 @@
     </row>
     <row r="328" spans="1:13">
       <c r="A328" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>36</v>
@@ -11588,7 +11615,7 @@
     </row>
     <row r="329" spans="1:13">
       <c r="A329" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>36</v>
@@ -11596,7 +11623,7 @@
     </row>
     <row r="330" spans="1:13">
       <c r="A330" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>36</v>
@@ -11610,7 +11637,7 @@
     </row>
     <row r="331" spans="1:13">
       <c r="A331" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>36</v>
@@ -11630,7 +11657,7 @@
     </row>
     <row r="332" spans="1:13">
       <c r="A332" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>36</v>
@@ -11644,7 +11671,7 @@
     </row>
     <row r="333" spans="1:13">
       <c r="A333" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>36</v>
@@ -11670,7 +11697,7 @@
     </row>
     <row r="334" spans="1:13">
       <c r="A334" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>41</v>
@@ -11678,7 +11705,7 @@
     </row>
     <row r="335" spans="1:13">
       <c r="A335" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>36</v>
@@ -11692,7 +11719,7 @@
     </row>
     <row r="336" spans="1:13">
       <c r="A336" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>36</v>
@@ -11712,7 +11739,7 @@
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>36</v>
@@ -11723,7 +11750,7 @@
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>36</v>
@@ -11740,7 +11767,7 @@
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>40</v>
@@ -11748,7 +11775,7 @@
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>36</v>
@@ -11772,12 +11799,12 @@
         <v>36</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>36</v>
@@ -11791,7 +11818,7 @@
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>36</v>
@@ -11808,7 +11835,7 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>36</v>
@@ -11816,7 +11843,7 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>36</v>
@@ -11824,7 +11851,7 @@
     </row>
     <row r="345" spans="1:9">
       <c r="A345" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>36</v>
@@ -11847,12 +11874,12 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>36</v>
@@ -11863,7 +11890,7 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>36</v>
@@ -11874,7 +11901,7 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>36</v>
@@ -11894,7 +11921,7 @@
     </row>
     <row r="350" spans="1:9">
       <c r="A350" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>36</v>
@@ -11905,7 +11932,7 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>40</v>
@@ -11913,7 +11940,7 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>51</v>
@@ -11927,7 +11954,7 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>40</v>
@@ -11941,7 +11968,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>41</v>
@@ -11952,7 +11979,7 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>40</v>
@@ -11963,7 +11990,7 @@
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>41</v>
@@ -11977,7 +12004,7 @@
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>44</v>
@@ -11985,7 +12012,7 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>96</v>
@@ -11997,12 +12024,12 @@
         <v>40</v>
       </c>
       <c r="H358" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>36</v>
@@ -12019,7 +12046,7 @@
     </row>
     <row r="360" spans="1:9">
       <c r="A360" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>36</v>
@@ -12027,7 +12054,7 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>36</v>
@@ -12035,7 +12062,7 @@
     </row>
     <row r="362" spans="1:9">
       <c r="A362" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>40</v>
@@ -12043,7 +12070,7 @@
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>44</v>
@@ -12054,7 +12081,7 @@
     </row>
     <row r="364" spans="1:9">
       <c r="A364" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>36</v>
@@ -12062,7 +12089,7 @@
     </row>
     <row r="365" spans="1:9">
       <c r="A365" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>36</v>
@@ -12073,7 +12100,7 @@
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>36</v>
@@ -12102,7 +12129,7 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>36</v>
@@ -12110,7 +12137,7 @@
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>36</v>
@@ -12118,7 +12145,7 @@
     </row>
     <row r="369" spans="1:9">
       <c r="A369" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>126</v>
@@ -12126,7 +12153,7 @@
     </row>
     <row r="370" spans="1:9">
       <c r="A370" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>36</v>
@@ -12134,12 +12161,12 @@
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>50</v>
@@ -12153,7 +12180,7 @@
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>40</v>
@@ -12161,7 +12188,7 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>36</v>
@@ -12172,7 +12199,7 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>44</v>
@@ -12180,7 +12207,7 @@
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>39</v>
@@ -12200,7 +12227,7 @@
     </row>
     <row r="377" spans="1:9">
       <c r="A377" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>36</v>
@@ -12208,7 +12235,7 @@
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>41</v>
@@ -12219,7 +12246,7 @@
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>41</v>
@@ -12233,7 +12260,7 @@
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>172</v>
@@ -12241,7 +12268,7 @@
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>36</v>
@@ -12255,7 +12282,7 @@
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>36</v>
@@ -12266,7 +12293,7 @@
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>39</v>
@@ -12274,7 +12301,7 @@
     </row>
     <row r="384" spans="1:9">
       <c r="A384" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>96</v>
@@ -12282,7 +12309,7 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>36</v>
@@ -12290,7 +12317,7 @@
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>36</v>
@@ -12301,7 +12328,7 @@
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>36</v>
@@ -12309,7 +12336,7 @@
     </row>
     <row r="388" spans="1:9">
       <c r="A388" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>36</v>
@@ -12317,7 +12344,7 @@
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>36</v>
@@ -12325,7 +12352,7 @@
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>36</v>
@@ -12333,7 +12360,7 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>36</v>
@@ -12347,7 +12374,7 @@
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>36</v>
@@ -12367,7 +12394,7 @@
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>36</v>
@@ -12375,7 +12402,7 @@
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>68</v>
@@ -12386,7 +12413,7 @@
     </row>
     <row r="395" spans="1:9">
       <c r="A395" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>36</v>
@@ -12397,7 +12424,7 @@
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>36</v>
@@ -12414,7 +12441,7 @@
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>40</v>
@@ -12425,7 +12452,7 @@
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>36</v>
@@ -12433,7 +12460,7 @@
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>36</v>
@@ -12441,7 +12468,7 @@
     </row>
     <row r="400" spans="1:9">
       <c r="A400" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>41</v>
@@ -12449,7 +12476,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>36</v>
@@ -12460,7 +12487,7 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>36</v>
@@ -12468,7 +12495,7 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>50</v>
@@ -12485,7 +12512,7 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>36</v>
@@ -12508,7 +12535,7 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>44</v>
@@ -12526,7 +12553,7 @@
         <v>44</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J405" s="3" t="s">
         <v>44</v>
@@ -12534,7 +12561,7 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>36</v>
@@ -12545,7 +12572,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>36</v>
@@ -12556,7 +12583,7 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>36</v>
@@ -12564,7 +12591,7 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>36</v>
@@ -12572,7 +12599,7 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>36</v>
@@ -12580,17 +12607,17 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="412" spans="1:10">
       <c r="A412" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="413" spans="1:10">
       <c r="A413" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>36</v>
@@ -12598,12 +12625,12 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="415" spans="1:10">
       <c r="A415" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>40</v>
@@ -12611,7 +12638,7 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>40</v>
@@ -12622,7 +12649,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>43</v>
@@ -12630,7 +12657,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>40</v>
@@ -12641,29 +12668,29 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>57</v>
@@ -12671,7 +12698,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>36</v>
@@ -12679,7 +12706,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>36</v>
@@ -12687,7 +12714,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>44</v>
@@ -12695,7 +12722,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>36</v>
@@ -12706,7 +12733,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>36</v>
@@ -12714,7 +12741,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>40</v>
@@ -12722,7 +12749,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>40</v>
@@ -12733,7 +12760,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>40</v>
@@ -12741,7 +12768,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>40</v>
@@ -12749,7 +12776,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>36</v>
@@ -12757,7 +12784,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>40</v>
@@ -12765,18 +12792,18 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>36</v>
@@ -12784,7 +12811,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>36</v>
@@ -12792,7 +12819,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>68</v>
@@ -12800,12 +12827,12 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>36</v>
@@ -12813,7 +12840,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>56</v>
@@ -12821,7 +12848,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>36</v>
@@ -12829,7 +12856,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>96</v>
@@ -12849,7 +12876,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>40</v>
@@ -12857,32 +12884,32 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>36</v>
@@ -12896,7 +12923,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>36</v>
@@ -12910,12 +12937,12 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="451" spans="1:10">
       <c r="A451" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>36</v>
@@ -12923,7 +12950,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>44</v>
@@ -12931,7 +12958,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>96</v>
@@ -12939,7 +12966,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>36</v>
@@ -12947,7 +12974,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>36</v>
@@ -12964,7 +12991,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>41</v>
@@ -12981,7 +13008,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>36</v>
@@ -12989,7 +13016,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>36</v>
@@ -12997,7 +13024,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>41</v>
@@ -13014,8 +13041,8 @@
       <c r="G459" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H459" s="4" t="s">
-        <v>71</v>
+      <c r="H459" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I459" s="3" t="s">
         <v>36</v>
@@ -13026,12 +13053,12 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="461" spans="1:10">
       <c r="A461" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>38</v>
@@ -13039,7 +13066,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>39</v>
@@ -13047,7 +13074,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>36</v>
@@ -13058,12 +13085,12 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>62</v>
@@ -13074,7 +13101,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>36</v>
@@ -13091,7 +13118,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>44</v>
@@ -13102,7 +13129,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>36</v>
@@ -13110,12 +13137,12 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>36</v>
@@ -13126,7 +13153,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>36</v>
@@ -13140,7 +13167,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>40</v>
@@ -13149,12 +13176,12 @@
         <v>41</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>40</v>
@@ -13165,7 +13192,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>36</v>
@@ -13179,7 +13206,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>36</v>
@@ -13187,7 +13214,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>36</v>
@@ -13195,12 +13222,12 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>36</v>
@@ -13211,7 +13238,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>36</v>
@@ -13219,7 +13246,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>40</v>
@@ -13230,7 +13257,7 @@
     </row>
     <row r="481" spans="1:9">
       <c r="A481" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>36</v>
@@ -13238,7 +13265,7 @@
     </row>
     <row r="482" spans="1:9">
       <c r="A482" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>35</v>
@@ -13255,7 +13282,7 @@
     </row>
     <row r="483" spans="1:9">
       <c r="A483" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>40</v>
@@ -13263,7 +13290,7 @@
     </row>
     <row r="484" spans="1:9">
       <c r="A484" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>36</v>
@@ -13277,7 +13304,7 @@
     </row>
     <row r="485" spans="1:9">
       <c r="A485" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>41</v>
@@ -13285,7 +13312,7 @@
     </row>
     <row r="486" spans="1:9">
       <c r="A486" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>36</v>
@@ -13296,12 +13323,12 @@
     </row>
     <row r="487" spans="1:9">
       <c r="A487" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="1:9">
       <c r="A488" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>36</v>
@@ -13309,7 +13336,7 @@
     </row>
     <row r="489" spans="1:9">
       <c r="A489" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>50</v>
@@ -13317,7 +13344,7 @@
     </row>
     <row r="490" spans="1:9">
       <c r="A490" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>36</v>
@@ -13325,7 +13352,7 @@
     </row>
     <row r="491" spans="1:9">
       <c r="A491" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>36</v>
@@ -13345,7 +13372,7 @@
     </row>
     <row r="492" spans="1:9">
       <c r="A492" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>36</v>
@@ -13353,12 +13380,12 @@
     </row>
     <row r="493" spans="1:9">
       <c r="A493" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:9">
       <c r="A494" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>41</v>
@@ -13366,12 +13393,12 @@
     </row>
     <row r="495" spans="1:9">
       <c r="A495" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:9">
       <c r="A496" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>36</v>
@@ -13379,7 +13406,7 @@
     </row>
     <row r="497" spans="1:11">
       <c r="A497" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>36</v>
@@ -13387,7 +13414,7 @@
     </row>
     <row r="498" spans="1:11">
       <c r="A498" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>41</v>
@@ -13395,7 +13422,7 @@
     </row>
     <row r="499" spans="1:11">
       <c r="A499" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>36</v>
@@ -13409,7 +13436,7 @@
     </row>
     <row r="500" spans="1:11">
       <c r="A500" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>36</v>
@@ -13444,7 +13471,7 @@
     </row>
     <row r="501" spans="1:11">
       <c r="A501" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>43</v>
@@ -13452,7 +13479,7 @@
     </row>
     <row r="502" spans="1:11">
       <c r="A502" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>40</v>
@@ -13469,7 +13496,7 @@
     </row>
     <row r="503" spans="1:11">
       <c r="A503" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>41</v>
@@ -13477,7 +13504,7 @@
     </row>
     <row r="504" spans="1:11">
       <c r="A504" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>36</v>
@@ -13485,7 +13512,7 @@
     </row>
     <row r="505" spans="1:11">
       <c r="A505" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>36</v>
@@ -13511,12 +13538,12 @@
     </row>
     <row r="506" spans="1:11">
       <c r="A506" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="507" spans="1:11">
       <c r="A507" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>36</v>
@@ -13524,7 +13551,7 @@
     </row>
     <row r="508" spans="1:11">
       <c r="A508" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>36</v>
@@ -13538,7 +13565,7 @@
     </row>
     <row r="509" spans="1:11">
       <c r="A509" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>36</v>
@@ -13549,7 +13576,7 @@
     </row>
     <row r="510" spans="1:11">
       <c r="A510" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>41</v>
@@ -13557,7 +13584,7 @@
     </row>
     <row r="511" spans="1:11">
       <c r="A511" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>36</v>
@@ -13565,12 +13592,12 @@
     </row>
     <row r="512" spans="1:11">
       <c r="A512" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="513" spans="1:12">
       <c r="A513" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>36</v>
@@ -13593,7 +13620,7 @@
     </row>
     <row r="514" spans="1:12">
       <c r="A514" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>40</v>
@@ -13601,17 +13628,17 @@
     </row>
     <row r="515" spans="1:12">
       <c r="A515" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="516" spans="1:12">
       <c r="A516" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="517" spans="1:12">
       <c r="A517" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>40</v>
@@ -13619,7 +13646,7 @@
     </row>
     <row r="518" spans="1:12">
       <c r="A518" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>36</v>
@@ -13627,7 +13654,7 @@
     </row>
     <row r="519" spans="1:12">
       <c r="A519" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>36</v>
@@ -13656,7 +13683,7 @@
     </row>
     <row r="520" spans="1:12">
       <c r="A520" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>36</v>
@@ -13676,15 +13703,15 @@
     </row>
     <row r="521" spans="1:12">
       <c r="A521" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="522" spans="1:12">
       <c r="A522" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C522" s="3" t="s">
         <v>41</v>
@@ -13701,7 +13728,7 @@
     </row>
     <row r="523" spans="1:12">
       <c r="A523" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>36</v>
@@ -13727,7 +13754,7 @@
     </row>
     <row r="524" spans="1:12">
       <c r="A524" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>36</v>
@@ -13741,7 +13768,7 @@
     </row>
     <row r="525" spans="1:12">
       <c r="A525" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>40</v>
@@ -13752,7 +13779,7 @@
     </row>
     <row r="526" spans="1:12">
       <c r="A526" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>41</v>
@@ -13763,7 +13790,7 @@
     </row>
     <row r="527" spans="1:12">
       <c r="A527" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>36</v>
@@ -13774,7 +13801,7 @@
     </row>
     <row r="528" spans="1:12">
       <c r="A528" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>36</v>
@@ -13797,7 +13824,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>41</v>
@@ -13808,7 +13835,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>40</v>
@@ -13819,13 +13846,13 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E531" s="3" t="s">
         <v>43</v>
@@ -13836,7 +13863,7 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>96</v>
@@ -13859,7 +13886,7 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>36</v>
@@ -13870,7 +13897,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>36</v>
@@ -13887,7 +13914,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>36</v>
@@ -13895,7 +13922,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>36</v>
@@ -13903,7 +13930,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>41</v>
@@ -13920,13 +13947,13 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>44</v>
@@ -13943,7 +13970,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>36</v>
@@ -13954,7 +13981,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>36</v>
@@ -13962,7 +13989,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J541" s="4" t="s">
         <v>162</v>
@@ -13970,7 +13997,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>102</v>
@@ -13978,7 +14005,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>36</v>
@@ -14001,18 +14028,18 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="545" spans="1:10">
       <c r="A545" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>36</v>
@@ -14023,17 +14050,17 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="547" spans="1:10">
       <c r="A547" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="548" spans="1:10">
       <c r="A548" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>40</v>
@@ -14059,18 +14086,18 @@
     </row>
     <row r="549" spans="1:10">
       <c r="A549" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="550" spans="1:10">
       <c r="A550" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>41</v>
@@ -14078,7 +14105,7 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>36</v>
@@ -14092,7 +14119,7 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>36</v>
@@ -14112,7 +14139,7 @@
     </row>
     <row r="553" spans="1:10">
       <c r="A553" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>36</v>
@@ -14138,12 +14165,12 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="555" spans="1:10">
       <c r="A555" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>40</v>
@@ -14154,7 +14181,7 @@
     </row>
     <row r="556" spans="1:10">
       <c r="A556" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>40</v>
@@ -14162,13 +14189,13 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F557" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G557" s="4" t="s">
         <v>48</v>
@@ -14176,12 +14203,12 @@
     </row>
     <row r="558" spans="1:10">
       <c r="A558" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="559" spans="1:10">
       <c r="A559" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>41</v>
@@ -14204,7 +14231,7 @@
     </row>
     <row r="560" spans="1:10">
       <c r="A560" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>38</v>
@@ -14212,7 +14239,7 @@
     </row>
     <row r="561" spans="1:10">
       <c r="A561" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>36</v>
@@ -14223,7 +14250,7 @@
     </row>
     <row r="562" spans="1:10">
       <c r="A562" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>40</v>
@@ -14231,7 +14258,7 @@
     </row>
     <row r="563" spans="1:10">
       <c r="A563" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>36</v>
@@ -14263,12 +14290,12 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="565" spans="1:10">
       <c r="A565" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>36</v>
@@ -14276,7 +14303,7 @@
     </row>
     <row r="566" spans="1:10">
       <c r="A566" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>36</v>
@@ -14287,12 +14314,12 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="568" spans="1:10">
       <c r="A568" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>40</v>
@@ -14300,12 +14327,12 @@
     </row>
     <row r="569" spans="1:10">
       <c r="A569" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="570" spans="1:10">
       <c r="A570" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C570" s="4" t="s">
         <v>137</v>
@@ -14316,7 +14343,7 @@
     </row>
     <row r="571" spans="1:10">
       <c r="A571" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>36</v>
@@ -14324,12 +14351,12 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="573" spans="1:10">
       <c r="A573" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>40</v>
@@ -14337,22 +14364,22 @@
     </row>
     <row r="574" spans="1:10">
       <c r="A574" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="575" spans="1:10">
       <c r="A575" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="576" spans="1:10">
       <c r="A576" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="577" spans="1:9">
       <c r="A577" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>39</v>
@@ -14360,7 +14387,7 @@
     </row>
     <row r="578" spans="1:9">
       <c r="A578" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>36</v>
@@ -14368,7 +14395,7 @@
     </row>
     <row r="579" spans="1:9">
       <c r="A579" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>40</v>
@@ -14376,22 +14403,22 @@
     </row>
     <row r="580" spans="1:9">
       <c r="A580" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="581" spans="1:9">
       <c r="A581" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="582" spans="1:9">
       <c r="A582" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="583" spans="1:9">
       <c r="A583" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>36</v>
@@ -14411,7 +14438,7 @@
     </row>
     <row r="584" spans="1:9">
       <c r="A584" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>36</v>
@@ -14419,7 +14446,7 @@
     </row>
     <row r="585" spans="1:9">
       <c r="A585" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>36</v>
@@ -14442,7 +14469,7 @@
     </row>
     <row r="586" spans="1:9">
       <c r="A586" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>36</v>
@@ -14468,7 +14495,7 @@
     </row>
     <row r="587" spans="1:9">
       <c r="A587" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>40</v>
@@ -14476,7 +14503,7 @@
     </row>
     <row r="588" spans="1:9">
       <c r="A588" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>40</v>
@@ -14496,7 +14523,7 @@
     </row>
     <row r="589" spans="1:9">
       <c r="A589" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>36</v>
@@ -14507,7 +14534,7 @@
     </row>
     <row r="590" spans="1:9">
       <c r="A590" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>41</v>
@@ -14515,7 +14542,7 @@
     </row>
     <row r="591" spans="1:9">
       <c r="A591" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>36</v>
@@ -14523,12 +14550,12 @@
     </row>
     <row r="592" spans="1:9">
       <c r="A592" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="593" spans="1:10">
       <c r="A593" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>36</v>
@@ -14536,17 +14563,17 @@
     </row>
     <row r="594" spans="1:10">
       <c r="A594" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="595" spans="1:10">
       <c r="A595" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="596" spans="1:10">
       <c r="A596" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>130</v>
@@ -14554,7 +14581,7 @@
     </row>
     <row r="597" spans="1:10">
       <c r="A597" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>36</v>
@@ -14562,12 +14589,12 @@
     </row>
     <row r="598" spans="1:10">
       <c r="A598" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="599" spans="1:10">
       <c r="A599" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>36</v>
@@ -14575,17 +14602,17 @@
     </row>
     <row r="600" spans="1:10">
       <c r="A600" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="601" spans="1:10">
       <c r="A601" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="602" spans="1:10">
       <c r="A602" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>41</v>
@@ -14605,7 +14632,7 @@
     </row>
     <row r="603" spans="1:10">
       <c r="A603" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>57</v>
@@ -14613,7 +14640,7 @@
     </row>
     <row r="604" spans="1:10">
       <c r="A604" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>41</v>
@@ -14621,7 +14648,7 @@
     </row>
     <row r="605" spans="1:10">
       <c r="A605" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>41</v>
@@ -14629,7 +14656,7 @@
     </row>
     <row r="606" spans="1:10">
       <c r="A606" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>36</v>
@@ -14652,17 +14679,17 @@
     </row>
     <row r="607" spans="1:10">
       <c r="A607" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="608" spans="1:10">
       <c r="A608" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="609" spans="1:9">
       <c r="A609" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>40</v>
@@ -14676,7 +14703,7 @@
     </row>
     <row r="610" spans="1:9">
       <c r="A610" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>36</v>
@@ -14684,7 +14711,7 @@
     </row>
     <row r="611" spans="1:9">
       <c r="A611" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>36</v>
@@ -14698,7 +14725,7 @@
     </row>
     <row r="612" spans="1:9">
       <c r="A612" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>36</v>
@@ -14706,12 +14733,12 @@
     </row>
     <row r="613" spans="1:9">
       <c r="A613" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="614" spans="1:9">
       <c r="A614" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>36</v>
@@ -14719,7 +14746,7 @@
     </row>
     <row r="615" spans="1:9">
       <c r="A615" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>36</v>
@@ -14748,67 +14775,67 @@
     </row>
     <row r="616" spans="1:9">
       <c r="A616" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="617" spans="1:9">
       <c r="A617" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="618" spans="1:9">
       <c r="A618" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="619" spans="1:9">
       <c r="A619" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="620" spans="1:9">
       <c r="A620" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="621" spans="1:9">
       <c r="A621" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="622" spans="1:9">
       <c r="A622" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="623" spans="1:9">
       <c r="A623" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="624" spans="1:9">
       <c r="A624" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="625" spans="1:10">
       <c r="A625" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="626" spans="1:10">
       <c r="A626" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="627" spans="1:10">
       <c r="A627" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="628" spans="1:10">
       <c r="A628" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>36</v>
@@ -14816,22 +14843,22 @@
     </row>
     <row r="629" spans="1:10">
       <c r="A629" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="630" spans="1:10">
       <c r="A630" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="631" spans="1:10">
       <c r="A631" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="632" spans="1:10">
       <c r="A632" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>44</v>
@@ -14840,7 +14867,7 @@
         <v>96</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>45</v>
@@ -14854,17 +14881,17 @@
     </row>
     <row r="633" spans="1:10">
       <c r="A633" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="634" spans="1:10">
       <c r="A634" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="635" spans="1:10">
       <c r="A635" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>36</v>
@@ -14887,7 +14914,7 @@
     </row>
     <row r="636" spans="1:10">
       <c r="A636" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>36</v>
@@ -14895,7 +14922,7 @@
     </row>
     <row r="637" spans="1:10">
       <c r="A637" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>36</v>
@@ -14903,7 +14930,7 @@
     </row>
     <row r="638" spans="1:10">
       <c r="A638" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>36</v>
@@ -14911,22 +14938,22 @@
     </row>
     <row r="639" spans="1:10">
       <c r="A639" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D639" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F639" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G639" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J639" s="4" t="s">
         <v>137</v>
@@ -14934,17 +14961,17 @@
     </row>
     <row r="640" spans="1:10">
       <c r="A640" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="641" spans="1:8">
       <c r="A641" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="642" spans="1:8">
       <c r="A642" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>39</v>
@@ -14967,7 +14994,7 @@
     </row>
     <row r="643" spans="1:8">
       <c r="A643" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C643" s="3" t="s">
         <v>36</v>
@@ -14975,7 +15002,7 @@
     </row>
     <row r="644" spans="1:8">
       <c r="A644" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>44</v>
@@ -14983,12 +15010,12 @@
     </row>
     <row r="645" spans="1:8">
       <c r="A645" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="646" spans="1:8">
       <c r="A646" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>36</v>
@@ -15005,7 +15032,7 @@
     </row>
     <row r="647" spans="1:8">
       <c r="A647" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>40</v>
@@ -15013,7 +15040,7 @@
     </row>
     <row r="648" spans="1:8">
       <c r="A648" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>36</v>
@@ -15030,7 +15057,7 @@
     </row>
     <row r="649" spans="1:8">
       <c r="A649" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>36</v>
@@ -15050,13 +15077,13 @@
     </row>
     <row r="650" spans="1:8">
       <c r="A650" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E650" s="3" t="s">
         <v>43</v>
@@ -15064,7 +15091,7 @@
     </row>
     <row r="651" spans="1:8">
       <c r="A651" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>36</v>
@@ -15084,7 +15111,7 @@
     </row>
     <row r="652" spans="1:8">
       <c r="A652" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>36</v>
@@ -15107,12 +15134,12 @@
     </row>
     <row r="653" spans="1:8">
       <c r="A653" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="654" spans="1:8">
       <c r="A654" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>40</v>
@@ -15123,17 +15150,17 @@
     </row>
     <row r="655" spans="1:8">
       <c r="A655" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="656" spans="1:8">
       <c r="A656" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="657" spans="1:7">
       <c r="A657" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>36</v>
@@ -15150,7 +15177,7 @@
     </row>
     <row r="658" spans="1:7">
       <c r="A658" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>36</v>
@@ -15158,12 +15185,12 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="660" spans="1:7">
       <c r="A660" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>41</v>
@@ -15171,17 +15198,17 @@
     </row>
     <row r="661" spans="1:7">
       <c r="A661" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="662" spans="1:7">
       <c r="A662" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="663" spans="1:7">
       <c r="A663" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>36</v>
@@ -15189,52 +15216,52 @@
     </row>
     <row r="664" spans="1:7">
       <c r="A664" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="665" spans="1:7">
       <c r="A665" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="666" spans="1:7">
       <c r="A666" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="667" spans="1:7">
       <c r="A667" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="668" spans="1:7">
       <c r="A668" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="669" spans="1:7">
       <c r="A669" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="670" spans="1:7">
       <c r="A670" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="671" spans="1:7">
       <c r="A671" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="672" spans="1:7">
       <c r="A672" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="673" spans="1:9">
       <c r="A673" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>36</v>
@@ -15248,7 +15275,7 @@
     </row>
     <row r="674" spans="1:9">
       <c r="A674" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>36</v>
@@ -15259,7 +15286,7 @@
     </row>
     <row r="675" spans="1:9">
       <c r="A675" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>36</v>
@@ -15267,7 +15294,7 @@
     </row>
     <row r="676" spans="1:9">
       <c r="A676" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>40</v>
@@ -15278,7 +15305,7 @@
     </row>
     <row r="677" spans="1:9">
       <c r="A677" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>36</v>
@@ -15286,7 +15313,7 @@
     </row>
     <row r="678" spans="1:9">
       <c r="A678" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>36</v>
@@ -15297,7 +15324,7 @@
     </row>
     <row r="679" spans="1:9">
       <c r="A679" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>36</v>
@@ -15314,7 +15341,7 @@
     </row>
     <row r="680" spans="1:9">
       <c r="A680" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>36</v>
@@ -15322,7 +15349,7 @@
     </row>
     <row r="681" spans="1:9">
       <c r="A681" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>36</v>
@@ -15336,7 +15363,7 @@
     </row>
     <row r="682" spans="1:9">
       <c r="A682" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>36</v>
@@ -15347,7 +15374,7 @@
     </row>
     <row r="683" spans="1:9">
       <c r="A683" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>36</v>
@@ -15364,7 +15391,7 @@
     </row>
     <row r="684" spans="1:9">
       <c r="A684" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>41</v>
@@ -15390,7 +15417,7 @@
     </row>
     <row r="685" spans="1:9">
       <c r="A685" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>36</v>
@@ -15407,7 +15434,7 @@
     </row>
     <row r="686" spans="1:9">
       <c r="A686" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>41</v>
@@ -15418,7 +15445,7 @@
     </row>
     <row r="687" spans="1:9">
       <c r="A687" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>36</v>
@@ -15438,7 +15465,7 @@
     </row>
     <row r="688" spans="1:9">
       <c r="A688" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>36</v>
@@ -15446,7 +15473,7 @@
     </row>
     <row r="689" spans="1:10">
       <c r="A689" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>36</v>
@@ -15472,7 +15499,7 @@
     </row>
     <row r="690" spans="1:10">
       <c r="A690" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>36</v>
@@ -15480,7 +15507,7 @@
     </row>
     <row r="691" spans="1:10">
       <c r="A691" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>39</v>
@@ -15500,7 +15527,7 @@
     </row>
     <row r="692" spans="1:10">
       <c r="A692" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>36</v>
@@ -15508,7 +15535,7 @@
     </row>
     <row r="693" spans="1:10">
       <c r="A693" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>36</v>
@@ -15516,7 +15543,7 @@
     </row>
     <row r="694" spans="1:10">
       <c r="A694" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>36</v>
@@ -15542,7 +15569,7 @@
     </row>
     <row r="695" spans="1:10">
       <c r="A695" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>36</v>
@@ -15553,7 +15580,7 @@
     </row>
     <row r="696" spans="1:10">
       <c r="A696" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>40</v>
@@ -15561,7 +15588,7 @@
     </row>
     <row r="697" spans="1:10">
       <c r="A697" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>126</v>
@@ -15575,7 +15602,7 @@
     </row>
     <row r="698" spans="1:10">
       <c r="A698" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>41</v>
@@ -15586,12 +15613,12 @@
     </row>
     <row r="699" spans="1:10">
       <c r="A699" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="700" spans="1:10">
       <c r="A700" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>36</v>
@@ -15614,13 +15641,13 @@
     </row>
     <row r="701" spans="1:10">
       <c r="A701" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D701" s="3" t="s">
         <v>41</v>
@@ -15637,7 +15664,7 @@
     </row>
     <row r="702" spans="1:10">
       <c r="A702" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>36</v>
@@ -15654,7 +15681,7 @@
     </row>
     <row r="703" spans="1:10">
       <c r="A703" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>36</v>
@@ -15674,7 +15701,7 @@
     </row>
     <row r="704" spans="1:10">
       <c r="A704" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>36</v>
@@ -15682,7 +15709,7 @@
     </row>
     <row r="705" spans="1:10">
       <c r="A705" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>36</v>
@@ -15690,7 +15717,7 @@
     </row>
     <row r="706" spans="1:10">
       <c r="A706" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>36</v>
@@ -15713,7 +15740,7 @@
     </row>
     <row r="707" spans="1:10">
       <c r="A707" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>40</v>
@@ -15724,7 +15751,7 @@
     </row>
     <row r="708" spans="1:10">
       <c r="A708" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>36</v>
@@ -15732,7 +15759,7 @@
     </row>
     <row r="709" spans="1:10">
       <c r="A709" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>40</v>
@@ -15746,7 +15773,7 @@
     </row>
     <row r="710" spans="1:10">
       <c r="A710" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>40</v>
@@ -15757,7 +15784,7 @@
     </row>
     <row r="711" spans="1:10">
       <c r="A711" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>36</v>
@@ -15765,7 +15792,7 @@
     </row>
     <row r="712" spans="1:10">
       <c r="A712" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>36</v>
@@ -15779,7 +15806,7 @@
     </row>
     <row r="713" spans="1:10">
       <c r="A713" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>40</v>
@@ -15787,12 +15814,12 @@
     </row>
     <row r="714" spans="1:10">
       <c r="A714" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="715" spans="1:10">
       <c r="A715" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>36</v>
@@ -15806,12 +15833,12 @@
     </row>
     <row r="716" spans="1:10">
       <c r="A716" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="717" spans="1:10">
       <c r="A717" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>36</v>
@@ -15826,7 +15853,7 @@
         <v>40</v>
       </c>
       <c r="G717" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="I717" s="4" t="s">
         <v>73</v>
@@ -15837,7 +15864,7 @@
     </row>
     <row r="718" spans="1:10">
       <c r="A718" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>36</v>
@@ -15845,7 +15872,7 @@
     </row>
     <row r="719" spans="1:10">
       <c r="A719" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>36</v>
@@ -15853,7 +15880,7 @@
     </row>
     <row r="720" spans="1:10">
       <c r="A720" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>41</v>
@@ -15870,7 +15897,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="A721" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>126</v>
@@ -15879,7 +15906,7 @@
         <v>44</v>
       </c>
       <c r="E721" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G721" s="3" t="s">
         <v>206</v>
@@ -15887,7 +15914,7 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>40</v>
@@ -15895,12 +15922,12 @@
     </row>
     <row r="723" spans="1:7">
       <c r="A723" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="724" spans="1:7">
       <c r="A724" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>36</v>
@@ -15917,7 +15944,7 @@
     </row>
     <row r="725" spans="1:7">
       <c r="A725" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>44</v>
@@ -15925,7 +15952,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="A726" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>36</v>
@@ -15933,12 +15960,12 @@
     </row>
     <row r="727" spans="1:7">
       <c r="A727" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="728" spans="1:7">
       <c r="A728" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>57</v>
@@ -15946,7 +15973,7 @@
     </row>
     <row r="729" spans="1:7">
       <c r="A729" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>35</v>
@@ -15957,22 +15984,22 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="731" spans="1:7">
       <c r="A731" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="732" spans="1:7">
       <c r="A732" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="733" spans="1:7">
       <c r="A733" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>96</v>
@@ -15980,22 +16007,22 @@
     </row>
     <row r="734" spans="1:7">
       <c r="A734" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="735" spans="1:7">
       <c r="A735" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="736" spans="1:7">
       <c r="A736" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="737" spans="1:5">
       <c r="A737" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>36</v>
@@ -16006,7 +16033,7 @@
     </row>
     <row r="738" spans="1:5">
       <c r="A738" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>44</v>
@@ -16014,7 +16041,7 @@
     </row>
     <row r="739" spans="1:5">
       <c r="A739" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>41</v>
@@ -16022,7 +16049,7 @@
     </row>
     <row r="740" spans="1:5">
       <c r="A740" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>44</v>
@@ -16030,7 +16057,7 @@
     </row>
     <row r="741" spans="1:5">
       <c r="A741" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>36</v>
@@ -16038,7 +16065,7 @@
     </row>
     <row r="742" spans="1:5">
       <c r="A742" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>36</v>
@@ -16046,22 +16073,22 @@
     </row>
     <row r="743" spans="1:5">
       <c r="A743" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="744" spans="1:5">
       <c r="A744" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="745" spans="1:5">
       <c r="A745" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C746" s="4" t="s">
         <v>48</v>
@@ -16069,12 +16096,12 @@
     </row>
     <row r="747" spans="1:5">
       <c r="A747" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>36</v>
@@ -16082,20 +16109,20 @@
     </row>
     <row r="749" spans="1:5">
       <c r="A749" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="750" spans="1:5">
       <c r="A750" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="751" spans="1:5">
       <c r="A751" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C751" s="3" t="s">
         <v>36</v>
@@ -16106,7 +16133,7 @@
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>36</v>
@@ -16117,7 +16144,7 @@
     </row>
     <row r="753" spans="1:13">
       <c r="A753" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>36</v>
@@ -16125,7 +16152,7 @@
     </row>
     <row r="754" spans="1:13">
       <c r="A754" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>36</v>
@@ -16133,27 +16160,27 @@
     </row>
     <row r="755" spans="1:13">
       <c r="A755" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="756" spans="1:13">
       <c r="A756" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="757" spans="1:13">
       <c r="A757" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="758" spans="1:13">
       <c r="A758" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="759" spans="1:13">
       <c r="A759" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C759" s="4" t="s">
         <v>73</v>
@@ -16161,7 +16188,7 @@
     </row>
     <row r="760" spans="1:13">
       <c r="A760" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>41</v>
@@ -16169,17 +16196,17 @@
     </row>
     <row r="761" spans="1:13">
       <c r="A761" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="762" spans="1:13">
       <c r="A762" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="763" spans="1:13">
       <c r="A763" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>36</v>
@@ -16205,7 +16232,7 @@
     </row>
     <row r="764" spans="1:13">
       <c r="A764" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>36</v>
@@ -16231,7 +16258,7 @@
     </row>
     <row r="765" spans="1:13">
       <c r="A765" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>40</v>
@@ -16254,7 +16281,7 @@
     </row>
     <row r="766" spans="1:13">
       <c r="A766" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>36</v>
@@ -16266,7 +16293,7 @@
         <v>36</v>
       </c>
       <c r="E766" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F766" s="3" t="s">
         <v>36</v>
@@ -16277,12 +16304,12 @@
     </row>
     <row r="767" spans="1:13">
       <c r="A767" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="768" spans="1:13">
       <c r="A768" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>36</v>
@@ -16299,7 +16326,7 @@
     </row>
     <row r="769" spans="1:13">
       <c r="A769" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>41</v>
@@ -16313,12 +16340,12 @@
     </row>
     <row r="770" spans="1:13">
       <c r="A770" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="771" spans="1:13">
       <c r="A771" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B771" s="3" t="s">
         <v>36</v>
@@ -16326,7 +16353,7 @@
     </row>
     <row r="772" spans="1:13">
       <c r="A772" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>36</v>
@@ -16349,7 +16376,7 @@
     </row>
     <row r="773" spans="1:13">
       <c r="A773" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>36</v>
@@ -16357,7 +16384,7 @@
     </row>
     <row r="774" spans="1:13">
       <c r="A774" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>36</v>
@@ -16365,7 +16392,7 @@
     </row>
     <row r="775" spans="1:13">
       <c r="A775" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>36</v>
@@ -16394,12 +16421,12 @@
     </row>
     <row r="776" spans="1:13">
       <c r="A776" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="777" spans="1:13">
       <c r="A777" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>96</v>
@@ -16410,7 +16437,7 @@
     </row>
     <row r="778" spans="1:13">
       <c r="A778" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>41</v>
@@ -16421,7 +16448,7 @@
     </row>
     <row r="779" spans="1:13">
       <c r="A779" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B779" s="3" t="s">
         <v>57</v>
@@ -16429,17 +16456,17 @@
     </row>
     <row r="780" spans="1:13">
       <c r="A780" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="781" spans="1:13">
       <c r="A781" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="782" spans="1:13">
       <c r="A782" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>36</v>
@@ -16471,12 +16498,12 @@
     </row>
     <row r="783" spans="1:13">
       <c r="A783" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="784" spans="1:13">
       <c r="A784" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>41</v>
@@ -16487,12 +16514,12 @@
     </row>
     <row r="785" spans="1:9">
       <c r="A785" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="786" spans="1:9">
       <c r="A786" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>44</v>
@@ -16521,7 +16548,7 @@
     </row>
     <row r="787" spans="1:9">
       <c r="A787" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>36</v>
@@ -16541,7 +16568,7 @@
     </row>
     <row r="788" spans="1:9">
       <c r="A788" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>40</v>
@@ -16555,7 +16582,7 @@
     </row>
     <row r="789" spans="1:9">
       <c r="A789" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>36</v>
@@ -16569,18 +16596,18 @@
     </row>
     <row r="790" spans="1:9">
       <c r="A790" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B790" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="791" spans="1:9">
       <c r="A791" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>36</v>
@@ -16594,7 +16621,7 @@
     </row>
     <row r="792" spans="1:9">
       <c r="A792" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B792" s="3" t="s">
         <v>36</v>
@@ -16608,7 +16635,7 @@
     </row>
     <row r="793" spans="1:9">
       <c r="A793" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>41</v>
@@ -16619,7 +16646,7 @@
     </row>
     <row r="794" spans="1:9">
       <c r="A794" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>40</v>
@@ -16636,7 +16663,7 @@
     </row>
     <row r="795" spans="1:9">
       <c r="A795" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>36</v>
@@ -16647,7 +16674,7 @@
     </row>
     <row r="796" spans="1:9">
       <c r="A796" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>40</v>
@@ -16661,12 +16688,12 @@
     </row>
     <row r="797" spans="1:9">
       <c r="A797" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="798" spans="1:9">
       <c r="A798" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>36</v>
@@ -16674,7 +16701,7 @@
     </row>
     <row r="799" spans="1:9">
       <c r="A799" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>43</v>
@@ -16691,7 +16718,7 @@
     </row>
     <row r="800" spans="1:9">
       <c r="A800" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>36</v>
@@ -16714,7 +16741,7 @@
     </row>
     <row r="801" spans="1:8">
       <c r="A801" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>36</v>
@@ -16731,7 +16758,7 @@
     </row>
     <row r="802" spans="1:8">
       <c r="A802" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>39</v>
@@ -16745,7 +16772,7 @@
     </row>
     <row r="803" spans="1:8">
       <c r="A803" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>36</v>
@@ -16759,7 +16786,7 @@
     </row>
     <row r="804" spans="1:8">
       <c r="A804" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>36</v>
@@ -16770,7 +16797,7 @@
     </row>
     <row r="805" spans="1:8">
       <c r="A805" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>41</v>
@@ -16778,12 +16805,12 @@
     </row>
     <row r="806" spans="1:8">
       <c r="A806" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="807" spans="1:8">
       <c r="A807" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>40</v>
@@ -16801,12 +16828,12 @@
         <v>40</v>
       </c>
       <c r="H807" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="808" spans="1:8">
       <c r="A808" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>36</v>
@@ -16814,28 +16841,28 @@
     </row>
     <row r="809" spans="1:8">
       <c r="A809" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="810" spans="1:8">
       <c r="A810" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="811" spans="1:8">
       <c r="A811" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="812" spans="1:8">
       <c r="A812" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F812" s="3" t="s">
         <v>40</v>
@@ -16846,7 +16873,7 @@
     </row>
     <row r="813" spans="1:8">
       <c r="A813" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>40</v>
@@ -16860,7 +16887,7 @@
     </row>
     <row r="814" spans="1:8">
       <c r="A814" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>40</v>
@@ -16868,7 +16895,7 @@
     </row>
     <row r="815" spans="1:8">
       <c r="A815" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>36</v>
@@ -16876,27 +16903,27 @@
     </row>
     <row r="816" spans="1:8">
       <c r="A816" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="817" spans="1:8">
       <c r="A817" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="818" spans="1:8">
       <c r="A818" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="819" spans="1:8">
       <c r="A819" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="820" spans="1:8">
       <c r="A820" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>41</v>
@@ -16907,17 +16934,17 @@
     </row>
     <row r="821" spans="1:8">
       <c r="A821" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="822" spans="1:8">
       <c r="A822" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="823" spans="1:8">
       <c r="A823" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>36</v>
@@ -16931,12 +16958,12 @@
     </row>
     <row r="824" spans="1:8">
       <c r="A824" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="825" spans="1:8">
       <c r="A825" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>36</v>
@@ -16944,7 +16971,7 @@
     </row>
     <row r="826" spans="1:8">
       <c r="A826" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>44</v>
@@ -16964,7 +16991,7 @@
     </row>
     <row r="827" spans="1:8">
       <c r="A827" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>36</v>
@@ -16987,7 +17014,7 @@
     </row>
     <row r="828" spans="1:8">
       <c r="A828" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>44</v>
@@ -17010,12 +17037,12 @@
     </row>
     <row r="829" spans="1:8">
       <c r="A829" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="830" spans="1:8">
       <c r="A830" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>36</v>
@@ -17023,10 +17050,10 @@
     </row>
     <row r="831" spans="1:8">
       <c r="A831" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>922</v>
+        <v>212</v>
       </c>
       <c r="C831" s="3" t="s">
         <v>41</v>
@@ -17088,7 +17115,7 @@
         <v>45</v>
       </c>
       <c r="D838" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -17532,7 +17559,7 @@
         <v>972</v>
       </c>
       <c r="D880" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="I880" s="4" t="s">
         <v>48</v>
@@ -17729,7 +17756,7 @@
         <v>36</v>
       </c>
       <c r="C902" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D902" s="3" t="s">
         <v>36</v>
@@ -17801,7 +17828,7 @@
         <v>40</v>
       </c>
       <c r="I905" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="906" spans="1:13">
@@ -18159,7 +18186,7 @@
         <v>36</v>
       </c>
       <c r="H934" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I934" s="3" t="s">
         <v>56</v>
@@ -18718,7 +18745,7 @@
         <v>43</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D978" s="4" t="s">
         <v>48</v>
@@ -19221,7 +19248,7 @@
         <v>40</v>
       </c>
       <c r="C1039" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
@@ -19365,6 +19392,27 @@
       <c r="B1056" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="C1056" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1056" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1056" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1056" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1056" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1056" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1056" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" s="2" t="s">
@@ -19666,7 +19714,7 @@
         <v>39</v>
       </c>
       <c r="G1098" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1099" spans="1:10">
@@ -20208,7 +20256,7 @@
         <v>41</v>
       </c>
       <c r="C1138" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F1138" s="4" t="s">
         <v>73</v>
@@ -20346,7 +20394,7 @@
         <v>36</v>
       </c>
       <c r="H1150" s="3" t="s">
-        <v>922</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -21424,7 +21472,7 @@
         <v>1371</v>
       </c>
       <c r="G1275" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1276" spans="1:7">
@@ -22729,7 +22777,7 @@
         <v>1584</v>
       </c>
       <c r="B1488" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C1488" s="4" t="s">
         <v>73</v>
@@ -22738,7 +22786,7 @@
         <v>36</v>
       </c>
       <c r="E1488" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G1488" s="4" t="s">
         <v>73</v>
@@ -23638,7 +23686,7 @@
         <v>1722</v>
       </c>
       <c r="C1626" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1627" spans="1:11">
@@ -24445,10 +24493,10 @@
         <v>39</v>
       </c>
       <c r="C1749" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G1749" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1750" spans="1:11">
@@ -24477,7 +24525,7 @@
         <v>41</v>
       </c>
       <c r="C1753" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D1753" s="3" t="s">
         <v>41</v>
@@ -24486,7 +24534,7 @@
         <v>44</v>
       </c>
       <c r="G1753" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1753" s="3" t="s">
         <v>44</v>
@@ -24553,7 +24601,7 @@
         <v>1858</v>
       </c>
       <c r="B1761" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1762" spans="1:7">
@@ -24902,13 +24950,13 @@
         <v>1899</v>
       </c>
       <c r="C1802" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D1802" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G1802" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1803" spans="1:8">
@@ -24948,7 +24996,7 @@
         <v>40</v>
       </c>
       <c r="G1807" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1807" s="4" t="s">
         <v>48</v>
@@ -25124,7 +25172,7 @@
         <v>1933</v>
       </c>
       <c r="C1835" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1836" spans="1:7">
@@ -25408,7 +25456,7 @@
         <v>1961</v>
       </c>
       <c r="B1863" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1864" spans="1:8">
@@ -25598,7 +25646,7 @@
         <v>1981</v>
       </c>
       <c r="B1883" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1884" spans="1:7">
@@ -25623,7 +25671,7 @@
         <v>43</v>
       </c>
       <c r="C1885" s="4" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1886" spans="1:7">
@@ -25689,7 +25737,7 @@
         <v>40</v>
       </c>
       <c r="C1894" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1895" spans="1:3">
@@ -25760,22 +25808,22 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="1905" spans="1:8">
+    <row r="1905" spans="1:10">
       <c r="A1905" s="2" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="1906" spans="1:8">
+    <row r="1906" spans="1:10">
       <c r="A1906" s="2" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="1907" spans="1:8">
+    <row r="1907" spans="1:10">
       <c r="A1907" s="2" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="1908" spans="1:8">
+    <row r="1908" spans="1:10">
       <c r="A1908" s="2" t="s">
         <v>2006</v>
       </c>
@@ -25783,17 +25831,38 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1909" spans="1:8">
+    <row r="1909" spans="1:10">
       <c r="A1909" s="2" t="s">
         <v>2007</v>
       </c>
       <c r="B1909" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="1910" spans="1:8">
+      <c r="C1909" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1909" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1909" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1909" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1909" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1909" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1909" s="3" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:10">
       <c r="A1910" s="2" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B1910" s="3" t="s">
         <v>36</v>
@@ -25811,9 +25880,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1911" spans="1:8">
+    <row r="1911" spans="1:10">
       <c r="A1911" s="2" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B1911" s="3" t="s">
         <v>36</v>
@@ -25831,52 +25900,52 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1912" spans="1:8">
+    <row r="1912" spans="1:10">
       <c r="A1912" s="2" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G1912" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="1913" spans="1:8">
+    <row r="1913" spans="1:10">
       <c r="A1913" s="2" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B1913" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1914" spans="1:8">
+    <row r="1914" spans="1:10">
       <c r="A1914" s="2" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B1914" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1915" spans="1:8">
+    <row r="1915" spans="1:10">
       <c r="A1915" s="2" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B1915" s="3" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F1915" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="1916" spans="1:8">
+    <row r="1916" spans="1:10">
       <c r="A1916" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B1916" s="3" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="1917" spans="1:8">
+    <row r="1917" spans="1:10">
       <c r="A1917" s="2" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B1917" s="3" t="s">
         <v>36</v>
@@ -25888,9 +25957,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1918" spans="1:8">
+    <row r="1918" spans="1:10">
       <c r="A1918" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B1918" s="3" t="s">
         <v>40</v>
@@ -25902,9 +25971,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1919" spans="1:8">
+    <row r="1919" spans="1:10">
       <c r="A1919" s="2" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B1919" s="3" t="s">
         <v>36</v>
@@ -25913,20 +25982,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1920" spans="1:8">
+    <row r="1920" spans="1:10">
       <c r="A1920" s="2" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B1920" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C1920" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1921" spans="1:8">
       <c r="A1921" s="2" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B1921" s="3" t="s">
         <v>36</v>
@@ -25940,42 +26009,42 @@
     </row>
     <row r="1922" spans="1:8">
       <c r="A1922" s="2" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1923" spans="1:8">
       <c r="A1923" s="2" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1924" spans="1:8">
       <c r="A1924" s="2" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1925" spans="1:8">
       <c r="A1925" s="2" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1926" spans="1:8">
       <c r="A1926" s="2" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1927" spans="1:8">
       <c r="A1927" s="2" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1928" spans="1:8">
       <c r="A1928" s="2" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1929" spans="1:8">
       <c r="A1929" s="2" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C1929" s="4" t="s">
         <v>73</v>
@@ -25983,7 +26052,7 @@
     </row>
     <row r="1930" spans="1:8">
       <c r="A1930" s="2" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C1930" s="3" t="s">
         <v>36</v>
@@ -25991,7 +26060,7 @@
     </row>
     <row r="1931" spans="1:8">
       <c r="A1931" s="2" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C1931" s="3" t="s">
         <v>40</v>
@@ -25999,7 +26068,7 @@
     </row>
     <row r="1932" spans="1:8">
       <c r="A1932" s="2" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="C1932" s="3" t="s">
         <v>36</v>
@@ -26007,12 +26076,12 @@
     </row>
     <row r="1933" spans="1:8">
       <c r="A1933" s="2" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1934" spans="1:8">
       <c r="A1934" s="2" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C1934" s="3" t="s">
         <v>40</v>
@@ -26023,7 +26092,7 @@
     </row>
     <row r="1935" spans="1:8">
       <c r="A1935" s="2" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G1935" s="4" t="s">
         <v>137</v>
@@ -26031,12 +26100,12 @@
     </row>
     <row r="1936" spans="1:8">
       <c r="A1936" s="2" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1937" spans="1:7">
       <c r="A1937" s="2" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C1937" s="4" t="s">
         <v>73</v>
@@ -26047,7 +26116,7 @@
     </row>
     <row r="1938" spans="1:7">
       <c r="A1938" s="2" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C1938" s="3" t="s">
         <v>36</v>
@@ -26058,12 +26127,12 @@
     </row>
     <row r="1939" spans="1:7">
       <c r="A1939" s="2" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1940" spans="1:7">
       <c r="A1940" s="2" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C1940" s="3" t="s">
         <v>36</v>
@@ -26074,12 +26143,12 @@
     </row>
     <row r="1941" spans="1:7">
       <c r="A1941" s="2" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1942" spans="1:7">
       <c r="A1942" s="2" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="G1942" s="3" t="s">
         <v>41</v>
@@ -26087,7 +26156,7 @@
     </row>
     <row r="1943" spans="1:7">
       <c r="A1943" s="2" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="G1943" s="3" t="s">
         <v>36</v>
@@ -26095,7 +26164,7 @@
     </row>
     <row r="1944" spans="1:7">
       <c r="A1944" s="2" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="C1944" s="3" t="s">
         <v>41</v>
@@ -26109,7 +26178,7 @@
     </row>
     <row r="1945" spans="1:7">
       <c r="A1945" s="2" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C1945" s="3" t="s">
         <v>41</v>
@@ -26120,17 +26189,17 @@
     </row>
     <row r="1946" spans="1:7">
       <c r="A1946" s="2" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1947" spans="1:7">
       <c r="A1947" s="2" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1948" spans="1:7">
       <c r="A1948" s="2" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="C1948" s="3" t="s">
         <v>41</v>
@@ -26138,75 +26207,75 @@
     </row>
     <row r="1949" spans="1:7">
       <c r="A1949" s="2" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C1949" s="4" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1950" spans="1:7">
       <c r="A1950" s="2" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1951" spans="1:7">
       <c r="A1951" s="2" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1952" spans="1:7">
       <c r="A1952" s="2" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1953" spans="1:3">
       <c r="A1953" s="2" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1954" spans="1:3">
       <c r="A1954" s="2" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1955" spans="1:3">
       <c r="A1955" s="2" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1956" spans="1:3">
       <c r="A1956" s="2" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1957" spans="1:3">
       <c r="A1957" s="2" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1958" spans="1:3">
       <c r="A1958" s="2" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1959" spans="1:3">
       <c r="A1959" s="2" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1960" spans="1:3">
       <c r="A1960" s="2" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1961" spans="1:3">
       <c r="A1961" s="2" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1962" spans="1:3">
       <c r="A1962" s="2" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="C1962" s="3" t="s">
         <v>41</v>
@@ -26214,7 +26283,7 @@
     </row>
     <row r="1963" spans="1:3">
       <c r="A1963" s="2" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C1963" s="3" t="s">
         <v>36</v>
@@ -26222,138 +26291,138 @@
     </row>
     <row r="1964" spans="1:3">
       <c r="A1964" s="2" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1965" spans="1:3">
       <c r="A1965" s="2" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1966" spans="1:3">
       <c r="A1966" s="2" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1967" spans="1:3">
       <c r="A1967" s="2" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1968" spans="1:3">
       <c r="A1968" s="2" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1969" spans="1:1">
       <c r="A1969" s="2" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1970" spans="1:1">
       <c r="A1970" s="2" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1971" spans="1:1">
       <c r="A1971" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1972" spans="1:1">
       <c r="A1972" s="2" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1973" spans="1:1">
       <c r="A1973" s="2" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1974" spans="1:1">
       <c r="A1974" s="2" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1975" spans="1:1">
       <c r="A1975" s="2" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1976" spans="1:1">
       <c r="A1976" s="2" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1977" spans="1:1">
       <c r="A1977" s="2" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1978" spans="1:1">
       <c r="A1978" s="2" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1979" spans="1:1">
       <c r="A1979" s="2" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1980" spans="1:1">
       <c r="A1980" s="2" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1981" spans="1:1">
       <c r="A1981" s="2" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1982" spans="1:1">
       <c r="A1982" s="2" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1983" spans="1:1">
       <c r="A1983" s="2" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1984" spans="1:1">
       <c r="A1984" s="2" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1985" spans="1:7">
       <c r="A1985" s="2" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1986" spans="1:7">
       <c r="A1986" s="2" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C1986" s="3" t="s">
         <v>102</v>
       </c>
       <c r="G1986" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="1987" spans="1:7">
       <c r="A1987" s="2" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1988" spans="1:7">
       <c r="A1988" s="2" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1989" spans="1:7">
       <c r="A1989" s="2" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="C1989" s="3" t="s">
         <v>36</v>
